--- a/指数合理性判断/gold.xlsx
+++ b/指数合理性判断/gold.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cca1d829fc1698e0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ipynb_notebook\指数合理性判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{C30F99A8-F709-430C-8BD8-DEECB9F7C7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34C708A1-AED0-4420-AECE-707D2D037F45}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC8216-9D2A-4A42-A498-D0061396987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="指数合理性判断" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$165</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$175</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">指数合理性判断!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$165</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">指数合理性判断!$A$2:$A$166</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$175</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">指数合理性判断!$A$2:$A$174</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">指数合理性判断!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">指数合理性判断!$D$2:$D$166</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">指数合理性判断!$D$2:$D$174</definedName>
     <definedName name="Var_1">0.0257530557426679</definedName>
     <definedName name="Var_2">2.51132906573386</definedName>
   </definedNames>
@@ -530,10 +530,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>指数合理性判断!$A$2:$A$165</c:f>
+              <c:f>指数合理性判断!$A$2:$A$174</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>45558</c:v>
                 </c:pt>
@@ -1025,16 +1025,43 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>45790</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45791</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45792</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45793</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45796</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>45797</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>45798</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45799</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45800</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>指数合理性判断!$D$2:$D$165</c:f>
+              <c:f>指数合理性判断!$D$2:$D$174</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>9.5604303613490219E-2</c:v>
                 </c:pt>
@@ -1526,6 +1553,33 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>0.28038283591686097</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.2533032081562116</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.27344545713156354</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.25975335044869013</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.26627176324638741</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.29267163382622641</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.3041313617348525</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.29555694022385653</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.31839581500720154</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.31269509869406059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,13 +1644,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$165</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="164"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -2088,6 +2142,33 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>45790</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>45791</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>45792</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>45793</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>45796</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>45803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2097,13 +2178,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$B$2:$B$165</c15:sqref>
+                          <c15:sqref>指数合理性判断!$B$2:$B$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="164"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>2626</c:v>
                       </c:pt>
@@ -2595,6 +2676,33 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>3253</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>3185</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>3237</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>3203</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>3222</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>3290</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>3320</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>3299</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>3358</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>3346</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2645,13 +2753,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$165</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="164"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -3143,6 +3251,33 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>45790</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>45791</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>45792</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>45793</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>45796</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>45803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3152,13 +3287,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$C$2:$C$165</c15:sqref>
+                          <c15:sqref>指数合理性判断!$C$2:$C$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                      <c:ptCount val="164"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>2396.8507529032181</c:v>
                       </c:pt>
@@ -3650,6 +3785,33 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>2540.6463666553141</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>2541.2844866850623</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>2541.9227669878724</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>2542.5612076039947</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>2544.4774917349814</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>2545.1165740071265</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>2545.7558167940147</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>2546.3952201359616</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>2547.0347840732925</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>2548.9544398610005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3934,10 +4096,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>指数合理性判断!$A$2:$A$165</c:f>
+              <c:f>指数合理性判断!$A$2:$A$174</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>45558</c:v>
                 </c:pt>
@@ -4429,16 +4591,43 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>45790</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45791</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45792</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45793</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45796</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>45797</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>45798</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>45799</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>45800</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>45803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>指数合理性判断!$D$2:$D$165</c:f>
+              <c:f>指数合理性判断!$D$2:$D$174</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="164"/>
+                <c:ptCount val="173"/>
                 <c:pt idx="0">
                   <c:v>9.5604303613490219E-2</c:v>
                 </c:pt>
@@ -4930,6 +5119,33 @@
                 </c:pt>
                 <c:pt idx="163">
                   <c:v>0.28038283591686097</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.2533032081562116</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.27344545713156354</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.25975335044869013</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.26627176324638741</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.29267163382622641</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.3041313617348525</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.29555694022385653</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.31839581500720154</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.31269509869406059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,13 +5210,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$165</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="164"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -5492,6 +5708,33 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>45790</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>45791</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>45792</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>45793</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>45796</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>45803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5501,13 +5744,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$B$2:$B$165</c15:sqref>
+                          <c15:sqref>指数合理性判断!$B$2:$B$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="164"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>2626</c:v>
                       </c:pt>
@@ -5999,6 +6242,33 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>3253</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>3185</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>3237</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>3203</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>3222</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>3290</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>3320</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>3299</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>3358</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>3346</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6049,13 +6319,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$165</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="164"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -6547,6 +6817,33 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>45790</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>45791</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>45792</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>45793</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>45796</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>45797</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>45798</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>45799</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>45800</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>45803</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6556,13 +6853,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$C$2:$C$165</c15:sqref>
+                          <c15:sqref>指数合理性判断!$C$2:$C$174</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                      <c:ptCount val="164"/>
+                      <c:ptCount val="173"/>
                       <c:pt idx="0">
                         <c:v>2396.8507529032181</c:v>
                       </c:pt>
@@ -7054,6 +7351,33 @@
                       </c:pt>
                       <c:pt idx="163">
                         <c:v>2540.6463666553141</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>2541.2844866850623</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
+                        <c:v>2541.9227669878724</c:v>
+                      </c:pt>
+                      <c:pt idx="166">
+                        <c:v>2542.5612076039947</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>2544.4774917349814</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>2545.1165740071265</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>2545.7558167940147</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
+                        <c:v>2546.3952201359616</c:v>
+                      </c:pt>
+                      <c:pt idx="171">
+                        <c:v>2547.0347840732925</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>2548.9544398610005</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7263,6 +7587,81 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>溢价指标分布</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>溢价指标分布</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{6DA541DC-BC7B-49BD-BE95-A7E928BFCDE7}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>溢价指标</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
         <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
@@ -7302,85 +7701,10 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{6DA541DC-BC7B-49BD-BE95-A7E928BFCDE7}" formatIdx="2">
+        <cx:series layoutId="clusteredColumn" uniqueId="{32260C36-9DC4-4BE1-8BD3-0BEBFD29B4A0}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>溢价指标</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>溢价指标分布</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            </a:rPr>
-            <a:t>溢价指标分布</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{32260C36-9DC4-4BE1-8BD3-0BEBFD29B4A0}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>溢价指标</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9723,8 +10047,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D166" totalsRowCount="1" dataDxfId="8">
-  <autoFilter ref="A1:D165" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D175" totalsRowCount="1" dataDxfId="8">
+  <autoFilter ref="A1:D174" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="3"/>
     <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
@@ -11027,11 +11351,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M502"/>
+  <dimension ref="A1:M511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A165" sqref="A165"/>
+      <pane ySplit="3" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13569,11 +13893,11 @@
         <v>3239</v>
       </c>
       <c r="C158" s="5">
-        <f>Var_1 * EXP((A158 * 0.0001) * Var_2)</f>
+        <f t="shared" ref="C158:C165" si="32">Var_1 * EXP((A158 * 0.0001) * Var_2)</f>
         <v>2533.6376128473817</v>
       </c>
       <c r="D158" s="7">
-        <f>(B158-C158)/C158</f>
+        <f t="shared" ref="D158:D165" si="33">(B158-C158)/C158</f>
         <v>0.27839908263751656</v>
       </c>
     </row>
@@ -13585,11 +13909,11 @@
         <v>3334</v>
       </c>
       <c r="C159" s="5">
-        <f>Var_1 * EXP((A159 * 0.0001) * Var_2)</f>
+        <f t="shared" si="32"/>
         <v>2535.547171420299</v>
       </c>
       <c r="D159" s="7">
-        <f>(B159-C159)/C159</f>
+        <f t="shared" si="33"/>
         <v>0.31490355911321649</v>
       </c>
     </row>
@@ -13601,11 +13925,11 @@
         <v>3400</v>
       </c>
       <c r="C160" s="5">
-        <f>Var_1 * EXP((A160 * 0.0001) * Var_2)</f>
+        <f t="shared" si="32"/>
         <v>2536.1840107135204</v>
       </c>
       <c r="D160" s="7">
-        <f>(B160-C160)/C160</f>
+        <f t="shared" si="33"/>
         <v>0.34059673337482199</v>
       </c>
     </row>
@@ -13617,11 +13941,11 @@
         <v>3376</v>
       </c>
       <c r="C161" s="5">
-        <f>Var_1 * EXP((A161 * 0.0001) * Var_2)</f>
+        <f t="shared" si="32"/>
         <v>2536.8210099581192</v>
       </c>
       <c r="D161" s="7">
-        <f>(B161-C161)/C161</f>
+        <f t="shared" si="33"/>
         <v>0.33079944810758838</v>
       </c>
     </row>
@@ -13633,11 +13957,11 @@
         <v>3316</v>
       </c>
       <c r="C162" s="5">
-        <f>Var_1 * EXP((A162 * 0.0001) * Var_2)</f>
+        <f t="shared" si="32"/>
         <v>2537.4581691942826</v>
       </c>
       <c r="D162" s="7">
-        <f>(B162-C162)/C162</f>
+        <f t="shared" si="33"/>
         <v>0.30681957253818581</v>
       </c>
     </row>
@@ -13649,11 +13973,11 @@
         <v>3324</v>
       </c>
       <c r="C163" s="5">
-        <f>Var_1 * EXP((A163 * 0.0001) * Var_2)</f>
+        <f t="shared" si="32"/>
         <v>2538.0954884621915</v>
       </c>
       <c r="D163" s="7">
-        <f>(B163-C163)/C163</f>
+        <f t="shared" si="33"/>
         <v>0.3096433980165107</v>
       </c>
     </row>
@@ -13665,11 +13989,11 @@
         <v>3236</v>
       </c>
       <c r="C164" s="5">
-        <f>Var_1 * EXP((A164 * 0.0001) * Var_2)</f>
+        <f t="shared" si="32"/>
         <v>2540.0084068583783</v>
       </c>
       <c r="D164" s="7">
-        <f>(B164-C164)/C164</f>
+        <f t="shared" si="33"/>
         <v>0.27401153132499362</v>
       </c>
     </row>
@@ -13681,84 +14005,174 @@
         <v>3253</v>
       </c>
       <c r="C165" s="5">
-        <f>Var_1 * EXP((A165 * 0.0001) * Var_2)</f>
+        <f t="shared" si="32"/>
         <v>2540.6463666553141</v>
       </c>
       <c r="D165" s="7">
-        <f>(B165-C165)/C165</f>
+        <f t="shared" si="33"/>
         <v>0.28038283591686097</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="3">
+        <v>45791</v>
+      </c>
+      <c r="B166" s="6">
+        <v>3185</v>
+      </c>
+      <c r="C166" s="5">
+        <f>Var_1 * EXP((A166 * 0.0001) * Var_2)</f>
+        <v>2541.2844866850623</v>
+      </c>
+      <c r="D166" s="7">
+        <f>(B166-C166)/C166</f>
+        <v>0.2533032081562116</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>45792</v>
+      </c>
+      <c r="B167" s="6">
+        <v>3237</v>
+      </c>
+      <c r="C167" s="5">
+        <f>Var_1 * EXP((A167 * 0.0001) * Var_2)</f>
+        <v>2541.9227669878724</v>
+      </c>
+      <c r="D167" s="7">
+        <f>(B167-C167)/C167</f>
+        <v>0.27344545713156354</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>45793</v>
+      </c>
+      <c r="B168" s="6">
+        <v>3203</v>
+      </c>
+      <c r="C168" s="5">
+        <f>Var_1 * EXP((A168 * 0.0001) * Var_2)</f>
+        <v>2542.5612076039947</v>
+      </c>
+      <c r="D168" s="7">
+        <f>(B168-C168)/C168</f>
+        <v>0.25975335044869013</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>45796</v>
+      </c>
+      <c r="B169" s="6">
+        <v>3222</v>
+      </c>
+      <c r="C169" s="5">
+        <f>Var_1 * EXP((A169 * 0.0001) * Var_2)</f>
+        <v>2544.4774917349814</v>
+      </c>
+      <c r="D169" s="7">
+        <f>(B169-C169)/C169</f>
+        <v>0.26627176324638741</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>45797</v>
+      </c>
+      <c r="B170" s="6">
+        <v>3290</v>
+      </c>
+      <c r="C170" s="5">
+        <f>Var_1 * EXP((A170 * 0.0001) * Var_2)</f>
+        <v>2545.1165740071265</v>
+      </c>
+      <c r="D170" s="7">
+        <f>(B170-C170)/C170</f>
+        <v>0.29267163382622641</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>45798</v>
+      </c>
+      <c r="B171" s="6">
+        <v>3320</v>
+      </c>
+      <c r="C171" s="5">
+        <f>Var_1 * EXP((A171 * 0.0001) * Var_2)</f>
+        <v>2545.7558167940147</v>
+      </c>
+      <c r="D171" s="7">
+        <f>(B171-C171)/C171</f>
+        <v>0.3041313617348525</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>45799</v>
+      </c>
+      <c r="B172" s="6">
+        <v>3299</v>
+      </c>
+      <c r="C172" s="5">
+        <f>Var_1 * EXP((A172 * 0.0001) * Var_2)</f>
+        <v>2546.3952201359616</v>
+      </c>
+      <c r="D172" s="7">
+        <f>(B172-C172)/C172</f>
+        <v>0.29555694022385653</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>45800</v>
+      </c>
+      <c r="B173" s="6">
+        <v>3358</v>
+      </c>
+      <c r="C173" s="5">
+        <f>Var_1 * EXP((A173 * 0.0001) * Var_2)</f>
+        <v>2547.0347840732925</v>
+      </c>
+      <c r="D173" s="7">
+        <f>(B173-C173)/C173</f>
+        <v>0.31839581500720154</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>45803</v>
+      </c>
+      <c r="B174" s="6">
+        <v>3346</v>
+      </c>
+      <c r="C174" s="5">
+        <f>Var_1 * EXP((A174 * 0.0001) * Var_2)</f>
+        <v>2548.9544398610005</v>
+      </c>
+      <c r="D174" s="7">
+        <f>(B174-C174)/C174</f>
+        <v>0.31269509869406059</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B166" s="12">
+      <c r="B175" s="12">
         <f>表2[[#Totals],[溢价指标]] -7%</f>
-        <v>8.1840532249401715E-2</v>
-      </c>
-      <c r="C166" s="13">
+        <v>8.8832785649542945E-2</v>
+      </c>
+      <c r="C175" s="13">
         <f>表2[[#Totals],[溢价指标]] +7%</f>
-        <v>0.22184053224940173</v>
-      </c>
-      <c r="D166" s="14">
+        <v>0.22883278564954296</v>
+      </c>
+      <c r="D175" s="14">
         <f>SUBTOTAL(101,表2[溢价指标])</f>
-        <v>0.15184053224940172</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167"/>
-      <c r="B167"/>
-      <c r="C167"/>
-      <c r="D167"/>
-    </row>
-    <row r="168" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168"/>
-      <c r="B168"/>
-      <c r="C168"/>
-      <c r="D168"/>
-    </row>
-    <row r="169" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169"/>
-      <c r="B169"/>
-      <c r="C169"/>
-      <c r="D169"/>
-    </row>
-    <row r="170" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170"/>
-      <c r="B170"/>
-      <c r="C170"/>
-      <c r="D170"/>
-    </row>
-    <row r="171" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171"/>
-      <c r="B171"/>
-      <c r="C171"/>
-      <c r="D171"/>
-    </row>
-    <row r="172" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172"/>
-      <c r="B172"/>
-      <c r="C172"/>
-      <c r="D172"/>
-    </row>
-    <row r="173" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173"/>
-      <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173"/>
-    </row>
-    <row r="174" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174"/>
-      <c r="B174"/>
-      <c r="C174"/>
-      <c r="D174"/>
-    </row>
-    <row r="175" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175"/>
-      <c r="B175"/>
-      <c r="C175"/>
-      <c r="D175"/>
+        <v>0.15883278564954295</v>
+      </c>
     </row>
     <row r="176" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176"/>
@@ -15731,6 +16145,60 @@
       <c r="B502"/>
       <c r="C502"/>
       <c r="D502"/>
+    </row>
+    <row r="503" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A503"/>
+      <c r="B503"/>
+      <c r="C503"/>
+      <c r="D503"/>
+    </row>
+    <row r="504" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A504"/>
+      <c r="B504"/>
+      <c r="C504"/>
+      <c r="D504"/>
+    </row>
+    <row r="505" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A505"/>
+      <c r="B505"/>
+      <c r="C505"/>
+      <c r="D505"/>
+    </row>
+    <row r="506" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A506"/>
+      <c r="B506"/>
+      <c r="C506"/>
+      <c r="D506"/>
+    </row>
+    <row r="507" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A507"/>
+      <c r="B507"/>
+      <c r="C507"/>
+      <c r="D507"/>
+    </row>
+    <row r="508" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A508"/>
+      <c r="B508"/>
+      <c r="C508"/>
+      <c r="D508"/>
+    </row>
+    <row r="509" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A509"/>
+      <c r="B509"/>
+      <c r="C509"/>
+      <c r="D509"/>
+    </row>
+    <row r="510" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A510"/>
+      <c r="B510"/>
+      <c r="C510"/>
+      <c r="D510"/>
+    </row>
+    <row r="511" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A511"/>
+      <c r="B511"/>
+      <c r="C511"/>
+      <c r="D511"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/指数合理性判断/gold.xlsx
+++ b/指数合理性判断/gold.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ipynb_notebook\指数合理性判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FC8216-9D2A-4A42-A498-D0061396987B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6C22E5-D524-44FC-842B-25D0DEAB4A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="指数合理性判断" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$175</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$179</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">指数合理性判断!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$175</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">指数合理性判断!$A$2:$A$174</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$179</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">指数合理性判断!$A$2:$A$180</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">指数合理性判断!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">指数合理性判断!$D$2:$D$174</definedName>
-    <definedName name="Var_1">0.0257530557426679</definedName>
-    <definedName name="Var_2">2.51132906573386</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">指数合理性判断!$D$2:$D$180</definedName>
+    <definedName name="Var_1">0.016580383475384</definedName>
+    <definedName name="Var_2">2.61116456133571</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -259,6 +259,27 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="等线"/>
@@ -273,6 +294,27 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -320,6 +362,7 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="177" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -340,49 +383,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -530,10 +530,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>指数合理性判断!$A$2:$A$174</c:f>
+              <c:f>指数合理性判断!$A$2:$A$179</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>45558</c:v>
                 </c:pt>
@@ -1052,534 +1052,564 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>45803</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45804</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45805</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45806</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>指数合理性判断!$D$2:$D$174</c:f>
+              <c:f>指数合理性判断!$D$2:$D$179</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>9.5604303613490219E-2</c:v>
+                  <c:v>7.9835318975307143E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10867669558715899</c:v>
+                  <c:v>9.2708651419824456E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10756429608498472</c:v>
+                  <c:v>9.1601375469807858E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11395658387278246</c:v>
+                  <c:v>9.7890572643341209E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10784173455290198</c:v>
+                  <c:v>9.185301396317315E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7428331514942776E-2</c:v>
+                  <c:v>8.1557506601308699E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10756218478145849</c:v>
+                  <c:v>9.1533908340165948E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10728407439358228</c:v>
+                  <c:v>9.1248928082408878E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1049251954301321</c:v>
+                  <c:v>8.891333797566256E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10339955764905288</c:v>
+                  <c:v>8.7398952589734458E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8411072524462628E-2</c:v>
+                  <c:v>8.2450385851912986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9406705693735197E-2</c:v>
+                  <c:v>7.356614076019477E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3731120213506496E-2</c:v>
+                  <c:v>6.796241926512972E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3844912107876946E-2</c:v>
+                  <c:v>7.7918290127380108E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10353822408280083</c:v>
+                  <c:v>8.7459608591518967E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9386975940704267E-2</c:v>
+                  <c:v>8.3336397260234688E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10367498785767114</c:v>
+                  <c:v>8.7550948367949341E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10920521067423374</c:v>
+                  <c:v>9.2989465927604473E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11680612192623507</c:v>
+                  <c:v>0.10046827094760764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12813457241180992</c:v>
+                  <c:v>0.11161989860753947</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12728495735891726</c:v>
+                  <c:v>0.11074945283814634</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13735656098860871</c:v>
+                  <c:v>0.12066213357716958</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.12671890282997819</c:v>
+                  <c:v>0.11016953435602814</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.13140372629687797</c:v>
+                  <c:v>0.1147744171705868</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1369138754450536</c:v>
+                  <c:v>0.12019239490051964</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.13481695947184383</c:v>
+                  <c:v>0.11809283180158889</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.14734924012713169</c:v>
+                  <c:v>0.13042913483936738</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.15119469280954773</c:v>
+                  <c:v>0.134206554677722</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1347888149558337</c:v>
+                  <c:v>0.11803161578589479</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13037238989044753</c:v>
+                  <c:v>0.11366928875694908</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.12952108950367511</c:v>
+                  <c:v>0.11279723822770087</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13295206212963559</c:v>
+                  <c:v>0.11616626802392559</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.9244598647068985E-2</c:v>
+                  <c:v>8.2947401903752244E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11629465798253676</c:v>
+                  <c:v>9.9733700917961909E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1069410674207506</c:v>
+                  <c:v>9.0507989758944724E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.1380720216441924E-2</c:v>
+                  <c:v>6.5295191560816368E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.0396974127585055E-2</c:v>
+                  <c:v>5.4464301248792403E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8594866688341928E-2</c:v>
+                  <c:v>4.2827454955518145E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.6681847311093957E-2</c:v>
+                  <c:v>4.093253710003511E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.4769721911018907E-2</c:v>
+                  <c:v>3.9038537620538757E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.4544745424360584E-2</c:v>
+                  <c:v>5.84869270516543E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.3734467603371693E-2</c:v>
+                  <c:v>6.7528661768801457E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.0452420003455145E-2</c:v>
+                  <c:v>7.4135432398685655E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.7166930297848106E-2</c:v>
+                  <c:v>8.073868043889687E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.11579626561213685</c:v>
+                  <c:v>9.9078099687653534E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.1836099634261991E-2</c:v>
+                  <c:v>5.5744975660645839E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.0599325296552171E-2</c:v>
+                  <c:v>6.4366015685086056E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.2380280124710728E-2</c:v>
+                  <c:v>6.6109572498158159E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.2518848841903775E-2</c:v>
+                  <c:v>6.623541333614881E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.0041831081848878E-2</c:v>
+                  <c:v>7.3634514840917722E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.3071745958163454E-2</c:v>
+                  <c:v>6.6737393525346148E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.2799785153156516E-2</c:v>
+                  <c:v>6.6458887200398067E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.5805796930500458E-2</c:v>
+                  <c:v>6.9408857687217551E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.8569352038052487E-2</c:v>
+                  <c:v>6.2271086299088695E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.8298521790353112E-2</c:v>
+                  <c:v>6.1993746048208606E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.8535483394351439E-2</c:v>
+                  <c:v>7.2043807340343699E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.10299051057079985</c:v>
+                  <c:v>8.6268991153842359E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.11252998921793826</c:v>
+                  <c:v>9.5652911159837165E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.589400447506792E-2</c:v>
+                  <c:v>7.9258519392726393E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.2127995180532848E-2</c:v>
+                  <c:v>6.5690836353649612E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.2947048813740071E-2</c:v>
+                  <c:v>6.6465507026683732E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.1041509181813395E-2</c:v>
+                  <c:v>6.4578339779022428E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.6680359104372566E-2</c:v>
+                  <c:v>4.0577796679676571E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.8456012510455707E-2</c:v>
+                  <c:v>4.2315985156815471E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0024986606410836E-2</c:v>
+                  <c:v>5.3698028294205488E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.636462142647169E-2</c:v>
+                  <c:v>5.0062064224018175E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.6096855803414817E-2</c:v>
+                  <c:v>4.9787911533534852E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.2896175378421205E-2</c:v>
+                  <c:v>5.6462121733369883E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.7330853225876008E-2</c:v>
+                  <c:v>5.097155375004523E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.0828030966221053E-2</c:v>
+                  <c:v>4.4537117160948062E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.7887100638752904E-2</c:v>
+                  <c:v>5.1477284651561664E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.1180875810235933E-2</c:v>
+                  <c:v>6.4545523324602339E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.2776136307917377E-2</c:v>
+                  <c:v>5.6259556231544702E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.0342786878400884E-2</c:v>
+                  <c:v>5.3832107491157181E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.6167837949455308E-2</c:v>
+                  <c:v>5.9556725466190848E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.1177591449828668E-2</c:v>
+                  <c:v>6.4478523943889074E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.3748458915712309E-2</c:v>
+                  <c:v>6.6999031206020174E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.9971502878419235E-2</c:v>
+                  <c:v>7.311518392508759E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.1849060542506055E-2</c:v>
+                  <c:v>6.5086453978781128E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.4821733434920207E-2</c:v>
+                  <c:v>6.8002404567859512E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.2252674263932244E-2</c:v>
+                  <c:v>7.5307398920904142E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.10008515205072756</c:v>
+                  <c:v>8.3007550850789355E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.4540858747419215E-2</c:v>
+                  <c:v>7.7538568835000848E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.7360915668381121E-2</c:v>
+                  <c:v>8.0282464139667165E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.11084953748720543</c:v>
+                  <c:v>9.3550242221144664E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.11502259749259917</c:v>
+                  <c:v>9.7647356558534765E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.11433798851666511</c:v>
+                  <c:v>9.6962464114571892E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.12053055537435212</c:v>
+                  <c:v>0.10304745982637101</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.10796431563306441</c:v>
+                  <c:v>9.0644619034546597E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.11617257205128408</c:v>
+                  <c:v>9.8713594883787351E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.11508426750541793</c:v>
+                  <c:v>9.7631355096537586E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.1293451935510754</c:v>
+                  <c:v>0.11165797572341067</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.12946542658619717</c:v>
+                  <c:v>0.11176522631254462</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.13507095402646888</c:v>
+                  <c:v>0.11724944496056723</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.14567794477874019</c:v>
+                  <c:v>0.12767863930184392</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.15708614996429512</c:v>
+                  <c:v>0.13889624428032196</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.15195714212064432</c:v>
+                  <c:v>0.13383654693701807</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.15247409192717798</c:v>
+                  <c:v>0.13433404024763773</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.17496856561717722</c:v>
+                  <c:v>0.15643981214379724</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.16702224483539976</c:v>
+                  <c:v>0.14860733421830297</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.16954739042762201</c:v>
+                  <c:v>0.15108114259558714</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.17971863684705214</c:v>
+                  <c:v>0.16108020114902935</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.15890021654025321</c:v>
+                  <c:v>0.14057930505345606</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.16566719572421343</c:v>
+                  <c:v>0.14720494584601909</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.17904221941828405</c:v>
+                  <c:v>0.16035654664301055</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.17954994219808917</c:v>
+                  <c:v>0.16084463353326603</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.18166449580116312</c:v>
+                  <c:v>0.16291404446716534</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.17855595419946416</c:v>
+                  <c:v>0.15984324926478269</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.18368916546574923</c:v>
+                  <c:v>0.16486006833598396</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.1709520784764049</c:v>
+                  <c:v>0.15231408759969081</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.1710592358747029</c:v>
+                  <c:v>0.15240803419840843</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.15311747043804563</c:v>
+                  <c:v>0.1347406944986872</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.14520923218570203</c:v>
+                  <c:v>0.12694723571417785</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.1579699336405388</c:v>
+                  <c:v>0.13947032117673472</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.16729311042705494</c:v>
+                  <c:v>0.14863308432582148</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.16820144284093946</c:v>
+                  <c:v>0.14951542008651014</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.16510544670181876</c:v>
+                  <c:v>0.14645750033116248</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.16521316646438403</c:v>
+                  <c:v>0.14655204928248361</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.15353622403703271</c:v>
+                  <c:v>0.13502812003862247</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.16564277049448869</c:v>
+                  <c:v>0.14692897051645162</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.17454494794631023</c:v>
+                  <c:v>0.15567669023799999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.19343449762767267</c:v>
+                  <c:v>0.17425106902807466</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.1919360956911848</c:v>
+                  <c:v>0.17276504419193248</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.19742683668593672</c:v>
+                  <c:v>0.17813218598107641</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.20989976474727903</c:v>
+                  <c:v>0.19039224801912999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.20600428334428128</c:v>
+                  <c:v>0.18654772842059286</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.21527684610014877</c:v>
+                  <c:v>0.19565875926823229</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.20579757520403499</c:v>
+                  <c:v>0.1863206674989849</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.199309433734182</c:v>
+                  <c:v>0.17990198778685948</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.20378997356361628</c:v>
+                  <c:v>0.1842981991375022</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.20348770024562843</c:v>
+                  <c:v>0.18398899975901975</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.21672681600207055</c:v>
+                  <c:v>0.19700166725654117</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.22796833760732377</c:v>
+                  <c:v>0.20804888457694773</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.24136700165343081</c:v>
+                  <c:v>0.22119362649101684</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.23906642203064063</c:v>
+                  <c:v>0.21891826424780314</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.25744598052807094</c:v>
+                  <c:v>0.23698660763514709</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.23725151440843301</c:v>
+                  <c:v>0.21710856602710665</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.20713024665554855</c:v>
+                  <c:v>0.18746582935003181</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.18397932653699753</c:v>
+                  <c:v>0.16465716005396483</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.18249080123776582</c:v>
+                  <c:v>0.1631813142784759</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.22506726053205137</c:v>
+                  <c:v>0.20505049041620993</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.26563788275330646</c:v>
+                  <c:v>0.24494578708179174</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.28396857219977362</c:v>
+                  <c:v>0.26296417652320514</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.2734861332134837</c:v>
+                  <c:v>0.25261570216448531</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.28862510380275108</c:v>
+                  <c:v>0.26749391472929135</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.327533103566305</c:v>
+                  <c:v>0.30575085551977865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.317691461403174</c:v>
+                  <c:v>0.29605775632910725</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.35911283910109482</c:v>
+                  <c:v>0.33674569973450652</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.31999474009818168</c:v>
+                  <c:v>0.29825841230900935</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.31175163719820104</c:v>
+                  <c:v>0.29013816820200372</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.32407771660438583</c:v>
+                  <c:v>0.3022481521427301</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.31227910627394279</c:v>
+                  <c:v>0.29063117585753462</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.31840235924787846</c:v>
+                  <c:v>0.29661458194137275</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.30977658156815746</c:v>
+                  <c:v>0.28811849288807823</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.29207263498349056</c:v>
+                  <c:v>0.27069460756411717</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.27793059389559072</c:v>
+                  <c:v>0.25677400692266183</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.27839908263751656</c:v>
+                  <c:v>0.25722218806728731</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.31490355911321649</c:v>
+                  <c:v>0.29308323252451146</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.34059673337482199</c:v>
+                  <c:v>0.31833687654241266</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.33079944810758838</c:v>
+                  <c:v>0.30868920427310492</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.30681957253818581</c:v>
+                  <c:v>0.28509490664269144</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.3096433980165107</c:v>
+                  <c:v>0.28785893116832106</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.27401153132499362</c:v>
+                  <c:v>0.25278223889668566</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.28038283591686097</c:v>
+                  <c:v>0.25903480654916622</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.2533032081562116</c:v>
+                  <c:v>0.23239437805451343</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.27344545713156354</c:v>
+                  <c:v>0.25218809298498884</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.25975335044869013</c:v>
+                  <c:v>0.23871217902793648</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.26627176324638741</c:v>
+                  <c:v>0.24508442566119595</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.29267163382622641</c:v>
+                  <c:v>0.27102988251791765</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.3041313617348525</c:v>
+                  <c:v>0.28228495123610092</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.29555694022385653</c:v>
+                  <c:v>0.27384144829428697</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.31839581500720154</c:v>
+                  <c:v>0.29628456744046211</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.31269509869406059</c:v>
+                  <c:v>0.29064080359760452</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.27256505443286111</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.26683545881904164</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.27883829250295472</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.26733001980615212</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.30175967844028034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,13 +1674,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$174</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$179</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="178"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -2169,6 +2199,21 @@
                       </c:pt>
                       <c:pt idx="172">
                         <c:v>45803</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>45810</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2178,13 +2223,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$B$2:$B$174</c15:sqref>
+                          <c15:sqref>指数合理性判断!$B$2:$B$179</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="178"/>
                       <c:pt idx="0">
                         <c:v>2626</c:v>
                       </c:pt>
@@ -2703,6 +2748,21 @@
                       </c:pt>
                       <c:pt idx="172">
                         <c:v>3346</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>3300</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>3286</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>3318</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>3289</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>3381</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2753,13 +2813,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$174</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$179</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="178"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -3278,6 +3338,21 @@
                       </c:pt>
                       <c:pt idx="172">
                         <c:v>45803</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>45810</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3287,531 +3362,546 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$C$2:$C$174</c15:sqref>
+                          <c15:sqref>指数合理性判断!$C$2:$C$179</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="178"/>
                       <c:pt idx="0">
-                        <c:v>2396.8507529032181</c:v>
+                        <c:v>2431.8522962296711</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2397.4527565877211</c:v>
+                        <c:v>2432.4873757943574</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2398.0549114741434</c:v>
+                        <c:v>2433.1226212104211</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2398.6572176004584</c:v>
+                        <c:v>2433.7580325211711</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2399.259675004665</c:v>
+                        <c:v>2434.393609769942</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2401.067955264577</c:v>
+                        <c:v>2436.3013375777273</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2401.6710181603617</c:v>
+                        <c:v>2436.9375790120089</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2402.2742325240988</c:v>
+                        <c:v>2437.5739866010867</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2402.8775983938399</c:v>
+                        <c:v>2438.2105603883601</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2403.4811158076382</c:v>
+                        <c:v>2438.8473004172324</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2405.2925776940037</c:v>
+                        <c:v>2440.758518387599</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>2405.896701664733</c:v>
+                        <c:v>2441.3959238171051</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>2406.5009773699185</c:v>
+                        <c:v>2442.0334957053806</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>2407.1054048476744</c:v>
+                        <c:v>2442.6712340959093</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>2407.7099841361178</c:v>
+                        <c:v>2443.3091390321656</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>2409.524633246951</c:v>
+                        <c:v>2445.2238535503279</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>2410.1298201595478</c:v>
+                        <c:v>2445.862425104563</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>2410.7351590735866</c:v>
+                        <c:v>2446.5011634221146</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>2411.3406500272322</c:v>
+                        <c:v>2447.140068546521</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>2411.9462930586765</c:v>
+                        <c:v>2447.7791405213561</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>2413.7641350018107</c:v>
+                        <c:v>2449.6973579841974</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>2414.3703867265094</c:v>
+                        <c:v>2450.3370977965756</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>2414.9767907200885</c:v>
+                        <c:v>2450.9770046773624</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2415.5833470207845</c:v>
+                        <c:v>2451.6170786701741</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>2416.1900556668515</c:v>
+                        <c:v>2452.2573198186651</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>2418.0110960600091</c:v>
+                        <c:v>2454.1790466347757</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>2418.6184144703116</c:v>
+                        <c:v>2454.8199568426057</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>2419.2258854174088</c:v>
+                        <c:v>2455.4610344244934</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>2419.8335089396128</c:v>
+                        <c:v>2456.1022794241485</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>2420.4412850752356</c:v>
+                        <c:v>2456.7436918852791</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>2422.2655295460049</c:v>
+                        <c:v>2458.6689344749784</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>2422.8739165187285</c:v>
+                        <c:v>2459.3110172194879</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>2423.4824562966282</c:v>
+                        <c:v>2459.9532676442627</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>2424.0911489180776</c:v>
+                        <c:v>2460.5956857930851</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>2424.699994421479</c:v>
+                        <c:v>2461.2382717097694</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>2426.5274486073672</c:v>
+                        <c:v>2463.1670365051104</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>2427.1369060226189</c:v>
+                        <c:v>2463.8102939314422</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>2427.7465165118988</c:v>
+                        <c:v>2464.4537193448014</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>2428.3562801136613</c:v>
+                        <c:v>2465.0973127890647</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>2428.966196866364</c:v>
+                        <c:v>2465.741074308115</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>2430.796866414777</c:v>
+                        <c:v>2467.6733677529246</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>2431.4073961559789</c:v>
+                        <c:v>2468.3178020101454</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>2432.0180792405386</c:v>
+                        <c:v>2468.9624045617184</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>2432.6289157069709</c:v>
+                        <c:v>2469.6071754516061</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>2433.2399055938085</c:v>
+                        <c:v>2470.2521147237621</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>2435.0737961621176</c:v>
+                        <c:v>2472.1879432736673</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>2435.6854001159886</c:v>
+                        <c:v>2472.8335565147636</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>2436.297157683035</c:v>
+                        <c:v>2473.4793383581177</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>2436.9090689018258</c:v>
+                        <c:v>2474.1252888477507</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>2437.5211338109571</c:v>
+                        <c:v>2474.7714080277051</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>2439.3582510664573</c:v>
+                        <c:v>2476.7107781501286</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>2439.9709311230631</c:v>
+                        <c:v>2477.3575725320411</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>2440.5837650631179</c:v>
+                        <c:v>2478.0045358246662</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>2441.1967529252643</c:v>
+                        <c:v>2478.651668072102</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>2441.8098947481612</c:v>
+                        <c:v>2479.2989693184845</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>2443.6502443681416</c:v>
+                        <c:v>2481.2418874926861</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>2444.2640024208499</c:v>
+                        <c:v>2481.8898651762952</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>2444.8779146277625</c:v>
+                        <c:v>2482.5380120796285</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>2445.4919810275969</c:v>
+                        <c:v>2483.1863282468908</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>2446.1062016590722</c:v>
+                        <c:v>2483.8348137222724</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>2447.9497893307939</c:v>
+                        <c:v>2485.7812864393654</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>2448.5646272763224</c:v>
+                        <c:v>2486.4304495895017</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>2449.1796196472815</c:v>
+                        <c:v>2487.079782268956</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>2449.7947664824528</c:v>
+                        <c:v>2487.7292845219922</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2450.4100678206451</c:v>
+                        <c:v>2488.3789563929081</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>2452.2568992413917</c:v>
+                        <c:v>2490.3289901558819</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>2452.872818979778</c:v>
+                        <c:v>2490.9793409413492</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>2454.1051225868287</c:v>
+                        <c:v>2492.2805520750294</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>2454.7215065332111</c:v>
+                        <c:v>2492.9314125119699</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>2456.5715874102693</c:v>
+                        <c:v>2494.8850138357056</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>2457.1885908449158</c:v>
+                        <c:v>2495.5365544292672</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>2458.4230626610902</c:v>
+                        <c:v>2496.8401461113654</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>2459.0405311204822</c:v>
+                        <c:v>2497.4921972887873</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>2460.8938671712117</c:v>
+                        <c:v>2499.4493727001027</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>2461.5119562088385</c:v>
+                        <c:v>2500.1021052784836</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>2462.1302004884628</c:v>
+                        <c:v>2500.7550083183451</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>2462.748600049063</c:v>
+                        <c:v>2501.4080818641901</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>2463.3671549296441</c:v>
+                        <c:v>2502.0613259605461</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>2465.2237518814327</c:v>
+                        <c:v>2504.0220819981741</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>2465.8429284321455</c:v>
+                        <c:v>2504.6760087421076</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>2466.4622604979963</c:v>
+                        <c:v>2505.3301062593741</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>2467.081748118032</c:v>
+                        <c:v>2505.9843745945586</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>2467.7013913313344</c:v>
+                        <c:v>2506.6388137922822</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>2469.5612549216698</c:v>
+                        <c:v>2508.6031570069349</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>2470.1815208989137</c:v>
+                        <c:v>2509.2582801011267</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>2470.8019426649207</c:v>
+                        <c:v>2509.9135742810699</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>2471.4225202588195</c:v>
+                        <c:v>2510.569039591458</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>2472.0432537197394</c:v>
+                        <c:v>2511.2246760769672</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>2473.9063896961861</c:v>
+                        <c:v>2513.1926130313377</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>2474.5277470167903</c:v>
+                        <c:v>2513.8489346644892</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>2475.1492604002592</c:v>
+                        <c:v>2514.5054276964015</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>2475.7709298857958</c:v>
+                        <c:v>2515.1620921718345</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>2476.3927555125938</c:v>
+                        <c:v>2515.8189281355471</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>2478.2591696328468</c:v>
+                        <c:v>2517.7904654043336</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>2478.8816202169946</c:v>
+                        <c:v>2518.447987769166</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>2479.5042271386019</c:v>
+                        <c:v>2519.1056818463258</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>2480.1269904369296</c:v>
+                        <c:v>2519.7635476806513</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>2480.7499101512585</c:v>
+                        <c:v>2520.4215853170099</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>2482.6196081831208</c:v>
+                        <c:v>2522.3967294869353</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>2483.2431539543982</c:v>
+                        <c:v>2523.0554547801707</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>2483.8668563381975</c:v>
+                        <c:v>2523.7143520998698</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>2484.4907153738536</c:v>
+                        <c:v>2524.3734214909709</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>2485.1147311007221</c:v>
+                        <c:v>2525.0326629984065</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>2486.9877188221722</c:v>
+                        <c:v>2527.0114206682574</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>2487.6123617075255</c:v>
+                        <c:v>2527.6713510906334</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>2488.2371614809567</c:v>
+                        <c:v>2528.3314538541927</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>2488.8621181818748</c:v>
+                        <c:v>2528.9917290039562</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>2489.487231849695</c:v>
+                        <c:v>2529.6521765849343</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>2491.3635150488594</c:v>
+                        <c:v>2531.6345543655561</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>2491.9892569786311</c:v>
+                        <c:v>2532.2956921218351</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>2492.6151560725298</c:v>
+                        <c:v>2532.9570025346075</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>2493.2412123700169</c:v>
+                        <c:v>2533.6184856489485</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>2493.8674259105901</c:v>
+                        <c:v>2534.2801415099734</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>2495.7470103857845</c:v>
+                        <c:v>2536.2661460243103</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>2496.3738532937209</c:v>
+                        <c:v>2536.9284933232989</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>2497.0008536423065</c:v>
+                        <c:v>2537.5910135946438</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>2497.6280114710903</c:v>
+                        <c:v>2538.2537068835309</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>2498.2553268196166</c:v>
+                        <c:v>2538.9165732351307</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>2500.1382183793589</c:v>
+                        <c:v>2540.9062111182443</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>2500.7661642026051</c:v>
+                        <c:v>2541.569770172779</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>2501.3942677435102</c:v>
+                        <c:v>2542.2335025161306</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>2502.0225290416997</c:v>
+                        <c:v>2542.897408193553</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>2502.6509481367839</c:v>
+                        <c:v>2543.5614872503038</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>2504.5371525998153</c:v>
+                        <c:v>2545.554765149393</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>2505.1662032789204</c:v>
+                        <c:v>2546.21953817637</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2505.7954119531942</c:v>
+                        <c:v>2546.8844848091931</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>2506.4247786623137</c:v>
+                        <c:v>2547.5496050931911</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>2507.054303445977</c:v>
+                        <c:v>2548.2148990737251</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>2508.943826641259</c:v>
+                        <c:v>2550.2118236481465</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>2509.5739841202044</c:v>
+                        <c:v>2550.8778128685212</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>2510.2042998722982</c:v>
+                        <c:v>2551.5439760123377</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>2510.8347739372921</c:v>
+                        <c:v>2552.2103131250301</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>2511.4654063549583</c:v>
+                        <c:v>2552.8768242520255</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>2513.3582541217352</c:v>
+                        <c:v>2554.8774021733325</c:v>
                       </c:pt>
                       <c:pt idx="134">
-                        <c:v>2513.9895203479009</c:v>
+                        <c:v>2555.5446098121047</c:v>
                       </c:pt>
                       <c:pt idx="135">
-                        <c:v>2514.6209451256918</c:v>
+                        <c:v>2556.2119916925094</c:v>
                       </c:pt>
                       <c:pt idx="136">
-                        <c:v>2515.2525284949361</c:v>
+                        <c:v>2556.8795478600646</c:v>
                       </c:pt>
                       <c:pt idx="137">
-                        <c:v>2515.8842704954604</c:v>
+                        <c:v>2557.5472783602745</c:v>
                       </c:pt>
                       <c:pt idx="138">
-                        <c:v>2517.7804486832383</c:v>
+                        <c:v>2559.5515163122118</c:v>
                       </c:pt>
                       <c:pt idx="139">
-                        <c:v>2518.4128256074337</c:v>
+                        <c:v>2560.219944598457</c:v>
                       </c:pt>
                       <c:pt idx="140">
-                        <c:v>2519.0453613622312</c:v>
+                        <c:v>2560.8885474451222</c:v>
                       </c:pt>
                       <c:pt idx="141">
-                        <c:v>2519.6780559875106</c:v>
+                        <c:v>2561.5573248977835</c:v>
                       </c:pt>
                       <c:pt idx="142">
-                        <c:v>2520.3109095231875</c:v>
+                        <c:v>2562.2262770020407</c:v>
                       </c:pt>
                       <c:pt idx="143">
-                        <c:v>2522.2104239917539</c:v>
+                        <c:v>2564.2341816805847</c:v>
                       </c:pt>
                       <c:pt idx="144">
-                        <c:v>2522.8439135682306</c:v>
+                        <c:v>2564.9038328474671</c:v>
                       </c:pt>
                       <c:pt idx="145">
-                        <c:v>2523.4775622547636</c:v>
+                        <c:v>2565.5736588941154</c:v>
                       </c:pt>
                       <c:pt idx="146">
-                        <c:v>2524.1113700913206</c:v>
+                        <c:v>2566.2436598662125</c:v>
                       </c:pt>
                       <c:pt idx="147">
-                        <c:v>2526.6481937373333</c:v>
+                        <c:v>2568.9254139228074</c:v>
                       </c:pt>
                       <c:pt idx="148">
-                        <c:v>2527.2827979237759</c:v>
+                        <c:v>2569.5962902075698</c:v>
                       </c:pt>
                       <c:pt idx="149">
-                        <c:v>2527.9175615002218</c:v>
+                        <c:v>2570.2673416920384</c:v>
                       </c:pt>
                       <c:pt idx="150">
-                        <c:v>2528.5524845067166</c:v>
+                        <c:v>2570.9385684219806</c:v>
                       </c:pt>
                       <c:pt idx="151">
-                        <c:v>2529.1875669832903</c:v>
+                        <c:v>2571.6099704431481</c:v>
                       </c:pt>
                       <c:pt idx="152">
-                        <c:v>2531.0937716340936</c:v>
+                        <c:v>2573.6252287118614</c:v>
                       </c:pt>
                       <c:pt idx="153">
-                        <c:v>2531.7294923916334</c:v>
+                        <c:v>2574.2973323558363</c:v>
                       </c:pt>
                       <c:pt idx="154">
-                        <c:v>2532.3653728196232</c:v>
+                        <c:v>2574.9696115200522</c:v>
                       </c:pt>
                       <c:pt idx="155">
-                        <c:v>2533.0014129581664</c:v>
+                        <c:v>2575.6420662503369</c:v>
                       </c:pt>
                       <c:pt idx="156">
-                        <c:v>2533.6376128473817</c:v>
+                        <c:v>2576.3146965925539</c:v>
                       </c:pt>
                       <c:pt idx="157">
-                        <c:v>2535.547171420299</c:v>
+                        <c:v>2578.3336417493924</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>2536.1840107135204</c:v>
+                        <c:v>2579.0069749980307</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>2536.8210099581192</c:v>
+                        <c:v>2579.6804840880131</c:v>
                       </c:pt>
                       <c:pt idx="160">
-                        <c:v>2537.4581691942826</c:v>
+                        <c:v>2580.3541690652601</c:v>
                       </c:pt>
                       <c:pt idx="161">
-                        <c:v>2538.0954884621915</c:v>
+                        <c:v>2581.0280299757137</c:v>
                       </c:pt>
                       <c:pt idx="162">
-                        <c:v>2540.0084068583783</c:v>
+                        <c:v>2583.0506687657999</c:v>
                       </c:pt>
                       <c:pt idx="163">
-                        <c:v>2540.6463666553141</c:v>
+                        <c:v>2583.725233868638</c:v>
                       </c:pt>
                       <c:pt idx="164">
-                        <c:v>2541.2844866850623</c:v>
+                        <c:v>2584.3999751345145</c:v>
                       </c:pt>
                       <c:pt idx="165">
-                        <c:v>2541.9227669878724</c:v>
+                        <c:v>2585.0748926094484</c:v>
                       </c:pt>
                       <c:pt idx="166">
-                        <c:v>2542.5612076039947</c:v>
+                        <c:v>2585.7499863394523</c:v>
                       </c:pt>
                       <c:pt idx="167">
-                        <c:v>2544.4774917349814</c:v>
+                        <c:v>2587.7763255202335</c:v>
                       </c:pt>
                       <c:pt idx="168">
-                        <c:v>2545.1165740071265</c:v>
+                        <c:v>2588.4521247309235</c:v>
                       </c:pt>
                       <c:pt idx="169">
-                        <c:v>2545.7558167940147</c:v>
+                        <c:v>2589.1281004269576</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>2546.3952201359616</c:v>
+                        <c:v>2589.8042526544123</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>2547.0347840732925</c:v>
+                        <c:v>2590.4805814593883</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>2548.9544398610005</c:v>
+                        <c:v>2592.5106278006801</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>2593.1876633770189</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>2593.8648757615661</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>2594.5422650005094</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>2595.2198311400198</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>2597.2535914240234</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4096,10 +4186,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>指数合理性判断!$A$2:$A$174</c:f>
+              <c:f>指数合理性判断!$A$2:$A$179</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
                   <c:v>45558</c:v>
                 </c:pt>
@@ -4618,534 +4708,564 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>45803</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>45804</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>45805</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>45806</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>45810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>指数合理性判断!$D$2:$D$174</c:f>
+              <c:f>指数合理性判断!$D$2:$D$179</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>9.5604303613490219E-2</c:v>
+                  <c:v>7.9835318975307143E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10867669558715899</c:v>
+                  <c:v>9.2708651419824456E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.10756429608498472</c:v>
+                  <c:v>9.1601375469807858E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11395658387278246</c:v>
+                  <c:v>9.7890572643341209E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10784173455290198</c:v>
+                  <c:v>9.185301396317315E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7428331514942776E-2</c:v>
+                  <c:v>8.1557506601308699E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.10756218478145849</c:v>
+                  <c:v>9.1533908340165948E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.10728407439358228</c:v>
+                  <c:v>9.1248928082408878E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1049251954301321</c:v>
+                  <c:v>8.891333797566256E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10339955764905288</c:v>
+                  <c:v>8.7398952589734458E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.8411072524462628E-2</c:v>
+                  <c:v>8.2450385851912986E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9406705693735197E-2</c:v>
+                  <c:v>7.356614076019477E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3731120213506496E-2</c:v>
+                  <c:v>6.796241926512972E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.3844912107876946E-2</c:v>
+                  <c:v>7.7918290127380108E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.10353822408280083</c:v>
+                  <c:v>8.7459608591518967E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.9386975940704267E-2</c:v>
+                  <c:v>8.3336397260234688E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.10367498785767114</c:v>
+                  <c:v>8.7550948367949341E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10920521067423374</c:v>
+                  <c:v>9.2989465927604473E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11680612192623507</c:v>
+                  <c:v>0.10046827094760764</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.12813457241180992</c:v>
+                  <c:v>0.11161989860753947</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.12728495735891726</c:v>
+                  <c:v>0.11074945283814634</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13735656098860871</c:v>
+                  <c:v>0.12066213357716958</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.12671890282997819</c:v>
+                  <c:v>0.11016953435602814</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.13140372629687797</c:v>
+                  <c:v>0.1147744171705868</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1369138754450536</c:v>
+                  <c:v>0.12019239490051964</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.13481695947184383</c:v>
+                  <c:v>0.11809283180158889</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.14734924012713169</c:v>
+                  <c:v>0.13042913483936738</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.15119469280954773</c:v>
+                  <c:v>0.134206554677722</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1347888149558337</c:v>
+                  <c:v>0.11803161578589479</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.13037238989044753</c:v>
+                  <c:v>0.11366928875694908</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.12952108950367511</c:v>
+                  <c:v>0.11279723822770087</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13295206212963559</c:v>
+                  <c:v>0.11616626802392559</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.9244598647068985E-2</c:v>
+                  <c:v>8.2947401903752244E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11629465798253676</c:v>
+                  <c:v>9.9733700917961909E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1069410674207506</c:v>
+                  <c:v>9.0507989758944724E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.1380720216441924E-2</c:v>
+                  <c:v>6.5295191560816368E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.0396974127585055E-2</c:v>
+                  <c:v>5.4464301248792403E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8594866688341928E-2</c:v>
+                  <c:v>4.2827454955518145E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.6681847311093957E-2</c:v>
+                  <c:v>4.093253710003511E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.4769721911018907E-2</c:v>
+                  <c:v>3.9038537620538757E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.4544745424360584E-2</c:v>
+                  <c:v>5.84869270516543E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.3734467603371693E-2</c:v>
+                  <c:v>6.7528661768801457E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.0452420003455145E-2</c:v>
+                  <c:v>7.4135432398685655E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.7166930297848106E-2</c:v>
+                  <c:v>8.073868043889687E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.11579626561213685</c:v>
+                  <c:v>9.9078099687653534E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.1836099634261991E-2</c:v>
+                  <c:v>5.5744975660645839E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.0599325296552171E-2</c:v>
+                  <c:v>6.4366015685086056E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.2380280124710728E-2</c:v>
+                  <c:v>6.6109572498158159E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.2518848841903775E-2</c:v>
+                  <c:v>6.623541333614881E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.0041831081848878E-2</c:v>
+                  <c:v>7.3634514840917722E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.3071745958163454E-2</c:v>
+                  <c:v>6.6737393525346148E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>8.2799785153156516E-2</c:v>
+                  <c:v>6.6458887200398067E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>8.5805796930500458E-2</c:v>
+                  <c:v>6.9408857687217551E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7.8569352038052487E-2</c:v>
+                  <c:v>6.2271086299088695E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7.8298521790353112E-2</c:v>
+                  <c:v>6.1993746048208606E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8.8535483394351439E-2</c:v>
+                  <c:v>7.2043807340343699E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.10299051057079985</c:v>
+                  <c:v>8.6268991153842359E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.11252998921793826</c:v>
+                  <c:v>9.5652911159837165E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.589400447506792E-2</c:v>
+                  <c:v>7.9258519392726393E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.2127995180532848E-2</c:v>
+                  <c:v>6.5690836353649612E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.2947048813740071E-2</c:v>
+                  <c:v>6.6465507026683732E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.1041509181813395E-2</c:v>
+                  <c:v>6.4578339779022428E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.6680359104372566E-2</c:v>
+                  <c:v>4.0577796679676571E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.8456012510455707E-2</c:v>
+                  <c:v>4.2315985156815471E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.0024986606410836E-2</c:v>
+                  <c:v>5.3698028294205488E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.636462142647169E-2</c:v>
+                  <c:v>5.0062064224018175E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.6096855803414817E-2</c:v>
+                  <c:v>4.9787911533534852E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>7.2896175378421205E-2</c:v>
+                  <c:v>5.6462121733369883E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6.7330853225876008E-2</c:v>
+                  <c:v>5.097155375004523E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>6.0828030966221053E-2</c:v>
+                  <c:v>4.4537117160948062E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>6.7887100638752904E-2</c:v>
+                  <c:v>5.1477284651561664E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.1180875810235933E-2</c:v>
+                  <c:v>6.4545523324602339E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.2776136307917377E-2</c:v>
+                  <c:v>5.6259556231544702E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.0342786878400884E-2</c:v>
+                  <c:v>5.3832107491157181E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7.6167837949455308E-2</c:v>
+                  <c:v>5.9556725466190848E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>8.1177591449828668E-2</c:v>
+                  <c:v>6.4478523943889074E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.3748458915712309E-2</c:v>
+                  <c:v>6.6999031206020174E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.9971502878419235E-2</c:v>
+                  <c:v>7.311518392508759E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.1849060542506055E-2</c:v>
+                  <c:v>6.5086453978781128E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.4821733434920207E-2</c:v>
+                  <c:v>6.8002404567859512E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>9.2252674263932244E-2</c:v>
+                  <c:v>7.5307398920904142E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.10008515205072756</c:v>
+                  <c:v>8.3007550850789355E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>9.4540858747419215E-2</c:v>
+                  <c:v>7.7538568835000848E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>9.7360915668381121E-2</c:v>
+                  <c:v>8.0282464139667165E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.11084953748720543</c:v>
+                  <c:v>9.3550242221144664E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.11502259749259917</c:v>
+                  <c:v>9.7647356558534765E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.11433798851666511</c:v>
+                  <c:v>9.6962464114571892E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.12053055537435212</c:v>
+                  <c:v>0.10304745982637101</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.10796431563306441</c:v>
+                  <c:v>9.0644619034546597E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.11617257205128408</c:v>
+                  <c:v>9.8713594883787351E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.11508426750541793</c:v>
+                  <c:v>9.7631355096537586E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.1293451935510754</c:v>
+                  <c:v>0.11165797572341067</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.12946542658619717</c:v>
+                  <c:v>0.11176522631254462</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.13507095402646888</c:v>
+                  <c:v>0.11724944496056723</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.14567794477874019</c:v>
+                  <c:v>0.12767863930184392</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.15708614996429512</c:v>
+                  <c:v>0.13889624428032196</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.15195714212064432</c:v>
+                  <c:v>0.13383654693701807</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.15247409192717798</c:v>
+                  <c:v>0.13433404024763773</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.17496856561717722</c:v>
+                  <c:v>0.15643981214379724</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.16702224483539976</c:v>
+                  <c:v>0.14860733421830297</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.16954739042762201</c:v>
+                  <c:v>0.15108114259558714</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.17971863684705214</c:v>
+                  <c:v>0.16108020114902935</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.15890021654025321</c:v>
+                  <c:v>0.14057930505345606</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.16566719572421343</c:v>
+                  <c:v>0.14720494584601909</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.17904221941828405</c:v>
+                  <c:v>0.16035654664301055</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.17954994219808917</c:v>
+                  <c:v>0.16084463353326603</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.18166449580116312</c:v>
+                  <c:v>0.16291404446716534</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.17855595419946416</c:v>
+                  <c:v>0.15984324926478269</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.18368916546574923</c:v>
+                  <c:v>0.16486006833598396</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.1709520784764049</c:v>
+                  <c:v>0.15231408759969081</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.1710592358747029</c:v>
+                  <c:v>0.15240803419840843</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.15311747043804563</c:v>
+                  <c:v>0.1347406944986872</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.14520923218570203</c:v>
+                  <c:v>0.12694723571417785</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.1579699336405388</c:v>
+                  <c:v>0.13947032117673472</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.16729311042705494</c:v>
+                  <c:v>0.14863308432582148</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.16820144284093946</c:v>
+                  <c:v>0.14951542008651014</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.16510544670181876</c:v>
+                  <c:v>0.14645750033116248</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.16521316646438403</c:v>
+                  <c:v>0.14655204928248361</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.15353622403703271</c:v>
+                  <c:v>0.13502812003862247</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.16564277049448869</c:v>
+                  <c:v>0.14692897051645162</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.17454494794631023</c:v>
+                  <c:v>0.15567669023799999</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.19343449762767267</c:v>
+                  <c:v>0.17425106902807466</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.1919360956911848</c:v>
+                  <c:v>0.17276504419193248</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.19742683668593672</c:v>
+                  <c:v>0.17813218598107641</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.20989976474727903</c:v>
+                  <c:v>0.19039224801912999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.20600428334428128</c:v>
+                  <c:v>0.18654772842059286</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.21527684610014877</c:v>
+                  <c:v>0.19565875926823229</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.20579757520403499</c:v>
+                  <c:v>0.1863206674989849</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.199309433734182</c:v>
+                  <c:v>0.17990198778685948</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.20378997356361628</c:v>
+                  <c:v>0.1842981991375022</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.20348770024562843</c:v>
+                  <c:v>0.18398899975901975</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.21672681600207055</c:v>
+                  <c:v>0.19700166725654117</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.22796833760732377</c:v>
+                  <c:v>0.20804888457694773</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.24136700165343081</c:v>
+                  <c:v>0.22119362649101684</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.23906642203064063</c:v>
+                  <c:v>0.21891826424780314</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.25744598052807094</c:v>
+                  <c:v>0.23698660763514709</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.23725151440843301</c:v>
+                  <c:v>0.21710856602710665</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.20713024665554855</c:v>
+                  <c:v>0.18746582935003181</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.18397932653699753</c:v>
+                  <c:v>0.16465716005396483</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.18249080123776582</c:v>
+                  <c:v>0.1631813142784759</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.22506726053205137</c:v>
+                  <c:v>0.20505049041620993</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.26563788275330646</c:v>
+                  <c:v>0.24494578708179174</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.28396857219977362</c:v>
+                  <c:v>0.26296417652320514</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.2734861332134837</c:v>
+                  <c:v>0.25261570216448531</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.28862510380275108</c:v>
+                  <c:v>0.26749391472929135</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.327533103566305</c:v>
+                  <c:v>0.30575085551977865</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.317691461403174</c:v>
+                  <c:v>0.29605775632910725</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.35911283910109482</c:v>
+                  <c:v>0.33674569973450652</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.31999474009818168</c:v>
+                  <c:v>0.29825841230900935</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.31175163719820104</c:v>
+                  <c:v>0.29013816820200372</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.32407771660438583</c:v>
+                  <c:v>0.3022481521427301</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.31227910627394279</c:v>
+                  <c:v>0.29063117585753462</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.31840235924787846</c:v>
+                  <c:v>0.29661458194137275</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.30977658156815746</c:v>
+                  <c:v>0.28811849288807823</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.29207263498349056</c:v>
+                  <c:v>0.27069460756411717</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.27793059389559072</c:v>
+                  <c:v>0.25677400692266183</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.27839908263751656</c:v>
+                  <c:v>0.25722218806728731</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.31490355911321649</c:v>
+                  <c:v>0.29308323252451146</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.34059673337482199</c:v>
+                  <c:v>0.31833687654241266</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.33079944810758838</c:v>
+                  <c:v>0.30868920427310492</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.30681957253818581</c:v>
+                  <c:v>0.28509490664269144</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.3096433980165107</c:v>
+                  <c:v>0.28785893116832106</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.27401153132499362</c:v>
+                  <c:v>0.25278223889668566</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.28038283591686097</c:v>
+                  <c:v>0.25903480654916622</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.2533032081562116</c:v>
+                  <c:v>0.23239437805451343</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.27344545713156354</c:v>
+                  <c:v>0.25218809298498884</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.25975335044869013</c:v>
+                  <c:v>0.23871217902793648</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.26627176324638741</c:v>
+                  <c:v>0.24508442566119595</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.29267163382622641</c:v>
+                  <c:v>0.27102988251791765</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.3041313617348525</c:v>
+                  <c:v>0.28228495123610092</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.29555694022385653</c:v>
+                  <c:v>0.27384144829428697</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.31839581500720154</c:v>
+                  <c:v>0.29628456744046211</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.31269509869406059</c:v>
+                  <c:v>0.29064080359760452</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.27256505443286111</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.26683545881904164</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.27883829250295472</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.26733001980615212</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.30175967844028034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5210,13 +5330,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$174</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$179</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="178"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -5735,6 +5855,21 @@
                       </c:pt>
                       <c:pt idx="172">
                         <c:v>45803</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>45810</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5744,13 +5879,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$B$2:$B$174</c15:sqref>
+                          <c15:sqref>指数合理性判断!$B$2:$B$179</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="178"/>
                       <c:pt idx="0">
                         <c:v>2626</c:v>
                       </c:pt>
@@ -6269,6 +6404,21 @@
                       </c:pt>
                       <c:pt idx="172">
                         <c:v>3346</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>3300</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>3286</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>3318</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>3289</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>3381</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6319,13 +6469,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$174</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$179</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="178"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -6844,6 +6994,21 @@
                       </c:pt>
                       <c:pt idx="172">
                         <c:v>45803</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>45804</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>45805</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>45806</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>45807</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>45810</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6853,531 +7018,546 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$C$2:$C$174</c15:sqref>
+                          <c15:sqref>指数合理性判断!$C$2:$C$179</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                      <c:ptCount val="173"/>
+                      <c:ptCount val="178"/>
                       <c:pt idx="0">
-                        <c:v>2396.8507529032181</c:v>
+                        <c:v>2431.8522962296711</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2397.4527565877211</c:v>
+                        <c:v>2432.4873757943574</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2398.0549114741434</c:v>
+                        <c:v>2433.1226212104211</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2398.6572176004584</c:v>
+                        <c:v>2433.7580325211711</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2399.259675004665</c:v>
+                        <c:v>2434.393609769942</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2401.067955264577</c:v>
+                        <c:v>2436.3013375777273</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2401.6710181603617</c:v>
+                        <c:v>2436.9375790120089</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2402.2742325240988</c:v>
+                        <c:v>2437.5739866010867</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2402.8775983938399</c:v>
+                        <c:v>2438.2105603883601</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2403.4811158076382</c:v>
+                        <c:v>2438.8473004172324</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2405.2925776940037</c:v>
+                        <c:v>2440.758518387599</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>2405.896701664733</c:v>
+                        <c:v>2441.3959238171051</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>2406.5009773699185</c:v>
+                        <c:v>2442.0334957053806</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>2407.1054048476744</c:v>
+                        <c:v>2442.6712340959093</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>2407.7099841361178</c:v>
+                        <c:v>2443.3091390321656</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>2409.524633246951</c:v>
+                        <c:v>2445.2238535503279</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>2410.1298201595478</c:v>
+                        <c:v>2445.862425104563</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>2410.7351590735866</c:v>
+                        <c:v>2446.5011634221146</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>2411.3406500272322</c:v>
+                        <c:v>2447.140068546521</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>2411.9462930586765</c:v>
+                        <c:v>2447.7791405213561</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>2413.7641350018107</c:v>
+                        <c:v>2449.6973579841974</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>2414.3703867265094</c:v>
+                        <c:v>2450.3370977965756</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>2414.9767907200885</c:v>
+                        <c:v>2450.9770046773624</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2415.5833470207845</c:v>
+                        <c:v>2451.6170786701741</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>2416.1900556668515</c:v>
+                        <c:v>2452.2573198186651</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>2418.0110960600091</c:v>
+                        <c:v>2454.1790466347757</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>2418.6184144703116</c:v>
+                        <c:v>2454.8199568426057</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>2419.2258854174088</c:v>
+                        <c:v>2455.4610344244934</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>2419.8335089396128</c:v>
+                        <c:v>2456.1022794241485</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>2420.4412850752356</c:v>
+                        <c:v>2456.7436918852791</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>2422.2655295460049</c:v>
+                        <c:v>2458.6689344749784</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>2422.8739165187285</c:v>
+                        <c:v>2459.3110172194879</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>2423.4824562966282</c:v>
+                        <c:v>2459.9532676442627</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>2424.0911489180776</c:v>
+                        <c:v>2460.5956857930851</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>2424.699994421479</c:v>
+                        <c:v>2461.2382717097694</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>2426.5274486073672</c:v>
+                        <c:v>2463.1670365051104</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>2427.1369060226189</c:v>
+                        <c:v>2463.8102939314422</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>2427.7465165118988</c:v>
+                        <c:v>2464.4537193448014</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>2428.3562801136613</c:v>
+                        <c:v>2465.0973127890647</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>2428.966196866364</c:v>
+                        <c:v>2465.741074308115</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>2430.796866414777</c:v>
+                        <c:v>2467.6733677529246</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>2431.4073961559789</c:v>
+                        <c:v>2468.3178020101454</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>2432.0180792405386</c:v>
+                        <c:v>2468.9624045617184</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>2432.6289157069709</c:v>
+                        <c:v>2469.6071754516061</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>2433.2399055938085</c:v>
+                        <c:v>2470.2521147237621</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>2435.0737961621176</c:v>
+                        <c:v>2472.1879432736673</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>2435.6854001159886</c:v>
+                        <c:v>2472.8335565147636</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>2436.297157683035</c:v>
+                        <c:v>2473.4793383581177</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>2436.9090689018258</c:v>
+                        <c:v>2474.1252888477507</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>2437.5211338109571</c:v>
+                        <c:v>2474.7714080277051</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>2439.3582510664573</c:v>
+                        <c:v>2476.7107781501286</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>2439.9709311230631</c:v>
+                        <c:v>2477.3575725320411</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>2440.5837650631179</c:v>
+                        <c:v>2478.0045358246662</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>2441.1967529252643</c:v>
+                        <c:v>2478.651668072102</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>2441.8098947481612</c:v>
+                        <c:v>2479.2989693184845</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>2443.6502443681416</c:v>
+                        <c:v>2481.2418874926861</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>2444.2640024208499</c:v>
+                        <c:v>2481.8898651762952</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>2444.8779146277625</c:v>
+                        <c:v>2482.5380120796285</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>2445.4919810275969</c:v>
+                        <c:v>2483.1863282468908</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>2446.1062016590722</c:v>
+                        <c:v>2483.8348137222724</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>2447.9497893307939</c:v>
+                        <c:v>2485.7812864393654</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>2448.5646272763224</c:v>
+                        <c:v>2486.4304495895017</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>2449.1796196472815</c:v>
+                        <c:v>2487.079782268956</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>2449.7947664824528</c:v>
+                        <c:v>2487.7292845219922</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2450.4100678206451</c:v>
+                        <c:v>2488.3789563929081</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>2452.2568992413917</c:v>
+                        <c:v>2490.3289901558819</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>2452.872818979778</c:v>
+                        <c:v>2490.9793409413492</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>2454.1051225868287</c:v>
+                        <c:v>2492.2805520750294</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>2454.7215065332111</c:v>
+                        <c:v>2492.9314125119699</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>2456.5715874102693</c:v>
+                        <c:v>2494.8850138357056</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>2457.1885908449158</c:v>
+                        <c:v>2495.5365544292672</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>2458.4230626610902</c:v>
+                        <c:v>2496.8401461113654</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>2459.0405311204822</c:v>
+                        <c:v>2497.4921972887873</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>2460.8938671712117</c:v>
+                        <c:v>2499.4493727001027</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>2461.5119562088385</c:v>
+                        <c:v>2500.1021052784836</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>2462.1302004884628</c:v>
+                        <c:v>2500.7550083183451</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>2462.748600049063</c:v>
+                        <c:v>2501.4080818641901</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>2463.3671549296441</c:v>
+                        <c:v>2502.0613259605461</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>2465.2237518814327</c:v>
+                        <c:v>2504.0220819981741</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>2465.8429284321455</c:v>
+                        <c:v>2504.6760087421076</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>2466.4622604979963</c:v>
+                        <c:v>2505.3301062593741</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>2467.081748118032</c:v>
+                        <c:v>2505.9843745945586</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>2467.7013913313344</c:v>
+                        <c:v>2506.6388137922822</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>2469.5612549216698</c:v>
+                        <c:v>2508.6031570069349</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>2470.1815208989137</c:v>
+                        <c:v>2509.2582801011267</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>2470.8019426649207</c:v>
+                        <c:v>2509.9135742810699</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>2471.4225202588195</c:v>
+                        <c:v>2510.569039591458</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>2472.0432537197394</c:v>
+                        <c:v>2511.2246760769672</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>2473.9063896961861</c:v>
+                        <c:v>2513.1926130313377</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>2474.5277470167903</c:v>
+                        <c:v>2513.8489346644892</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>2475.1492604002592</c:v>
+                        <c:v>2514.5054276964015</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>2475.7709298857958</c:v>
+                        <c:v>2515.1620921718345</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>2476.3927555125938</c:v>
+                        <c:v>2515.8189281355471</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>2478.2591696328468</c:v>
+                        <c:v>2517.7904654043336</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>2478.8816202169946</c:v>
+                        <c:v>2518.447987769166</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>2479.5042271386019</c:v>
+                        <c:v>2519.1056818463258</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>2480.1269904369296</c:v>
+                        <c:v>2519.7635476806513</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>2480.7499101512585</c:v>
+                        <c:v>2520.4215853170099</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>2482.6196081831208</c:v>
+                        <c:v>2522.3967294869353</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>2483.2431539543982</c:v>
+                        <c:v>2523.0554547801707</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>2483.8668563381975</c:v>
+                        <c:v>2523.7143520998698</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>2484.4907153738536</c:v>
+                        <c:v>2524.3734214909709</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>2485.1147311007221</c:v>
+                        <c:v>2525.0326629984065</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>2486.9877188221722</c:v>
+                        <c:v>2527.0114206682574</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>2487.6123617075255</c:v>
+                        <c:v>2527.6713510906334</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>2488.2371614809567</c:v>
+                        <c:v>2528.3314538541927</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>2488.8621181818748</c:v>
+                        <c:v>2528.9917290039562</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>2489.487231849695</c:v>
+                        <c:v>2529.6521765849343</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>2491.3635150488594</c:v>
+                        <c:v>2531.6345543655561</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>2491.9892569786311</c:v>
+                        <c:v>2532.2956921218351</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>2492.6151560725298</c:v>
+                        <c:v>2532.9570025346075</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>2493.2412123700169</c:v>
+                        <c:v>2533.6184856489485</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>2493.8674259105901</c:v>
+                        <c:v>2534.2801415099734</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>2495.7470103857845</c:v>
+                        <c:v>2536.2661460243103</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>2496.3738532937209</c:v>
+                        <c:v>2536.9284933232989</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>2497.0008536423065</c:v>
+                        <c:v>2537.5910135946438</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>2497.6280114710903</c:v>
+                        <c:v>2538.2537068835309</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>2498.2553268196166</c:v>
+                        <c:v>2538.9165732351307</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>2500.1382183793589</c:v>
+                        <c:v>2540.9062111182443</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>2500.7661642026051</c:v>
+                        <c:v>2541.569770172779</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>2501.3942677435102</c:v>
+                        <c:v>2542.2335025161306</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>2502.0225290416997</c:v>
+                        <c:v>2542.897408193553</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>2502.6509481367839</c:v>
+                        <c:v>2543.5614872503038</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>2504.5371525998153</c:v>
+                        <c:v>2545.554765149393</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>2505.1662032789204</c:v>
+                        <c:v>2546.21953817637</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2505.7954119531942</c:v>
+                        <c:v>2546.8844848091931</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>2506.4247786623137</c:v>
+                        <c:v>2547.5496050931911</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>2507.054303445977</c:v>
+                        <c:v>2548.2148990737251</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>2508.943826641259</c:v>
+                        <c:v>2550.2118236481465</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>2509.5739841202044</c:v>
+                        <c:v>2550.8778128685212</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>2510.2042998722982</c:v>
+                        <c:v>2551.5439760123377</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>2510.8347739372921</c:v>
+                        <c:v>2552.2103131250301</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>2511.4654063549583</c:v>
+                        <c:v>2552.8768242520255</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>2513.3582541217352</c:v>
+                        <c:v>2554.8774021733325</c:v>
                       </c:pt>
                       <c:pt idx="134">
-                        <c:v>2513.9895203479009</c:v>
+                        <c:v>2555.5446098121047</c:v>
                       </c:pt>
                       <c:pt idx="135">
-                        <c:v>2514.6209451256918</c:v>
+                        <c:v>2556.2119916925094</c:v>
                       </c:pt>
                       <c:pt idx="136">
-                        <c:v>2515.2525284949361</c:v>
+                        <c:v>2556.8795478600646</c:v>
                       </c:pt>
                       <c:pt idx="137">
-                        <c:v>2515.8842704954604</c:v>
+                        <c:v>2557.5472783602745</c:v>
                       </c:pt>
                       <c:pt idx="138">
-                        <c:v>2517.7804486832383</c:v>
+                        <c:v>2559.5515163122118</c:v>
                       </c:pt>
                       <c:pt idx="139">
-                        <c:v>2518.4128256074337</c:v>
+                        <c:v>2560.219944598457</c:v>
                       </c:pt>
                       <c:pt idx="140">
-                        <c:v>2519.0453613622312</c:v>
+                        <c:v>2560.8885474451222</c:v>
                       </c:pt>
                       <c:pt idx="141">
-                        <c:v>2519.6780559875106</c:v>
+                        <c:v>2561.5573248977835</c:v>
                       </c:pt>
                       <c:pt idx="142">
-                        <c:v>2520.3109095231875</c:v>
+                        <c:v>2562.2262770020407</c:v>
                       </c:pt>
                       <c:pt idx="143">
-                        <c:v>2522.2104239917539</c:v>
+                        <c:v>2564.2341816805847</c:v>
                       </c:pt>
                       <c:pt idx="144">
-                        <c:v>2522.8439135682306</c:v>
+                        <c:v>2564.9038328474671</c:v>
                       </c:pt>
                       <c:pt idx="145">
-                        <c:v>2523.4775622547636</c:v>
+                        <c:v>2565.5736588941154</c:v>
                       </c:pt>
                       <c:pt idx="146">
-                        <c:v>2524.1113700913206</c:v>
+                        <c:v>2566.2436598662125</c:v>
                       </c:pt>
                       <c:pt idx="147">
-                        <c:v>2526.6481937373333</c:v>
+                        <c:v>2568.9254139228074</c:v>
                       </c:pt>
                       <c:pt idx="148">
-                        <c:v>2527.2827979237759</c:v>
+                        <c:v>2569.5962902075698</c:v>
                       </c:pt>
                       <c:pt idx="149">
-                        <c:v>2527.9175615002218</c:v>
+                        <c:v>2570.2673416920384</c:v>
                       </c:pt>
                       <c:pt idx="150">
-                        <c:v>2528.5524845067166</c:v>
+                        <c:v>2570.9385684219806</c:v>
                       </c:pt>
                       <c:pt idx="151">
-                        <c:v>2529.1875669832903</c:v>
+                        <c:v>2571.6099704431481</c:v>
                       </c:pt>
                       <c:pt idx="152">
-                        <c:v>2531.0937716340936</c:v>
+                        <c:v>2573.6252287118614</c:v>
                       </c:pt>
                       <c:pt idx="153">
-                        <c:v>2531.7294923916334</c:v>
+                        <c:v>2574.2973323558363</c:v>
                       </c:pt>
                       <c:pt idx="154">
-                        <c:v>2532.3653728196232</c:v>
+                        <c:v>2574.9696115200522</c:v>
                       </c:pt>
                       <c:pt idx="155">
-                        <c:v>2533.0014129581664</c:v>
+                        <c:v>2575.6420662503369</c:v>
                       </c:pt>
                       <c:pt idx="156">
-                        <c:v>2533.6376128473817</c:v>
+                        <c:v>2576.3146965925539</c:v>
                       </c:pt>
                       <c:pt idx="157">
-                        <c:v>2535.547171420299</c:v>
+                        <c:v>2578.3336417493924</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>2536.1840107135204</c:v>
+                        <c:v>2579.0069749980307</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>2536.8210099581192</c:v>
+                        <c:v>2579.6804840880131</c:v>
                       </c:pt>
                       <c:pt idx="160">
-                        <c:v>2537.4581691942826</c:v>
+                        <c:v>2580.3541690652601</c:v>
                       </c:pt>
                       <c:pt idx="161">
-                        <c:v>2538.0954884621915</c:v>
+                        <c:v>2581.0280299757137</c:v>
                       </c:pt>
                       <c:pt idx="162">
-                        <c:v>2540.0084068583783</c:v>
+                        <c:v>2583.0506687657999</c:v>
                       </c:pt>
                       <c:pt idx="163">
-                        <c:v>2540.6463666553141</c:v>
+                        <c:v>2583.725233868638</c:v>
                       </c:pt>
                       <c:pt idx="164">
-                        <c:v>2541.2844866850623</c:v>
+                        <c:v>2584.3999751345145</c:v>
                       </c:pt>
                       <c:pt idx="165">
-                        <c:v>2541.9227669878724</c:v>
+                        <c:v>2585.0748926094484</c:v>
                       </c:pt>
                       <c:pt idx="166">
-                        <c:v>2542.5612076039947</c:v>
+                        <c:v>2585.7499863394523</c:v>
                       </c:pt>
                       <c:pt idx="167">
-                        <c:v>2544.4774917349814</c:v>
+                        <c:v>2587.7763255202335</c:v>
                       </c:pt>
                       <c:pt idx="168">
-                        <c:v>2545.1165740071265</c:v>
+                        <c:v>2588.4521247309235</c:v>
                       </c:pt>
                       <c:pt idx="169">
-                        <c:v>2545.7558167940147</c:v>
+                        <c:v>2589.1281004269576</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>2546.3952201359616</c:v>
+                        <c:v>2589.8042526544123</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>2547.0347840732925</c:v>
+                        <c:v>2590.4805814593883</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>2548.9544398610005</c:v>
+                        <c:v>2592.5106278006801</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>2593.1876633770189</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>2593.8648757615661</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
+                        <c:v>2594.5422650005094</c:v>
+                      </c:pt>
+                      <c:pt idx="176">
+                        <c:v>2595.2198311400198</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>2597.2535914240234</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7587,6 +7767,81 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>溢价指标分布</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>溢价指标分布</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{6DA541DC-BC7B-49BD-BE95-A7E928BFCDE7}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>溢价指标</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
         <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
@@ -7626,85 +7881,10 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{6DA541DC-BC7B-49BD-BE95-A7E928BFCDE7}" formatIdx="2">
+        <cx:series layoutId="clusteredColumn" uniqueId="{32260C36-9DC4-4BE1-8BD3-0BEBFD29B4A0}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.1</cx:f>
-              <cx:v>溢价指标</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>溢价指标分布</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            </a:rPr>
-            <a:t>溢价指标分布</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{32260C36-9DC4-4BE1-8BD3-0BEBFD29B4A0}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>溢价指标</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9920,14 +10100,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>338139</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>90488</xdr:rowOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9958,14 +10138,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1119190</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -10001,7 +10181,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6229350" y="45339000"/>
+              <a:off x="6229350" y="47872650"/>
               <a:ext cx="9653590" cy="4895851"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10036,8 +10216,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2657952A-74FC-4840-B511-AF94BC5FCD21}" name="表1" displayName="表1" ref="A1:B122" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:B122" xr:uid="{2657952A-74FC-4840-B511-AF94BC5FCD21}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2657952A-74FC-4840-B511-AF94BC5FCD21}" name="表1" displayName="表1" ref="A1:B121" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:B121" xr:uid="{2657952A-74FC-4840-B511-AF94BC5FCD21}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{61A06AD0-046F-400B-8A75-14414F0DFA35}" name="日期" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{E9880DE1-ED24-407F-8143-BB720CCB1AB3}" name="收盘价" dataDxfId="9"/>
@@ -10047,18 +10227,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D175" totalsRowCount="1" dataDxfId="8">
-  <autoFilter ref="A1:D174" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D180" totalsRowCount="1" dataDxfId="8">
+  <autoFilter ref="A1:D179" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>表2[[#Totals],[溢价指标]] -7%</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D0A16EFB-8A6B-4FCA-BEEB-6BED8414B294}" name="预测值" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{D0A16EFB-8A6B-4FCA-BEEB-6BED8414B294}" name="预测值" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>Var_1 * EXP((A2 * 0.0001) * Var_2)</calculatedColumnFormula>
       <totalsRowFormula>表2[[#Totals],[溢价指标]] +7%</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45F9AFE1-71D5-4546-9F88-08F5D5B7D0AE}" name="溢价指标" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{45F9AFE1-71D5-4546-9F88-08F5D5B7D0AE}" name="溢价指标" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>(B2-C2)/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10330,11 +10510,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A457494-146D-41E0-B859-6D5E2DC1B589}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10355,971 +10535,966 @@
     </row>
     <row r="2" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
-        <v>42124</v>
+        <v>42185</v>
       </c>
       <c r="B2" s="4">
-        <v>1183</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
-        <v>42155</v>
+        <v>42216</v>
       </c>
       <c r="B3" s="4">
-        <v>1189</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
-        <v>42185</v>
+        <v>42247</v>
       </c>
       <c r="B4" s="4">
-        <v>1172</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
-        <v>42216</v>
+        <v>42277</v>
       </c>
       <c r="B5" s="4">
-        <v>1095</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
-        <v>42247</v>
+        <v>42308</v>
       </c>
       <c r="B6" s="4">
-        <v>1134</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
-        <v>42277</v>
+        <v>42338</v>
       </c>
       <c r="B7" s="4">
-        <v>1114</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
-        <v>42308</v>
+        <v>42369</v>
       </c>
       <c r="B8" s="4">
-        <v>1142</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
-        <v>42338</v>
+        <v>42400</v>
       </c>
       <c r="B9" s="4">
-        <v>1064</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
-        <v>42369</v>
+        <v>42429</v>
       </c>
       <c r="B10" s="4">
-        <v>1060</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
-        <v>42400</v>
+        <v>42460</v>
       </c>
       <c r="B11" s="4">
-        <v>1117</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
-        <v>42429</v>
+        <v>42490</v>
       </c>
       <c r="B12" s="4">
-        <v>1237</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>42460</v>
+        <v>42521</v>
       </c>
       <c r="B13" s="4">
-        <v>1232</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
-        <v>42490</v>
+        <v>42551</v>
       </c>
       <c r="B14" s="4">
-        <v>1293</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
-        <v>42521</v>
+        <v>42582</v>
       </c>
       <c r="B15" s="4">
-        <v>1214</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
-        <v>42551</v>
+        <v>42613</v>
       </c>
       <c r="B16" s="4">
-        <v>1321</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
-        <v>42582</v>
+        <v>42643</v>
       </c>
       <c r="B17" s="4">
-        <v>1350</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
-        <v>42613</v>
+        <v>42674</v>
       </c>
       <c r="B18" s="4">
-        <v>1308</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
-        <v>42643</v>
+        <v>42704</v>
       </c>
       <c r="B19" s="4">
-        <v>1315</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
-        <v>42674</v>
+        <v>42735</v>
       </c>
       <c r="B20" s="4">
-        <v>1277</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
-        <v>42704</v>
+        <v>42766</v>
       </c>
       <c r="B21" s="4">
-        <v>1172</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
-        <v>42735</v>
+        <v>42794</v>
       </c>
       <c r="B22" s="4">
-        <v>1151</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
-        <v>42766</v>
+        <v>42825</v>
       </c>
       <c r="B23" s="4">
-        <v>1210</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
-        <v>42794</v>
+        <v>42855</v>
       </c>
       <c r="B24" s="4">
-        <v>1248</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
-        <v>42825</v>
+        <v>42886</v>
       </c>
       <c r="B25" s="4">
-        <v>1248</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
-        <v>42855</v>
+        <v>42916</v>
       </c>
       <c r="B26" s="4">
-        <v>1267</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
-        <v>42886</v>
+        <v>42947</v>
       </c>
       <c r="B27" s="4">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
-        <v>42916</v>
+        <v>42978</v>
       </c>
       <c r="B28" s="4">
-        <v>1241</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
-        <v>42947</v>
+        <v>43008</v>
       </c>
       <c r="B29" s="4">
-        <v>1269</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
-        <v>42978</v>
+        <v>43039</v>
       </c>
       <c r="B30" s="4">
-        <v>1321</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
-        <v>43008</v>
+        <v>43069</v>
       </c>
       <c r="B31" s="4">
-        <v>1279</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
-        <v>43039</v>
+        <v>43100</v>
       </c>
       <c r="B32" s="4">
-        <v>1271</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
-        <v>43069</v>
+        <v>43131</v>
       </c>
       <c r="B33" s="4">
-        <v>1274</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
-        <v>43100</v>
+        <v>43159</v>
       </c>
       <c r="B34" s="4">
-        <v>1302</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
-        <v>43131</v>
+        <v>43190</v>
       </c>
       <c r="B35" s="4">
-        <v>1344</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
-        <v>43159</v>
+        <v>43220</v>
       </c>
       <c r="B36" s="4">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
-        <v>43190</v>
+        <v>43251</v>
       </c>
       <c r="B37" s="4">
-        <v>1324</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
-        <v>43220</v>
+        <v>43281</v>
       </c>
       <c r="B38" s="4">
-        <v>1315</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
-        <v>43251</v>
+        <v>43312</v>
       </c>
       <c r="B39" s="4">
-        <v>1297</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
-        <v>43281</v>
+        <v>43343</v>
       </c>
       <c r="B40" s="4">
-        <v>1252</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
-        <v>43312</v>
+        <v>43373</v>
       </c>
       <c r="B41" s="4">
-        <v>1223</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
-        <v>43343</v>
+        <v>43404</v>
       </c>
       <c r="B42" s="4">
-        <v>1201</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
-        <v>43373</v>
+        <v>43434</v>
       </c>
       <c r="B43" s="4">
-        <v>1191</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
-        <v>43404</v>
+        <v>43465</v>
       </c>
       <c r="B44" s="4">
-        <v>1214</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
-        <v>43434</v>
+        <v>43496</v>
       </c>
       <c r="B45" s="4">
-        <v>1221</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
-        <v>43465</v>
+        <v>43524</v>
       </c>
       <c r="B46" s="4">
-        <v>1282</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
-        <v>43496</v>
+        <v>43555</v>
       </c>
       <c r="B47" s="4">
-        <v>1320</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
-        <v>43524</v>
+        <v>43585</v>
       </c>
       <c r="B48" s="4">
-        <v>1312</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
-        <v>43555</v>
+        <v>43616</v>
       </c>
       <c r="B49" s="4">
-        <v>1291</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
-        <v>43585</v>
+        <v>43646</v>
       </c>
       <c r="B50" s="4">
-        <v>1283</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
-        <v>43616</v>
+        <v>43677</v>
       </c>
       <c r="B51" s="4">
-        <v>1305</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
-        <v>43646</v>
+        <v>43708</v>
       </c>
       <c r="B52" s="4">
-        <v>1409</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
-        <v>43677</v>
+        <v>43738</v>
       </c>
       <c r="B53" s="4">
-        <v>1413</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
-        <v>43708</v>
+        <v>43769</v>
       </c>
       <c r="B54" s="4">
-        <v>1519</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
-        <v>43738</v>
+        <v>43799</v>
       </c>
       <c r="B55" s="4">
-        <v>1472</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
-        <v>43769</v>
+        <v>43830</v>
       </c>
       <c r="B56" s="4">
-        <v>1513</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
-        <v>43799</v>
+        <v>43861</v>
       </c>
       <c r="B57" s="4">
-        <v>1464</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
-        <v>43830</v>
+        <v>43890</v>
       </c>
       <c r="B58" s="4">
-        <v>1517</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
-        <v>43861</v>
+        <v>43921</v>
       </c>
       <c r="B59" s="4">
-        <v>1586</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
-        <v>43890</v>
+        <v>43951</v>
       </c>
       <c r="B60" s="4">
-        <v>1584</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9">
-        <v>43921</v>
+        <v>43982</v>
       </c>
       <c r="B61" s="4">
-        <v>1571</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9">
-        <v>43951</v>
+        <v>44012</v>
       </c>
       <c r="B62" s="4">
-        <v>1680</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9">
-        <v>43982</v>
+        <v>44043</v>
       </c>
       <c r="B63" s="4">
-        <v>1726</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9">
-        <v>44012</v>
+        <v>44074</v>
       </c>
       <c r="B64" s="4">
-        <v>1784</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="B65" s="4">
-        <v>1974</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9">
-        <v>44074</v>
+        <v>44135</v>
       </c>
       <c r="B66" s="4">
-        <v>1969</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9">
-        <v>44104</v>
+        <v>44165</v>
       </c>
       <c r="B67" s="4">
-        <v>1885</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9">
-        <v>44135</v>
+        <v>44196</v>
       </c>
       <c r="B68" s="4">
-        <v>1878</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9">
-        <v>44165</v>
+        <v>44227</v>
       </c>
       <c r="B69" s="4">
-        <v>1777</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9">
-        <v>44196</v>
+        <v>44255</v>
       </c>
       <c r="B70" s="4">
-        <v>1896</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9">
-        <v>44227</v>
+        <v>44286</v>
       </c>
       <c r="B71" s="4">
-        <v>1846</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9">
-        <v>44255</v>
+        <v>44316</v>
       </c>
       <c r="B72" s="4">
-        <v>1733</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9">
-        <v>44286</v>
+        <v>44347</v>
       </c>
       <c r="B73" s="4">
-        <v>1707</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9">
-        <v>44316</v>
+        <v>44377</v>
       </c>
       <c r="B74" s="4">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9">
-        <v>44347</v>
+        <v>44408</v>
       </c>
       <c r="B75" s="4">
-        <v>1906</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9">
-        <v>44377</v>
+        <v>44439</v>
       </c>
       <c r="B76" s="4">
-        <v>1769</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9">
-        <v>44408</v>
+        <v>44469</v>
       </c>
       <c r="B77" s="4">
-        <v>1813</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9">
-        <v>44439</v>
+        <v>44500</v>
       </c>
       <c r="B78" s="4">
-        <v>1813</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9">
-        <v>44469</v>
+        <v>44530</v>
       </c>
       <c r="B79" s="4">
-        <v>1756</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9">
-        <v>44500</v>
+        <v>44561</v>
       </c>
       <c r="B80" s="4">
-        <v>1782</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9">
-        <v>44530</v>
+        <v>44592</v>
       </c>
       <c r="B81" s="4">
-        <v>1773</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9">
-        <v>44561</v>
+        <v>44620</v>
       </c>
       <c r="B82" s="4">
-        <v>1828</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9">
-        <v>44592</v>
+        <v>44651</v>
       </c>
       <c r="B83" s="4">
-        <v>1796</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9">
-        <v>44620</v>
+        <v>44681</v>
       </c>
       <c r="B84" s="4">
-        <v>1907</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9">
-        <v>44651</v>
+        <v>44712</v>
       </c>
       <c r="B85" s="4">
-        <v>1937</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9">
-        <v>44681</v>
+        <v>44742</v>
       </c>
       <c r="B86" s="4">
-        <v>1896</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9">
-        <v>44712</v>
+        <v>44773</v>
       </c>
       <c r="B87" s="4">
-        <v>1837</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9">
-        <v>44742</v>
+        <v>44804</v>
       </c>
       <c r="B88" s="4">
-        <v>1806</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9">
-        <v>44773</v>
+        <v>44834</v>
       </c>
       <c r="B89" s="4">
-        <v>1765</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9">
-        <v>44804</v>
+        <v>44865</v>
       </c>
       <c r="B90" s="4">
-        <v>1710</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9">
-        <v>44834</v>
+        <v>44895</v>
       </c>
       <c r="B91" s="4">
-        <v>1659</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9">
-        <v>44865</v>
+        <v>44926</v>
       </c>
       <c r="B92" s="4">
-        <v>1633</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9">
-        <v>44895</v>
+        <v>44957</v>
       </c>
       <c r="B93" s="4">
-        <v>1768</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9">
-        <v>44926</v>
+        <v>44985</v>
       </c>
       <c r="B94" s="4">
-        <v>1824</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9">
-        <v>44957</v>
+        <v>45016</v>
       </c>
       <c r="B95" s="4">
-        <v>1927</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9">
-        <v>44985</v>
+        <v>45046</v>
       </c>
       <c r="B96" s="4">
-        <v>1827</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="B97" s="4">
-        <v>1967</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9">
-        <v>45046</v>
+        <v>45107</v>
       </c>
       <c r="B98" s="4">
-        <v>1989</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9">
-        <v>45077</v>
+        <v>45138</v>
       </c>
       <c r="B99" s="4">
-        <v>1962</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="B100" s="4">
-        <v>1919</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9">
-        <v>45138</v>
+        <v>45199</v>
       </c>
       <c r="B101" s="4">
-        <v>1964</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9">
-        <v>45169</v>
+        <v>45230</v>
       </c>
       <c r="B102" s="4">
-        <v>1939</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9">
-        <v>45199</v>
+        <v>45260</v>
       </c>
       <c r="B103" s="4">
-        <v>1848</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9">
-        <v>45230</v>
+        <v>45291</v>
       </c>
       <c r="B104" s="4">
-        <v>1982</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9">
-        <v>45260</v>
+        <v>45322</v>
       </c>
       <c r="B105" s="4">
-        <v>2035</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9">
-        <v>45291</v>
+        <v>45351</v>
       </c>
       <c r="B106" s="4">
-        <v>2062</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9">
-        <v>45322</v>
+        <v>45382</v>
       </c>
       <c r="B107" s="4">
-        <v>2037</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9">
-        <v>45351</v>
+        <v>45412</v>
       </c>
       <c r="B108" s="4">
-        <v>2043</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9">
-        <v>45382</v>
+        <v>45443</v>
       </c>
       <c r="B109" s="4">
-        <v>2232</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9">
-        <v>45412</v>
+        <v>45473</v>
       </c>
       <c r="B110" s="4">
-        <v>2291</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9">
-        <v>45443</v>
+        <v>45504</v>
       </c>
       <c r="B111" s="4">
-        <v>2327</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9">
-        <v>45473</v>
+        <v>45535</v>
       </c>
       <c r="B112" s="4">
-        <v>2326</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9">
-        <v>45504</v>
+        <v>45565</v>
       </c>
       <c r="B113" s="4">
-        <v>2445</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9">
-        <v>45535</v>
+        <v>45596</v>
       </c>
       <c r="B114" s="4">
-        <v>2503</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9">
-        <v>45565</v>
+        <v>45625</v>
       </c>
       <c r="B115" s="4">
-        <v>2635</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9">
-        <v>45596</v>
+        <v>45657</v>
       </c>
       <c r="B116" s="4">
-        <v>2746</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9">
-        <v>45625</v>
+        <v>45688</v>
       </c>
       <c r="B117" s="4">
-        <v>2657</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9">
-        <v>45657</v>
+        <v>45716</v>
       </c>
       <c r="B118" s="4">
-        <v>2624</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9">
-        <v>45688</v>
+        <v>45747</v>
       </c>
       <c r="B119" s="4">
-        <v>2797</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9">
-        <v>45716</v>
+        <v>45777</v>
       </c>
       <c r="B120" s="4">
-        <v>2856</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9">
-        <v>45747</v>
+        <v>45807</v>
       </c>
       <c r="B121" s="4">
-        <v>3120</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="9">
-        <v>45777</v>
-      </c>
-      <c r="B122" s="4">
-        <v>3272</v>
-      </c>
+      <c r="A122"/>
     </row>
     <row r="123" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123"/>
@@ -11335,9 +11510,6 @@
     </row>
     <row r="127" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
-    </row>
-    <row r="128" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11351,11 +11523,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M511"/>
+  <dimension ref="A1:M516"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11391,11 +11563,11 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C10" si="0">Var_1 * EXP((A2 * 0.0001) * Var_2)</f>
-        <v>2396.8507529032181</v>
+        <v>2431.8522962296711</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D10" si="1">(B2-C2)/C2</f>
-        <v>9.5604303613490219E-2</v>
+        <v>7.9835318975307143E-2</v>
       </c>
       <c r="E2"/>
       <c r="G2" s="7"/>
@@ -11409,11 +11581,11 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>2397.4527565877211</v>
+        <v>2432.4873757943574</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="1"/>
-        <v>0.10867669558715899</v>
+        <v>9.2708651419824456E-2</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -11427,11 +11599,11 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2398.0549114741434</v>
+        <v>2433.1226212104211</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="1"/>
-        <v>0.10756429608498472</v>
+        <v>9.1601375469807858E-2</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -11445,11 +11617,11 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>2398.6572176004584</v>
+        <v>2433.7580325211711</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>0.11395658387278246</v>
+        <v>9.7890572643341209E-2</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -11462,11 +11634,11 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>2399.259675004665</v>
+        <v>2434.393609769942</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>0.10784173455290198</v>
+        <v>9.185301396317315E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11478,11 +11650,11 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>2401.067955264577</v>
+        <v>2436.3013375777273</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>9.7428331514942776E-2</v>
+        <v>8.1557506601308699E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11494,11 +11666,11 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>2401.6710181603617</v>
+        <v>2436.9375790120089</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>0.10756218478145849</v>
+        <v>9.1533908340165948E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11510,11 +11682,11 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>2402.2742325240988</v>
+        <v>2437.5739866010867</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
-        <v>0.10728407439358228</v>
+        <v>9.1248928082408878E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11526,11 +11698,11 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>2402.8775983938399</v>
+        <v>2438.2105603883601</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>0.1049251954301321</v>
+        <v>8.891333797566256E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11542,11 +11714,11 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" ref="C11:C16" si="2">Var_1 * EXP((A11 * 0.0001) * Var_2)</f>
-        <v>2403.4811158076382</v>
+        <v>2438.8473004172324</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ref="D11:D16" si="3">(B11-C11)/C11</f>
-        <v>0.10339955764905288</v>
+        <v>8.7398952589734458E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11558,11 +11730,11 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="2"/>
-        <v>2405.2925776940037</v>
+        <v>2440.758518387599</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="3"/>
-        <v>9.8411072524462628E-2</v>
+        <v>8.2450385851912986E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11574,11 +11746,11 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="2"/>
-        <v>2405.896701664733</v>
+        <v>2441.3959238171051</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="3"/>
-        <v>8.9406705693735197E-2</v>
+        <v>7.356614076019477E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11590,11 +11762,11 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="2"/>
-        <v>2406.5009773699185</v>
+        <v>2442.0334957053806</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="3"/>
-        <v>8.3731120213506496E-2</v>
+        <v>6.796241926512972E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11606,11 +11778,11 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="2"/>
-        <v>2407.1054048476744</v>
+        <v>2442.6712340959093</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="3"/>
-        <v>9.3844912107876946E-2</v>
+        <v>7.7918290127380108E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11622,11 +11794,11 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="2"/>
-        <v>2407.7099841361178</v>
+        <v>2443.3091390321656</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="3"/>
-        <v>0.10353822408280083</v>
+        <v>8.7459608591518967E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11638,11 +11810,11 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" ref="C17:C23" si="4">Var_1 * EXP((A17 * 0.0001) * Var_2)</f>
-        <v>2409.524633246951</v>
+        <v>2445.2238535503279</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ref="D17:D23" si="5">(B17-C17)/C17</f>
-        <v>9.9386975940704267E-2</v>
+        <v>8.3336397260234688E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11654,11 +11826,11 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="4"/>
-        <v>2410.1298201595478</v>
+        <v>2445.862425104563</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="5"/>
-        <v>0.10367498785767114</v>
+        <v>8.7550948367949341E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11670,11 +11842,11 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="4"/>
-        <v>2410.7351590735866</v>
+        <v>2446.5011634221146</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="5"/>
-        <v>0.10920521067423374</v>
+        <v>9.2989465927604473E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11686,11 +11858,11 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="4"/>
-        <v>2411.3406500272322</v>
+        <v>2447.140068546521</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="5"/>
-        <v>0.11680612192623507</v>
+        <v>0.10046827094760764</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11702,11 +11874,11 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="4"/>
-        <v>2411.9462930586765</v>
+        <v>2447.7791405213561</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="5"/>
-        <v>0.12813457241180992</v>
+        <v>0.11161989860753947</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11718,11 +11890,11 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="4"/>
-        <v>2413.7641350018107</v>
+        <v>2449.6973579841974</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="5"/>
-        <v>0.12728495735891726</v>
+        <v>0.11074945283814634</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11734,11 +11906,11 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="4"/>
-        <v>2414.3703867265094</v>
+        <v>2450.3370977965756</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="5"/>
-        <v>0.13735656098860871</v>
+        <v>0.12066213357716958</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11750,11 +11922,11 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" ref="C24:C29" si="6">Var_1 * EXP((A24 * 0.0001) * Var_2)</f>
-        <v>2414.9767907200885</v>
+        <v>2450.9770046773624</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" ref="D24:D29" si="7">(B24-C24)/C24</f>
-        <v>0.12671890282997819</v>
+        <v>0.11016953435602814</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11766,11 +11938,11 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="6"/>
-        <v>2415.5833470207845</v>
+        <v>2451.6170786701741</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="7"/>
-        <v>0.13140372629687797</v>
+        <v>0.1147744171705868</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11782,11 +11954,11 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="6"/>
-        <v>2416.1900556668515</v>
+        <v>2452.2573198186651</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="7"/>
-        <v>0.1369138754450536</v>
+        <v>0.12019239490051964</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11798,11 +11970,11 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="6"/>
-        <v>2418.0110960600091</v>
+        <v>2454.1790466347757</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="7"/>
-        <v>0.13481695947184383</v>
+        <v>0.11809283180158889</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11814,11 +11986,11 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="6"/>
-        <v>2418.6184144703116</v>
+        <v>2454.8199568426057</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="7"/>
-        <v>0.14734924012713169</v>
+        <v>0.13042913483936738</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11830,11 +12002,11 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="6"/>
-        <v>2419.2258854174088</v>
+        <v>2455.4610344244934</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="7"/>
-        <v>0.15119469280954773</v>
+        <v>0.134206554677722</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11846,11 +12018,11 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" ref="C30:C35" si="8">Var_1 * EXP((A30 * 0.0001) * Var_2)</f>
-        <v>2419.8335089396128</v>
+        <v>2456.1022794241485</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" ref="D30:D35" si="9">(B30-C30)/C30</f>
-        <v>0.1347888149558337</v>
+        <v>0.11803161578589479</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11862,11 +12034,11 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="8"/>
-        <v>2420.4412850752356</v>
+        <v>2456.7436918852791</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="9"/>
-        <v>0.13037238989044753</v>
+        <v>0.11366928875694908</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11878,11 +12050,11 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="8"/>
-        <v>2422.2655295460049</v>
+        <v>2458.6689344749784</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="9"/>
-        <v>0.12952108950367511</v>
+        <v>0.11279723822770087</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11894,11 +12066,11 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="8"/>
-        <v>2422.8739165187285</v>
+        <v>2459.3110172194879</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="9"/>
-        <v>0.13295206212963559</v>
+        <v>0.11616626802392559</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11910,11 +12082,11 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="8"/>
-        <v>2423.4824562966282</v>
+        <v>2459.9532676442627</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="9"/>
-        <v>9.9244598647068985E-2</v>
+        <v>8.2947401903752244E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11926,11 +12098,11 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="8"/>
-        <v>2424.0911489180776</v>
+        <v>2460.5956857930851</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="9"/>
-        <v>0.11629465798253676</v>
+        <v>9.9733700917961909E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11942,11 +12114,11 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" ref="C36:C41" si="10">Var_1 * EXP((A36 * 0.0001) * Var_2)</f>
-        <v>2424.699994421479</v>
+        <v>2461.2382717097694</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" ref="D36:D42" si="11">(B36-C36)/C36</f>
-        <v>0.1069410674207506</v>
+        <v>9.0507989758944724E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11958,11 +12130,11 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="10"/>
-        <v>2426.5274486073672</v>
+        <v>2463.1670365051104</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="11"/>
-        <v>8.1380720216441924E-2</v>
+        <v>6.5295191560816368E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11974,11 +12146,11 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" si="10"/>
-        <v>2427.1369060226189</v>
+        <v>2463.8102939314422</v>
       </c>
       <c r="D38" s="7">
         <f t="shared" si="11"/>
-        <v>7.0396974127585055E-2</v>
+        <v>5.4464301248792403E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11990,11 +12162,11 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="10"/>
-        <v>2427.7465165118988</v>
+        <v>2464.4537193448014</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" si="11"/>
-        <v>5.8594866688341928E-2</v>
+        <v>4.2827454955518145E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12006,11 +12178,11 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="10"/>
-        <v>2428.3562801136613</v>
+        <v>2465.0973127890647</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="11"/>
-        <v>5.6681847311093957E-2</v>
+        <v>4.093253710003511E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12022,11 +12194,11 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="10"/>
-        <v>2428.966196866364</v>
+        <v>2465.741074308115</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="11"/>
-        <v>5.4769721911018907E-2</v>
+        <v>3.9038537620538757E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12038,11 +12210,11 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" ref="C42:C52" si="12">Var_1 * EXP((A42 * 0.0001) * Var_2)</f>
-        <v>2430.796866414777</v>
+        <v>2467.6733677529246</v>
       </c>
       <c r="D42" s="7">
         <f t="shared" si="11"/>
-        <v>7.4544745424360584E-2</v>
+        <v>5.84869270516543E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12054,11 +12226,11 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="12"/>
-        <v>2431.4073961559789</v>
+        <v>2468.3178020101454</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" ref="D43:D52" si="13">(B43-C43)/C43</f>
-        <v>8.3734467603371693E-2</v>
+        <v>6.7528661768801457E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12070,11 +12242,11 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="12"/>
-        <v>2432.0180792405386</v>
+        <v>2468.9624045617184</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="13"/>
-        <v>9.0452420003455145E-2</v>
+        <v>7.4135432398685655E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12086,11 +12258,11 @@
       </c>
       <c r="C45" s="5">
         <f t="shared" si="12"/>
-        <v>2432.6289157069709</v>
+        <v>2469.6071754516061</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="13"/>
-        <v>9.7166930297848106E-2</v>
+        <v>8.073868043889687E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12102,11 +12274,11 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="12"/>
-        <v>2433.2399055938085</v>
+        <v>2470.2521147237621</v>
       </c>
       <c r="D46" s="7">
         <f t="shared" si="13"/>
-        <v>0.11579626561213685</v>
+        <v>9.9078099687653534E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12118,11 +12290,11 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="12"/>
-        <v>2435.0737961621176</v>
+        <v>2472.1879432736673</v>
       </c>
       <c r="D47" s="7">
         <f t="shared" si="13"/>
-        <v>7.1836099634261991E-2</v>
+        <v>5.5744975660645839E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12134,11 +12306,11 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="12"/>
-        <v>2435.6854001159886</v>
+        <v>2472.8335565147636</v>
       </c>
       <c r="D48" s="7">
         <f t="shared" si="13"/>
-        <v>8.0599325296552171E-2</v>
+        <v>6.4366015685086056E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12150,11 +12322,11 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="12"/>
-        <v>2436.297157683035</v>
+        <v>2473.4793383581177</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="13"/>
-        <v>8.2380280124710728E-2</v>
+        <v>6.6109572498158159E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12166,11 +12338,11 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="12"/>
-        <v>2436.9090689018258</v>
+        <v>2474.1252888477507</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="13"/>
-        <v>8.2518848841903775E-2</v>
+        <v>6.623541333614881E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12182,11 +12354,11 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="12"/>
-        <v>2437.5211338109571</v>
+        <v>2474.7714080277051</v>
       </c>
       <c r="D51" s="7">
         <f t="shared" si="13"/>
-        <v>9.0041831081848878E-2</v>
+        <v>7.3634514840917722E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12198,11 +12370,11 @@
       </c>
       <c r="C52" s="5">
         <f t="shared" si="12"/>
-        <v>2439.3582510664573</v>
+        <v>2476.7107781501286</v>
       </c>
       <c r="D52" s="7">
         <f t="shared" si="13"/>
-        <v>8.3071745958163454E-2</v>
+        <v>6.6737393525346148E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12214,11 +12386,11 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" ref="C53:C61" si="14">Var_1 * EXP((A53 * 0.0001) * Var_2)</f>
-        <v>2439.9709311230631</v>
+        <v>2477.3575725320411</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:D61" si="15">(B53-C53)/C53</f>
-        <v>8.2799785153156516E-2</v>
+        <v>6.6458887200398067E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12230,11 +12402,11 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="14"/>
-        <v>2440.5837650631179</v>
+        <v>2478.0045358246662</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" si="15"/>
-        <v>8.5805796930500458E-2</v>
+        <v>6.9408857687217551E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12246,11 +12418,11 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="14"/>
-        <v>2441.1967529252643</v>
+        <v>2478.651668072102</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" si="15"/>
-        <v>7.8569352038052487E-2</v>
+        <v>6.2271086299088695E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12262,11 +12434,11 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="14"/>
-        <v>2441.8098947481612</v>
+        <v>2479.2989693184845</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="15"/>
-        <v>7.8298521790353112E-2</v>
+        <v>6.1993746048208606E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12278,11 +12450,11 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="14"/>
-        <v>2443.6502443681416</v>
+        <v>2481.2418874926861</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" si="15"/>
-        <v>8.8535483394351439E-2</v>
+        <v>7.2043807340343699E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12294,11 +12466,11 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="14"/>
-        <v>2444.2640024208499</v>
+        <v>2481.8898651762952</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" si="15"/>
-        <v>0.10299051057079985</v>
+        <v>8.6268991153842359E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12310,11 +12482,11 @@
       </c>
       <c r="C59" s="5">
         <f t="shared" si="14"/>
-        <v>2444.8779146277625</v>
+        <v>2482.5380120796285</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="15"/>
-        <v>0.11252998921793826</v>
+        <v>9.5652911159837165E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12326,11 +12498,11 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="14"/>
-        <v>2445.4919810275969</v>
+        <v>2483.1863282468908</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="15"/>
-        <v>9.589400447506792E-2</v>
+        <v>7.9258519392726393E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12342,11 +12514,11 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="14"/>
-        <v>2446.1062016590722</v>
+        <v>2483.8348137222724</v>
       </c>
       <c r="D61" s="7">
         <f t="shared" si="15"/>
-        <v>8.2127995180532848E-2</v>
+        <v>6.5690836353649612E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12358,11 +12530,11 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" ref="C62:C69" si="16">Var_1 * EXP((A62 * 0.0001) * Var_2)</f>
-        <v>2447.9497893307939</v>
+        <v>2485.7812864393654</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" ref="D62:D69" si="17">(B62-C62)/C62</f>
-        <v>8.2947048813740071E-2</v>
+        <v>6.6465507026683732E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12374,11 +12546,11 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="16"/>
-        <v>2448.5646272763224</v>
+        <v>2486.4304495895017</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" si="17"/>
-        <v>8.1041509181813395E-2</v>
+        <v>6.4578339779022428E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12390,11 +12562,11 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="16"/>
-        <v>2449.1796196472815</v>
+        <v>2487.079782268956</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="17"/>
-        <v>5.6680359104372566E-2</v>
+        <v>4.0577796679676571E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12406,11 +12578,11 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" si="16"/>
-        <v>2449.7947664824528</v>
+        <v>2487.7292845219922</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="17"/>
-        <v>5.8456012510455707E-2</v>
+        <v>4.2315985156815471E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12422,11 +12594,11 @@
       </c>
       <c r="C66" s="5">
         <f t="shared" si="16"/>
-        <v>2450.4100678206451</v>
+        <v>2488.3789563929081</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" si="17"/>
-        <v>7.0024986606410836E-2</v>
+        <v>5.3698028294205488E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12438,11 +12610,11 @@
       </c>
       <c r="C67" s="5">
         <f t="shared" si="16"/>
-        <v>2452.2568992413917</v>
+        <v>2490.3289901558819</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" si="17"/>
-        <v>6.636462142647169E-2</v>
+        <v>5.0062064224018175E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12454,11 +12626,11 @@
       </c>
       <c r="C68" s="5">
         <f t="shared" si="16"/>
-        <v>2452.872818979778</v>
+        <v>2490.9793409413492</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" si="17"/>
-        <v>6.6096855803414817E-2</v>
+        <v>4.9787911533534852E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12470,11 +12642,11 @@
       </c>
       <c r="C69" s="5">
         <f t="shared" si="16"/>
-        <v>2454.1051225868287</v>
+        <v>2492.2805520750294</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="17"/>
-        <v>7.2896175378421205E-2</v>
+        <v>5.6462121733369883E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12486,11 +12658,11 @@
       </c>
       <c r="C70" s="5">
         <f t="shared" ref="C70:C89" si="18">Var_1 * EXP((A70 * 0.0001) * Var_2)</f>
-        <v>2454.7215065332111</v>
+        <v>2492.9314125119699</v>
       </c>
       <c r="D70" s="7">
         <f t="shared" ref="D70:D89" si="19">(B70-C70)/C70</f>
-        <v>6.7330853225876008E-2</v>
+        <v>5.097155375004523E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12502,11 +12674,11 @@
       </c>
       <c r="C71" s="5">
         <f t="shared" si="18"/>
-        <v>2456.5715874102693</v>
+        <v>2494.8850138357056</v>
       </c>
       <c r="D71" s="7">
         <f t="shared" si="19"/>
-        <v>6.0828030966221053E-2</v>
+        <v>4.4537117160948062E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12518,11 +12690,11 @@
       </c>
       <c r="C72" s="5">
         <f t="shared" si="18"/>
-        <v>2457.1885908449158</v>
+        <v>2495.5365544292672</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" si="19"/>
-        <v>6.7887100638752904E-2</v>
+        <v>5.1477284651561664E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12534,11 +12706,11 @@
       </c>
       <c r="C73" s="5">
         <f t="shared" si="18"/>
-        <v>2458.4230626610902</v>
+        <v>2496.8401461113654</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="19"/>
-        <v>8.1180875810235933E-2</v>
+        <v>6.4545523324602339E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12550,11 +12722,11 @@
       </c>
       <c r="C74" s="5">
         <f t="shared" si="18"/>
-        <v>2459.0405311204822</v>
+        <v>2497.4921972887873</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" si="19"/>
-        <v>7.2776136307917377E-2</v>
+        <v>5.6259556231544702E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12566,11 +12738,11 @@
       </c>
       <c r="C75" s="5">
         <f t="shared" si="18"/>
-        <v>2460.8938671712117</v>
+        <v>2499.4493727001027</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" si="19"/>
-        <v>7.0342786878400884E-2</v>
+        <v>5.3832107491157181E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12582,11 +12754,11 @@
       </c>
       <c r="C76" s="5">
         <f t="shared" si="18"/>
-        <v>2461.5119562088385</v>
+        <v>2500.1021052784836</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" si="19"/>
-        <v>7.6167837949455308E-2</v>
+        <v>5.9556725466190848E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12598,11 +12770,11 @@
       </c>
       <c r="C77" s="5">
         <f t="shared" si="18"/>
-        <v>2462.1302004884628</v>
+        <v>2500.7550083183451</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="19"/>
-        <v>8.1177591449828668E-2</v>
+        <v>6.4478523943889074E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12614,11 +12786,11 @@
       </c>
       <c r="C78" s="5">
         <f t="shared" si="18"/>
-        <v>2462.748600049063</v>
+        <v>2501.4080818641901</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="19"/>
-        <v>8.3748458915712309E-2</v>
+        <v>6.6999031206020174E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12630,11 +12802,11 @@
       </c>
       <c r="C79" s="5">
         <f t="shared" si="18"/>
-        <v>2463.3671549296441</v>
+        <v>2502.0613259605461</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="19"/>
-        <v>8.9971502878419235E-2</v>
+        <v>7.311518392508759E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12646,11 +12818,11 @@
       </c>
       <c r="C80" s="5">
         <f t="shared" si="18"/>
-        <v>2465.2237518814327</v>
+        <v>2504.0220819981741</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" si="19"/>
-        <v>8.1849060542506055E-2</v>
+        <v>6.5086453978781128E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12662,11 +12834,11 @@
       </c>
       <c r="C81" s="5">
         <f t="shared" si="18"/>
-        <v>2465.8429284321455</v>
+        <v>2504.6760087421076</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" si="19"/>
-        <v>8.4821733434920207E-2</v>
+        <v>6.8002404567859512E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12678,11 +12850,11 @@
       </c>
       <c r="C82" s="5">
         <f t="shared" si="18"/>
-        <v>2466.4622604979963</v>
+        <v>2505.3301062593741</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" si="19"/>
-        <v>9.2252674263932244E-2</v>
+        <v>7.5307398920904142E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12694,11 +12866,11 @@
       </c>
       <c r="C83" s="5">
         <f t="shared" si="18"/>
-        <v>2467.081748118032</v>
+        <v>2505.9843745945586</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="19"/>
-        <v>0.10008515205072756</v>
+        <v>8.3007550850789355E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12710,11 +12882,11 @@
       </c>
       <c r="C84" s="5">
         <f t="shared" si="18"/>
-        <v>2467.7013913313344</v>
+        <v>2506.6388137922822</v>
       </c>
       <c r="D84" s="7">
         <f t="shared" si="19"/>
-        <v>9.4540858747419215E-2</v>
+        <v>7.7538568835000848E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12726,11 +12898,11 @@
       </c>
       <c r="C85" s="5">
         <f t="shared" si="18"/>
-        <v>2469.5612549216698</v>
+        <v>2508.6031570069349</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="19"/>
-        <v>9.7360915668381121E-2</v>
+        <v>8.0282464139667165E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12742,11 +12914,11 @@
       </c>
       <c r="C86" s="5">
         <f t="shared" si="18"/>
-        <v>2470.1815208989137</v>
+        <v>2509.2582801011267</v>
       </c>
       <c r="D86" s="7">
         <f t="shared" si="19"/>
-        <v>0.11084953748720543</v>
+        <v>9.3550242221144664E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12758,11 +12930,11 @@
       </c>
       <c r="C87" s="5">
         <f t="shared" si="18"/>
-        <v>2470.8019426649207</v>
+        <v>2509.9135742810699</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" si="19"/>
-        <v>0.11502259749259917</v>
+        <v>9.7647356558534765E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12774,11 +12946,11 @@
       </c>
       <c r="C88" s="5">
         <f t="shared" si="18"/>
-        <v>2471.4225202588195</v>
+        <v>2510.569039591458</v>
       </c>
       <c r="D88" s="7">
         <f t="shared" si="19"/>
-        <v>0.11433798851666511</v>
+        <v>9.6962464114571892E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12790,11 +12962,11 @@
       </c>
       <c r="C89" s="5">
         <f t="shared" si="18"/>
-        <v>2472.0432537197394</v>
+        <v>2511.2246760769672</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" si="19"/>
-        <v>0.12053055537435212</v>
+        <v>0.10304745982637101</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12806,11 +12978,11 @@
       </c>
       <c r="C90" s="5">
         <f t="shared" ref="C90:C96" si="20">Var_1 * EXP((A90 * 0.0001) * Var_2)</f>
-        <v>2473.9063896961861</v>
+        <v>2513.1926130313377</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" ref="D90:D96" si="21">(B90-C90)/C90</f>
-        <v>0.10796431563306441</v>
+        <v>9.0644619034546597E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12822,11 +12994,11 @@
       </c>
       <c r="C91" s="5">
         <f t="shared" si="20"/>
-        <v>2474.5277470167903</v>
+        <v>2513.8489346644892</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="21"/>
-        <v>0.11617257205128408</v>
+        <v>9.8713594883787351E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12838,11 +13010,11 @@
       </c>
       <c r="C92" s="5">
         <f t="shared" si="20"/>
-        <v>2475.1492604002592</v>
+        <v>2514.5054276964015</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" si="21"/>
-        <v>0.11508426750541793</v>
+        <v>9.7631355096537586E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12854,11 +13026,11 @@
       </c>
       <c r="C93" s="5">
         <f t="shared" si="20"/>
-        <v>2475.7709298857958</v>
+        <v>2515.1620921718345</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" si="21"/>
-        <v>0.1293451935510754</v>
+        <v>0.11165797572341067</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12870,11 +13042,11 @@
       </c>
       <c r="C94" s="5">
         <f t="shared" si="20"/>
-        <v>2476.3927555125938</v>
+        <v>2515.8189281355471</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="21"/>
-        <v>0.12946542658619717</v>
+        <v>0.11176522631254462</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12886,11 +13058,11 @@
       </c>
       <c r="C95" s="5">
         <f t="shared" si="20"/>
-        <v>2478.2591696328468</v>
+        <v>2517.7904654043336</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="21"/>
-        <v>0.13507095402646888</v>
+        <v>0.11724944496056723</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12902,11 +13074,11 @@
       </c>
       <c r="C96" s="5">
         <f t="shared" si="20"/>
-        <v>2478.8816202169946</v>
+        <v>2518.447987769166</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" si="21"/>
-        <v>0.14567794477874019</v>
+        <v>0.12767863930184392</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12918,11 +13090,11 @@
       </c>
       <c r="C97" s="5">
         <f t="shared" ref="C97:C112" si="22">Var_1 * EXP((A97 * 0.0001) * Var_2)</f>
-        <v>2479.5042271386019</v>
+        <v>2519.1056818463258</v>
       </c>
       <c r="D97" s="7">
         <f t="shared" ref="D97:D112" si="23">(B97-C97)/C97</f>
-        <v>0.15708614996429512</v>
+        <v>0.13889624428032196</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12934,11 +13106,11 @@
       </c>
       <c r="C98" s="5">
         <f t="shared" si="22"/>
-        <v>2480.1269904369296</v>
+        <v>2519.7635476806513</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" si="23"/>
-        <v>0.15195714212064432</v>
+        <v>0.13383654693701807</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12950,11 +13122,11 @@
       </c>
       <c r="C99" s="5">
         <f t="shared" si="22"/>
-        <v>2480.7499101512585</v>
+        <v>2520.4215853170099</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" si="23"/>
-        <v>0.15247409192717798</v>
+        <v>0.13433404024763773</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12966,11 +13138,11 @@
       </c>
       <c r="C100" s="5">
         <f t="shared" si="22"/>
-        <v>2482.6196081831208</v>
+        <v>2522.3967294869353</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="23"/>
-        <v>0.17496856561717722</v>
+        <v>0.15643981214379724</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12982,11 +13154,11 @@
       </c>
       <c r="C101" s="5">
         <f t="shared" si="22"/>
-        <v>2483.2431539543982</v>
+        <v>2523.0554547801707</v>
       </c>
       <c r="D101" s="7">
         <f t="shared" si="23"/>
-        <v>0.16702224483539976</v>
+        <v>0.14860733421830297</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12998,11 +13170,11 @@
       </c>
       <c r="C102" s="5">
         <f t="shared" si="22"/>
-        <v>2483.8668563381975</v>
+        <v>2523.7143520998698</v>
       </c>
       <c r="D102" s="7">
         <f t="shared" si="23"/>
-        <v>0.16954739042762201</v>
+        <v>0.15108114259558714</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13014,11 +13186,11 @@
       </c>
       <c r="C103" s="5">
         <f t="shared" si="22"/>
-        <v>2484.4907153738536</v>
+        <v>2524.3734214909709</v>
       </c>
       <c r="D103" s="7">
         <f t="shared" si="23"/>
-        <v>0.17971863684705214</v>
+        <v>0.16108020114902935</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13030,11 +13202,11 @@
       </c>
       <c r="C104" s="5">
         <f t="shared" si="22"/>
-        <v>2485.1147311007221</v>
+        <v>2525.0326629984065</v>
       </c>
       <c r="D104" s="7">
         <f t="shared" si="23"/>
-        <v>0.15890021654025321</v>
+        <v>0.14057930505345606</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13046,11 +13218,11 @@
       </c>
       <c r="C105" s="5">
         <f t="shared" si="22"/>
-        <v>2486.9877188221722</v>
+        <v>2527.0114206682574</v>
       </c>
       <c r="D105" s="7">
         <f t="shared" si="23"/>
-        <v>0.16566719572421343</v>
+        <v>0.14720494584601909</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13062,11 +13234,11 @@
       </c>
       <c r="C106" s="5">
         <f t="shared" si="22"/>
-        <v>2487.6123617075255</v>
+        <v>2527.6713510906334</v>
       </c>
       <c r="D106" s="7">
         <f t="shared" si="23"/>
-        <v>0.17904221941828405</v>
+        <v>0.16035654664301055</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13078,11 +13250,11 @@
       </c>
       <c r="C107" s="5">
         <f t="shared" si="22"/>
-        <v>2488.2371614809567</v>
+        <v>2528.3314538541927</v>
       </c>
       <c r="D107" s="7">
         <f t="shared" si="23"/>
-        <v>0.17954994219808917</v>
+        <v>0.16084463353326603</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13094,11 +13266,11 @@
       </c>
       <c r="C108" s="5">
         <f t="shared" si="22"/>
-        <v>2488.8621181818748</v>
+        <v>2528.9917290039562</v>
       </c>
       <c r="D108" s="7">
         <f t="shared" si="23"/>
-        <v>0.18166449580116312</v>
+        <v>0.16291404446716534</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13110,11 +13282,11 @@
       </c>
       <c r="C109" s="5">
         <f t="shared" si="22"/>
-        <v>2489.487231849695</v>
+        <v>2529.6521765849343</v>
       </c>
       <c r="D109" s="7">
         <f t="shared" si="23"/>
-        <v>0.17855595419946416</v>
+        <v>0.15984324926478269</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13126,11 +13298,11 @@
       </c>
       <c r="C110" s="5">
         <f t="shared" si="22"/>
-        <v>2491.3635150488594</v>
+        <v>2531.6345543655561</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="23"/>
-        <v>0.18368916546574923</v>
+        <v>0.16486006833598396</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13142,11 +13314,11 @@
       </c>
       <c r="C111" s="5">
         <f t="shared" si="22"/>
-        <v>2491.9892569786311</v>
+        <v>2532.2956921218351</v>
       </c>
       <c r="D111" s="7">
         <f t="shared" si="23"/>
-        <v>0.1709520784764049</v>
+        <v>0.15231408759969081</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13158,11 +13330,11 @@
       </c>
       <c r="C112" s="5">
         <f t="shared" si="22"/>
-        <v>2492.6151560725298</v>
+        <v>2532.9570025346075</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="23"/>
-        <v>0.1710592358747029</v>
+        <v>0.15240803419840843</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13174,11 +13346,11 @@
       </c>
       <c r="C113" s="5">
         <f t="shared" ref="C113:C118" si="24">Var_1 * EXP((A113 * 0.0001) * Var_2)</f>
-        <v>2493.2412123700169</v>
+        <v>2533.6184856489485</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" ref="D113:D118" si="25">(B113-C113)/C113</f>
-        <v>0.15311747043804563</v>
+        <v>0.1347406944986872</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13190,11 +13362,11 @@
       </c>
       <c r="C114" s="5">
         <f t="shared" si="24"/>
-        <v>2493.8674259105901</v>
+        <v>2534.2801415099734</v>
       </c>
       <c r="D114" s="7">
         <f t="shared" si="25"/>
-        <v>0.14520923218570203</v>
+        <v>0.12694723571417785</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13206,11 +13378,11 @@
       </c>
       <c r="C115" s="5">
         <f t="shared" si="24"/>
-        <v>2495.7470103857845</v>
+        <v>2536.2661460243103</v>
       </c>
       <c r="D115" s="7">
         <f t="shared" si="25"/>
-        <v>0.1579699336405388</v>
+        <v>0.13947032117673472</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13222,11 +13394,11 @@
       </c>
       <c r="C116" s="5">
         <f t="shared" si="24"/>
-        <v>2496.3738532937209</v>
+        <v>2536.9284933232989</v>
       </c>
       <c r="D116" s="7">
         <f t="shared" si="25"/>
-        <v>0.16729311042705494</v>
+        <v>0.14863308432582148</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13238,11 +13410,11 @@
       </c>
       <c r="C117" s="5">
         <f t="shared" si="24"/>
-        <v>2497.0008536423065</v>
+        <v>2537.5910135946438</v>
       </c>
       <c r="D117" s="7">
         <f t="shared" si="25"/>
-        <v>0.16820144284093946</v>
+        <v>0.14951542008651014</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13254,11 +13426,11 @@
       </c>
       <c r="C118" s="5">
         <f t="shared" si="24"/>
-        <v>2497.6280114710903</v>
+        <v>2538.2537068835309</v>
       </c>
       <c r="D118" s="7">
         <f t="shared" si="25"/>
-        <v>0.16510544670181876</v>
+        <v>0.14645750033116248</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13270,11 +13442,11 @@
       </c>
       <c r="C119" s="5">
         <f t="shared" ref="C119:C134" si="26">Var_1 * EXP((A119 * 0.0001) * Var_2)</f>
-        <v>2498.2553268196166</v>
+        <v>2538.9165732351307</v>
       </c>
       <c r="D119" s="7">
         <f t="shared" ref="D119:D134" si="27">(B119-C119)/C119</f>
-        <v>0.16521316646438403</v>
+        <v>0.14655204928248361</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13286,11 +13458,11 @@
       </c>
       <c r="C120" s="5">
         <f t="shared" si="26"/>
-        <v>2500.1382183793589</v>
+        <v>2540.9062111182443</v>
       </c>
       <c r="D120" s="7">
         <f t="shared" si="27"/>
-        <v>0.15353622403703271</v>
+        <v>0.13502812003862247</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13302,11 +13474,11 @@
       </c>
       <c r="C121" s="5">
         <f t="shared" si="26"/>
-        <v>2500.7661642026051</v>
+        <v>2541.569770172779</v>
       </c>
       <c r="D121" s="7">
         <f t="shared" si="27"/>
-        <v>0.16564277049448869</v>
+        <v>0.14692897051645162</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13318,11 +13490,11 @@
       </c>
       <c r="C122" s="5">
         <f t="shared" si="26"/>
-        <v>2501.3942677435102</v>
+        <v>2542.2335025161306</v>
       </c>
       <c r="D122" s="7">
         <f t="shared" si="27"/>
-        <v>0.17454494794631023</v>
+        <v>0.15567669023799999</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13334,11 +13506,11 @@
       </c>
       <c r="C123" s="5">
         <f t="shared" si="26"/>
-        <v>2502.0225290416997</v>
+        <v>2542.897408193553</v>
       </c>
       <c r="D123" s="7">
         <f t="shared" si="27"/>
-        <v>0.19343449762767267</v>
+        <v>0.17425106902807466</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13350,11 +13522,11 @@
       </c>
       <c r="C124" s="5">
         <f t="shared" si="26"/>
-        <v>2502.6509481367839</v>
+        <v>2543.5614872503038</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="27"/>
-        <v>0.1919360956911848</v>
+        <v>0.17276504419193248</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13366,11 +13538,11 @@
       </c>
       <c r="C125" s="5">
         <f t="shared" si="26"/>
-        <v>2504.5371525998153</v>
+        <v>2545.554765149393</v>
       </c>
       <c r="D125" s="7">
         <f t="shared" si="27"/>
-        <v>0.19742683668593672</v>
+        <v>0.17813218598107641</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13382,11 +13554,11 @@
       </c>
       <c r="C126" s="5">
         <f t="shared" si="26"/>
-        <v>2505.1662032789204</v>
+        <v>2546.21953817637</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="27"/>
-        <v>0.20989976474727903</v>
+        <v>0.19039224801912999</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13398,11 +13570,11 @@
       </c>
       <c r="C127" s="5">
         <f t="shared" si="26"/>
-        <v>2505.7954119531942</v>
+        <v>2546.8844848091931</v>
       </c>
       <c r="D127" s="7">
         <f t="shared" si="27"/>
-        <v>0.20600428334428128</v>
+        <v>0.18654772842059286</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13414,11 +13586,11 @@
       </c>
       <c r="C128" s="5">
         <f t="shared" si="26"/>
-        <v>2506.4247786623137</v>
+        <v>2547.5496050931911</v>
       </c>
       <c r="D128" s="7">
         <f t="shared" si="27"/>
-        <v>0.21527684610014877</v>
+        <v>0.19565875926823229</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13430,11 +13602,11 @@
       </c>
       <c r="C129" s="5">
         <f t="shared" si="26"/>
-        <v>2507.054303445977</v>
+        <v>2548.2148990737251</v>
       </c>
       <c r="D129" s="7">
         <f t="shared" si="27"/>
-        <v>0.20579757520403499</v>
+        <v>0.1863206674989849</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13446,11 +13618,11 @@
       </c>
       <c r="C130" s="5">
         <f t="shared" si="26"/>
-        <v>2508.943826641259</v>
+        <v>2550.2118236481465</v>
       </c>
       <c r="D130" s="7">
         <f t="shared" si="27"/>
-        <v>0.199309433734182</v>
+        <v>0.17990198778685948</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13462,11 +13634,11 @@
       </c>
       <c r="C131" s="5">
         <f t="shared" si="26"/>
-        <v>2509.5739841202044</v>
+        <v>2550.8778128685212</v>
       </c>
       <c r="D131" s="7">
         <f t="shared" si="27"/>
-        <v>0.20378997356361628</v>
+        <v>0.1842981991375022</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13478,11 +13650,11 @@
       </c>
       <c r="C132" s="5">
         <f t="shared" si="26"/>
-        <v>2510.2042998722982</v>
+        <v>2551.5439760123377</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" si="27"/>
-        <v>0.20348770024562843</v>
+        <v>0.18398899975901975</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13494,11 +13666,11 @@
       </c>
       <c r="C133" s="5">
         <f t="shared" si="26"/>
-        <v>2510.8347739372921</v>
+        <v>2552.2103131250301</v>
       </c>
       <c r="D133" s="7">
         <f t="shared" si="27"/>
-        <v>0.21672681600207055</v>
+        <v>0.19700166725654117</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13510,11 +13682,11 @@
       </c>
       <c r="C134" s="5">
         <f t="shared" si="26"/>
-        <v>2511.4654063549583</v>
+        <v>2552.8768242520255</v>
       </c>
       <c r="D134" s="7">
         <f t="shared" si="27"/>
-        <v>0.22796833760732377</v>
+        <v>0.20804888457694773</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13526,11 +13698,11 @@
       </c>
       <c r="C135" s="5">
         <f t="shared" ref="C135:C149" si="28">Var_1 * EXP((A135 * 0.0001) * Var_2)</f>
-        <v>2513.3582541217352</v>
+        <v>2554.8774021733325</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" ref="D135:D149" si="29">(B135-C135)/C135</f>
-        <v>0.24136700165343081</v>
+        <v>0.22119362649101684</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13542,11 +13714,11 @@
       </c>
       <c r="C136" s="5">
         <f t="shared" si="28"/>
-        <v>2513.9895203479009</v>
+        <v>2555.5446098121047</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="29"/>
-        <v>0.23906642203064063</v>
+        <v>0.21891826424780314</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13558,11 +13730,11 @@
       </c>
       <c r="C137" s="5">
         <f t="shared" si="28"/>
-        <v>2514.6209451256918</v>
+        <v>2556.2119916925094</v>
       </c>
       <c r="D137" s="7">
         <f t="shared" si="29"/>
-        <v>0.25744598052807094</v>
+        <v>0.23698660763514709</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13574,11 +13746,11 @@
       </c>
       <c r="C138" s="5">
         <f t="shared" si="28"/>
-        <v>2515.2525284949361</v>
+        <v>2556.8795478600646</v>
       </c>
       <c r="D138" s="7">
         <f t="shared" si="29"/>
-        <v>0.23725151440843301</v>
+        <v>0.21710856602710665</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13590,11 +13762,11 @@
       </c>
       <c r="C139" s="5">
         <f t="shared" si="28"/>
-        <v>2515.8842704954604</v>
+        <v>2557.5472783602745</v>
       </c>
       <c r="D139" s="7">
         <f t="shared" si="29"/>
-        <v>0.20713024665554855</v>
+        <v>0.18746582935003181</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13606,11 +13778,11 @@
       </c>
       <c r="C140" s="5">
         <f t="shared" si="28"/>
-        <v>2517.7804486832383</v>
+        <v>2559.5515163122118</v>
       </c>
       <c r="D140" s="7">
         <f t="shared" si="29"/>
-        <v>0.18397932653699753</v>
+        <v>0.16465716005396483</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13622,11 +13794,11 @@
       </c>
       <c r="C141" s="5">
         <f t="shared" si="28"/>
-        <v>2518.4128256074337</v>
+        <v>2560.219944598457</v>
       </c>
       <c r="D141" s="7">
         <f t="shared" si="29"/>
-        <v>0.18249080123776582</v>
+        <v>0.1631813142784759</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13638,11 +13810,11 @@
       </c>
       <c r="C142" s="5">
         <f t="shared" si="28"/>
-        <v>2519.0453613622312</v>
+        <v>2560.8885474451222</v>
       </c>
       <c r="D142" s="7">
         <f t="shared" si="29"/>
-        <v>0.22506726053205137</v>
+        <v>0.20505049041620993</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13654,11 +13826,11 @@
       </c>
       <c r="C143" s="5">
         <f t="shared" si="28"/>
-        <v>2519.6780559875106</v>
+        <v>2561.5573248977835</v>
       </c>
       <c r="D143" s="7">
         <f t="shared" si="29"/>
-        <v>0.26563788275330646</v>
+        <v>0.24494578708179174</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13670,11 +13842,11 @@
       </c>
       <c r="C144" s="5">
         <f t="shared" si="28"/>
-        <v>2520.3109095231875</v>
+        <v>2562.2262770020407</v>
       </c>
       <c r="D144" s="7">
         <f t="shared" si="29"/>
-        <v>0.28396857219977362</v>
+        <v>0.26296417652320514</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13686,11 +13858,11 @@
       </c>
       <c r="C145" s="5">
         <f t="shared" si="28"/>
-        <v>2522.2104239917539</v>
+        <v>2564.2341816805847</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="29"/>
-        <v>0.2734861332134837</v>
+        <v>0.25261570216448531</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13702,11 +13874,11 @@
       </c>
       <c r="C146" s="5">
         <f t="shared" si="28"/>
-        <v>2522.8439135682306</v>
+        <v>2564.9038328474671</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="29"/>
-        <v>0.28862510380275108</v>
+        <v>0.26749391472929135</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13718,11 +13890,11 @@
       </c>
       <c r="C147" s="5">
         <f t="shared" si="28"/>
-        <v>2523.4775622547636</v>
+        <v>2565.5736588941154</v>
       </c>
       <c r="D147" s="7">
         <f t="shared" si="29"/>
-        <v>0.327533103566305</v>
+        <v>0.30575085551977865</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13734,11 +13906,11 @@
       </c>
       <c r="C148" s="5">
         <f t="shared" si="28"/>
-        <v>2524.1113700913206</v>
+        <v>2566.2436598662125</v>
       </c>
       <c r="D148" s="7">
         <f t="shared" si="29"/>
-        <v>0.317691461403174</v>
+        <v>0.29605775632910725</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13750,11 +13922,11 @@
       </c>
       <c r="C149" s="5">
         <f t="shared" si="28"/>
-        <v>2526.6481937373333</v>
+        <v>2568.9254139228074</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="29"/>
-        <v>0.35911283910109482</v>
+        <v>0.33674569973450652</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13766,11 +13938,11 @@
       </c>
       <c r="C150" s="5">
         <f t="shared" ref="C150:C157" si="30">Var_1 * EXP((A150 * 0.0001) * Var_2)</f>
-        <v>2527.2827979237759</v>
+        <v>2569.5962902075698</v>
       </c>
       <c r="D150" s="7">
         <f t="shared" ref="D150:D157" si="31">(B150-C150)/C150</f>
-        <v>0.31999474009818168</v>
+        <v>0.29825841230900935</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13782,11 +13954,11 @@
       </c>
       <c r="C151" s="5">
         <f t="shared" si="30"/>
-        <v>2527.9175615002218</v>
+        <v>2570.2673416920384</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="31"/>
-        <v>0.31175163719820104</v>
+        <v>0.29013816820200372</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13798,11 +13970,11 @@
       </c>
       <c r="C152" s="5">
         <f t="shared" si="30"/>
-        <v>2528.5524845067166</v>
+        <v>2570.9385684219806</v>
       </c>
       <c r="D152" s="7">
         <f t="shared" si="31"/>
-        <v>0.32407771660438583</v>
+        <v>0.3022481521427301</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13814,11 +13986,11 @@
       </c>
       <c r="C153" s="5">
         <f t="shared" si="30"/>
-        <v>2529.1875669832903</v>
+        <v>2571.6099704431481</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="31"/>
-        <v>0.31227910627394279</v>
+        <v>0.29063117585753462</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13830,11 +14002,11 @@
       </c>
       <c r="C154" s="5">
         <f t="shared" si="30"/>
-        <v>2531.0937716340936</v>
+        <v>2573.6252287118614</v>
       </c>
       <c r="D154" s="7">
         <f t="shared" si="31"/>
-        <v>0.31840235924787846</v>
+        <v>0.29661458194137275</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13846,11 +14018,11 @@
       </c>
       <c r="C155" s="5">
         <f t="shared" si="30"/>
-        <v>2531.7294923916334</v>
+        <v>2574.2973323558363</v>
       </c>
       <c r="D155" s="7">
         <f t="shared" si="31"/>
-        <v>0.30977658156815746</v>
+        <v>0.28811849288807823</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13862,11 +14034,11 @@
       </c>
       <c r="C156" s="5">
         <f t="shared" si="30"/>
-        <v>2532.3653728196232</v>
+        <v>2574.9696115200522</v>
       </c>
       <c r="D156" s="7">
         <f t="shared" si="31"/>
-        <v>0.29207263498349056</v>
+        <v>0.27069460756411717</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13878,11 +14050,11 @@
       </c>
       <c r="C157" s="5">
         <f t="shared" si="30"/>
-        <v>2533.0014129581664</v>
+        <v>2575.6420662503369</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="31"/>
-        <v>0.27793059389559072</v>
+        <v>0.25677400692266183</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13894,11 +14066,11 @@
       </c>
       <c r="C158" s="5">
         <f t="shared" ref="C158:C165" si="32">Var_1 * EXP((A158 * 0.0001) * Var_2)</f>
-        <v>2533.6376128473817</v>
+        <v>2576.3146965925539</v>
       </c>
       <c r="D158" s="7">
         <f t="shared" ref="D158:D165" si="33">(B158-C158)/C158</f>
-        <v>0.27839908263751656</v>
+        <v>0.25722218806728731</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13910,11 +14082,11 @@
       </c>
       <c r="C159" s="5">
         <f t="shared" si="32"/>
-        <v>2535.547171420299</v>
+        <v>2578.3336417493924</v>
       </c>
       <c r="D159" s="7">
         <f t="shared" si="33"/>
-        <v>0.31490355911321649</v>
+        <v>0.29308323252451146</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13926,11 +14098,11 @@
       </c>
       <c r="C160" s="5">
         <f t="shared" si="32"/>
-        <v>2536.1840107135204</v>
+        <v>2579.0069749980307</v>
       </c>
       <c r="D160" s="7">
         <f t="shared" si="33"/>
-        <v>0.34059673337482199</v>
+        <v>0.31833687654241266</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13942,11 +14114,11 @@
       </c>
       <c r="C161" s="5">
         <f t="shared" si="32"/>
-        <v>2536.8210099581192</v>
+        <v>2579.6804840880131</v>
       </c>
       <c r="D161" s="7">
         <f t="shared" si="33"/>
-        <v>0.33079944810758838</v>
+        <v>0.30868920427310492</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13958,11 +14130,11 @@
       </c>
       <c r="C162" s="5">
         <f t="shared" si="32"/>
-        <v>2537.4581691942826</v>
+        <v>2580.3541690652601</v>
       </c>
       <c r="D162" s="7">
         <f t="shared" si="33"/>
-        <v>0.30681957253818581</v>
+        <v>0.28509490664269144</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13974,11 +14146,11 @@
       </c>
       <c r="C163" s="5">
         <f t="shared" si="32"/>
-        <v>2538.0954884621915</v>
+        <v>2581.0280299757137</v>
       </c>
       <c r="D163" s="7">
         <f t="shared" si="33"/>
-        <v>0.3096433980165107</v>
+        <v>0.28785893116832106</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13990,11 +14162,11 @@
       </c>
       <c r="C164" s="5">
         <f t="shared" si="32"/>
-        <v>2540.0084068583783</v>
+        <v>2583.0506687657999</v>
       </c>
       <c r="D164" s="7">
         <f t="shared" si="33"/>
-        <v>0.27401153132499362</v>
+        <v>0.25278223889668566</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14006,11 +14178,11 @@
       </c>
       <c r="C165" s="5">
         <f t="shared" si="32"/>
-        <v>2540.6463666553141</v>
+        <v>2583.725233868638</v>
       </c>
       <c r="D165" s="7">
         <f t="shared" si="33"/>
-        <v>0.28038283591686097</v>
+        <v>0.25903480654916622</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14021,12 +14193,12 @@
         <v>3185</v>
       </c>
       <c r="C166" s="5">
-        <f>Var_1 * EXP((A166 * 0.0001) * Var_2)</f>
-        <v>2541.2844866850623</v>
+        <f t="shared" ref="C166:C174" si="34">Var_1 * EXP((A166 * 0.0001) * Var_2)</f>
+        <v>2584.3999751345145</v>
       </c>
       <c r="D166" s="7">
-        <f>(B166-C166)/C166</f>
-        <v>0.2533032081562116</v>
+        <f t="shared" ref="D166:D174" si="35">(B166-C166)/C166</f>
+        <v>0.23239437805451343</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14037,12 +14209,12 @@
         <v>3237</v>
       </c>
       <c r="C167" s="5">
-        <f>Var_1 * EXP((A167 * 0.0001) * Var_2)</f>
-        <v>2541.9227669878724</v>
+        <f t="shared" si="34"/>
+        <v>2585.0748926094484</v>
       </c>
       <c r="D167" s="7">
-        <f>(B167-C167)/C167</f>
-        <v>0.27344545713156354</v>
+        <f t="shared" si="35"/>
+        <v>0.25218809298498884</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14053,12 +14225,12 @@
         <v>3203</v>
       </c>
       <c r="C168" s="5">
-        <f>Var_1 * EXP((A168 * 0.0001) * Var_2)</f>
-        <v>2542.5612076039947</v>
+        <f t="shared" si="34"/>
+        <v>2585.7499863394523</v>
       </c>
       <c r="D168" s="7">
-        <f>(B168-C168)/C168</f>
-        <v>0.25975335044869013</v>
+        <f t="shared" si="35"/>
+        <v>0.23871217902793648</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14069,12 +14241,12 @@
         <v>3222</v>
       </c>
       <c r="C169" s="5">
-        <f>Var_1 * EXP((A169 * 0.0001) * Var_2)</f>
-        <v>2544.4774917349814</v>
+        <f t="shared" si="34"/>
+        <v>2587.7763255202335</v>
       </c>
       <c r="D169" s="7">
-        <f>(B169-C169)/C169</f>
-        <v>0.26627176324638741</v>
+        <f t="shared" si="35"/>
+        <v>0.24508442566119595</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14085,12 +14257,12 @@
         <v>3290</v>
       </c>
       <c r="C170" s="5">
-        <f>Var_1 * EXP((A170 * 0.0001) * Var_2)</f>
-        <v>2545.1165740071265</v>
+        <f t="shared" si="34"/>
+        <v>2588.4521247309235</v>
       </c>
       <c r="D170" s="7">
-        <f>(B170-C170)/C170</f>
-        <v>0.29267163382622641</v>
+        <f t="shared" si="35"/>
+        <v>0.27102988251791765</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14101,12 +14273,12 @@
         <v>3320</v>
       </c>
       <c r="C171" s="5">
-        <f>Var_1 * EXP((A171 * 0.0001) * Var_2)</f>
-        <v>2545.7558167940147</v>
+        <f t="shared" si="34"/>
+        <v>2589.1281004269576</v>
       </c>
       <c r="D171" s="7">
-        <f>(B171-C171)/C171</f>
-        <v>0.3041313617348525</v>
+        <f t="shared" si="35"/>
+        <v>0.28228495123610092</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14117,12 +14289,12 @@
         <v>3299</v>
       </c>
       <c r="C172" s="5">
-        <f>Var_1 * EXP((A172 * 0.0001) * Var_2)</f>
-        <v>2546.3952201359616</v>
+        <f t="shared" si="34"/>
+        <v>2589.8042526544123</v>
       </c>
       <c r="D172" s="7">
-        <f>(B172-C172)/C172</f>
-        <v>0.29555694022385653</v>
+        <f t="shared" si="35"/>
+        <v>0.27384144829428697</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14133,12 +14305,12 @@
         <v>3358</v>
       </c>
       <c r="C173" s="5">
-        <f>Var_1 * EXP((A173 * 0.0001) * Var_2)</f>
-        <v>2547.0347840732925</v>
+        <f t="shared" si="34"/>
+        <v>2590.4805814593883</v>
       </c>
       <c r="D173" s="7">
-        <f>(B173-C173)/C173</f>
-        <v>0.31839581500720154</v>
+        <f t="shared" si="35"/>
+        <v>0.29628456744046211</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14149,60 +14321,110 @@
         <v>3346</v>
       </c>
       <c r="C174" s="5">
-        <f>Var_1 * EXP((A174 * 0.0001) * Var_2)</f>
-        <v>2548.9544398610005</v>
+        <f t="shared" si="34"/>
+        <v>2592.5106278006801</v>
       </c>
       <c r="D174" s="7">
-        <f>(B174-C174)/C174</f>
-        <v>0.31269509869406059</v>
+        <f t="shared" si="35"/>
+        <v>0.29064080359760452</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="3">
+        <v>45804</v>
+      </c>
+      <c r="B175" s="6">
+        <v>3300</v>
+      </c>
+      <c r="C175" s="5">
+        <f>Var_1 * EXP((A175 * 0.0001) * Var_2)</f>
+        <v>2593.1876633770189</v>
+      </c>
+      <c r="D175" s="7">
+        <f>(B175-C175)/C175</f>
+        <v>0.27256505443286111</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>45805</v>
+      </c>
+      <c r="B176" s="6">
+        <v>3286</v>
+      </c>
+      <c r="C176" s="5">
+        <f>Var_1 * EXP((A176 * 0.0001) * Var_2)</f>
+        <v>2593.8648757615661</v>
+      </c>
+      <c r="D176" s="7">
+        <f>(B176-C176)/C176</f>
+        <v>0.26683545881904164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>45806</v>
+      </c>
+      <c r="B177" s="6">
+        <v>3318</v>
+      </c>
+      <c r="C177" s="5">
+        <f>Var_1 * EXP((A177 * 0.0001) * Var_2)</f>
+        <v>2594.5422650005094</v>
+      </c>
+      <c r="D177" s="7">
+        <f>(B177-C177)/C177</f>
+        <v>0.27883829250295472</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>45807</v>
+      </c>
+      <c r="B178" s="6">
+        <v>3289</v>
+      </c>
+      <c r="C178" s="5">
+        <f>Var_1 * EXP((A178 * 0.0001) * Var_2)</f>
+        <v>2595.2198311400198</v>
+      </c>
+      <c r="D178" s="7">
+        <f>(B178-C178)/C178</f>
+        <v>0.26733001980615212</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>45810</v>
+      </c>
+      <c r="B179" s="6">
+        <v>3381</v>
+      </c>
+      <c r="C179" s="5">
+        <f>Var_1 * EXP((A179 * 0.0001) * Var_2)</f>
+        <v>2597.2535914240234</v>
+      </c>
+      <c r="D179" s="7">
+        <f>(B179-C179)/C179</f>
+        <v>0.30175967844028034</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B175" s="12">
+      <c r="B180" s="12">
         <f>表2[[#Totals],[溢价指标]] -7%</f>
-        <v>8.8832785649542945E-2</v>
-      </c>
-      <c r="C175" s="13">
+        <v>7.4563207931231695E-2</v>
+      </c>
+      <c r="C180" s="13">
         <f>表2[[#Totals],[溢价指标]] +7%</f>
-        <v>0.22883278564954296</v>
-      </c>
-      <c r="D175" s="14">
+        <v>0.21456320793123171</v>
+      </c>
+      <c r="D180" s="14">
         <f>SUBTOTAL(101,表2[溢价指标])</f>
-        <v>0.15883278564954295</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176"/>
-      <c r="B176"/>
-      <c r="C176"/>
-      <c r="D176"/>
-    </row>
-    <row r="177" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177"/>
-      <c r="B177"/>
-      <c r="C177"/>
-      <c r="D177"/>
-    </row>
-    <row r="178" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178"/>
-      <c r="B178"/>
-      <c r="C178"/>
-      <c r="D178"/>
-    </row>
-    <row r="179" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179"/>
-      <c r="B179"/>
-      <c r="C179"/>
-      <c r="D179"/>
-    </row>
-    <row r="180" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180"/>
-      <c r="B180"/>
-      <c r="C180"/>
-      <c r="D180"/>
+        <v>0.1445632079312317</v>
+      </c>
     </row>
     <row r="181" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181"/>
@@ -16199,6 +16421,36 @@
       <c r="B511"/>
       <c r="C511"/>
       <c r="D511"/>
+    </row>
+    <row r="512" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A512"/>
+      <c r="B512"/>
+      <c r="C512"/>
+      <c r="D512"/>
+    </row>
+    <row r="513" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A513"/>
+      <c r="B513"/>
+      <c r="C513"/>
+      <c r="D513"/>
+    </row>
+    <row r="514" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A514"/>
+      <c r="B514"/>
+      <c r="C514"/>
+      <c r="D514"/>
+    </row>
+    <row r="515" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A515"/>
+      <c r="B515"/>
+      <c r="C515"/>
+      <c r="D515"/>
+    </row>
+    <row r="516" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A516"/>
+      <c r="B516"/>
+      <c r="C516"/>
+      <c r="D516"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/指数合理性判断/gold.xlsx
+++ b/指数合理性判断/gold.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ipynb_notebook\指数合理性判断\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6C22E5-D524-44FC-842B-25D0DEAB4A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DDA19B-CBBF-49CE-B69B-B8D70036403F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="指数合理性判断" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$179</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">指数合理性判断!$A$2:$A$212</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">指数合理性判断!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$179</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">指数合理性判断!$A$2:$A$180</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">指数合理性判断!$D$2:$D$212</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">指数合理性判断!$A$2:$A$211</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">指数合理性判断!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">指数合理性判断!$D$2:$D$180</definedName>
-    <definedName name="Var_1">0.016580383475384</definedName>
-    <definedName name="Var_2">2.61116456133571</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">指数合理性判断!$D$2:$D$211</definedName>
+    <definedName name="Var_1">0.0122653904782803</definedName>
+    <definedName name="Var_2">2.67987799545848</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -259,27 +259,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
         <name val="等线"/>
@@ -294,27 +273,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -362,7 +320,6 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -383,6 +340,49 @@
         <charset val="134"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -530,10 +530,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>指数合理性判断!$A$2:$A$179</c:f>
+              <c:f>指数合理性判断!$A$2:$A$211</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>45558</c:v>
                 </c:pt>
@@ -1067,549 +1067,741 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>45810</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45811</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45812</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45813</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45814</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45817</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45818</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>45819</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>45820</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45821</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>45824</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45826</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45827</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45828</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>45831</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45832</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>45833</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>45834</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>45835</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>45840</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>45841</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>45842</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>45845</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>45846</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>45847</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>45848</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>45849</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>45852</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>45853</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>45854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>指数合理性判断!$D$2:$D$179</c:f>
+              <c:f>指数合理性判断!$D$2:$D$211</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
-                  <c:v>7.9835318975307143E-2</c:v>
+                  <c:v>6.7375304086293719E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2708651419824456E-2</c:v>
+                  <c:v>8.0092671876783997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1601375469807858E-2</c:v>
+                  <c:v>7.8990765952982614E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7890572643341209E-2</c:v>
+                  <c:v>8.5199851034418753E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.185301396317315E-2</c:v>
+                  <c:v>7.922466587074023E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1557506601308699E-2</c:v>
+                  <c:v>6.9026198956444712E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1533908340165948E-2</c:v>
+                  <c:v>7.8879597200021856E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1248928082408878E-2</c:v>
+                  <c:v>7.859050936852878E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.891333797566256E-2</c:v>
+                  <c:v>7.6274616481755236E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7398952589734458E-2</c:v>
+                  <c:v>7.4770423013834519E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2450385851912986E-2</c:v>
+                  <c:v>6.9857272257741521E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.356614076019477E-2</c:v>
+                  <c:v>6.1069094540980466E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.796241926512972E-2</c:v>
+                  <c:v>5.5523351319269908E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7918290127380108E-2</c:v>
+                  <c:v>6.5355940950810029E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7459608591518967E-2</c:v>
+                  <c:v>7.4778677128946855E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3336397260234688E-2</c:v>
+                  <c:v>7.0681475523525356E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.7550948367949341E-2</c:v>
+                  <c:v>7.4839409018021857E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.2989465927604473E-2</c:v>
+                  <c:v>8.0206937466618416E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10046827094760764</c:v>
+                  <c:v>8.7590804512349463E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11161989860753947</c:v>
+                  <c:v>9.8604389072631277E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11074945283814634</c:v>
+                  <c:v>9.7721506304503269E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.12066213357716958</c:v>
+                  <c:v>0.10751031140294036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11016953435602814</c:v>
+                  <c:v>9.7133312005502029E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1147744171705868</c:v>
+                  <c:v>0.1016765517249402</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12019239490051964</c:v>
+                  <c:v>0.10702326502053544</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11809283180158889</c:v>
+                  <c:v>0.10492560745830422</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13042913483936738</c:v>
+                  <c:v>0.11710895591237841</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.134206554677722</c:v>
+                  <c:v>0.12083416363902505</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.11803161578589479</c:v>
+                  <c:v>0.10484233686515779</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.11366928875694908</c:v>
+                  <c:v>0.10052390955802647</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11279723822770087</c:v>
+                  <c:v>9.963948418586728E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11616626802392559</c:v>
+                  <c:v>0.10296109960367862</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.2947401903752244E-2</c:v>
+                  <c:v>7.012788685262214E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.9733700917961909E-2</c:v>
+                  <c:v>8.6708008942299769E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0507989758944724E-2</c:v>
+                  <c:v>7.7584166371644669E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5295191560816368E-2</c:v>
+                  <c:v>5.2648470423155964E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.4464301248792403E-2</c:v>
+                  <c:v>4.1939000184470637E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.2827454955518145E-2</c:v>
+                  <c:v>3.0433299994495872E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.093253710003511E-2</c:v>
+                  <c:v>2.8553835940581935E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9038537620538757E-2</c:v>
+                  <c:v>2.6675305115295953E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.84869270516543E-2</c:v>
+                  <c:v>4.5870723700615533E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.7528661768801457E-2</c:v>
+                  <c:v>5.4797441247029531E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.4135432398685655E-2</c:v>
+                  <c:v>6.131812760564171E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.073868043889687E-2</c:v>
+                  <c:v>6.783524377115957E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.9078099687653534E-2</c:v>
+                  <c:v>8.5948238301296026E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.5744975660645839E-2</c:v>
+                  <c:v>4.3111279643833933E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.4366015685086056E-2</c:v>
+                  <c:v>5.1621928901932415E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.6109572498158159E-2</c:v>
+                  <c:v>5.3337371533156999E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.623541333614881E-2</c:v>
+                  <c:v>5.3454466101048884E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.3634514840917722E-2</c:v>
+                  <c:v>6.0757585837029567E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6737393525346148E-2</c:v>
+                  <c:v>5.3921461238310341E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.6458887200398067E-2</c:v>
+                  <c:v>5.3639060986619622E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.9408857687217551E-2</c:v>
+                  <c:v>5.6546310171163794E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.2271086299088695E-2</c:v>
+                  <c:v>4.948717846850912E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.1993746048208606E-2</c:v>
+                  <c:v>4.9205966391287145E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.2043807340343699E-2</c:v>
+                  <c:v>5.9113179117604268E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.6268991153842359E-2</c:v>
+                  <c:v>7.3159409524173047E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.5652911159837165E-2</c:v>
+                  <c:v>8.2422642449416522E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.9258519392726393E-2</c:v>
+                  <c:v>6.6218890469115416E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.5690836353649612E-2</c:v>
+                  <c:v>5.2807898292661845E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.6465507026683732E-2</c:v>
+                  <c:v>5.3551485950156866E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.4578339779022428E-2</c:v>
+                  <c:v>5.167994426847166E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.0577796679676571E-2</c:v>
+                  <c:v>2.796312743357577E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.2315985156815471E-2</c:v>
+                  <c:v>2.9673169016144682E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.3698028294205488E-2</c:v>
+                  <c:v>4.091000070181821E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.0062064224018175E-2</c:v>
+                  <c:v>3.729678080592768E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9787911533534852E-2</c:v>
+                  <c:v>3.7018835168848331E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.6462121733369883E-2</c:v>
+                  <c:v>4.3597521800598796E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.097155375004523E-2</c:v>
+                  <c:v>3.8166679154669418E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.4537117160948062E-2</c:v>
+                  <c:v>3.1789369187677212E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.1477284651561664E-2</c:v>
+                  <c:v>3.8637700571622954E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.4545523324602339E-2</c:v>
+                  <c:v>5.1531912071851857E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.6259556231544702E-2</c:v>
+                  <c:v>4.3340068190884436E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.3832107491157181E-2</c:v>
+                  <c:v>4.0920852648289131E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.9556725466190848E-2</c:v>
+                  <c:v>4.6568142858750633E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.4478523943889074E-2</c:v>
+                  <c:v>5.1422382730585796E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.6999031206020174E-2</c:v>
+                  <c:v>5.390473346587963E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.311518392508759E-2</c:v>
+                  <c:v>5.9938545041179125E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.5086453978781128E-2</c:v>
+                  <c:v>5.1986712894620195E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.8002404567859512E-2</c:v>
+                  <c:v>5.4859551215580712E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.5307398920904142E-2</c:v>
+                  <c:v>6.2067352345731061E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.3007550850789355E-2</c:v>
+                  <c:v>6.9665343770069041E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.7538568835000848E-2</c:v>
+                  <c:v>6.4256424464277762E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.0282464139667165E-2</c:v>
+                  <c:v>6.6944503233783342E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.3550242221144664E-2</c:v>
+                  <c:v>8.0041046221786316E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.7647356558534765E-2</c:v>
+                  <c:v>8.4080097658499414E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.6962464114571892E-2</c:v>
+                  <c:v>8.3396226282678357E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.10304745982637101</c:v>
+                  <c:v>8.9398482624137521E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.0644619034546597E-2</c:v>
+                  <c:v>7.7126908943777731E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.8713594883787351E-2</c:v>
+                  <c:v>8.5088419936936638E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.7631355096537586E-2</c:v>
+                  <c:v>8.401215238717924E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.11165797572341067</c:v>
+                  <c:v>9.7857189572728764E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.11176522631254462</c:v>
+                  <c:v>9.7955564233330156E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.11724944496056723</c:v>
+                  <c:v>0.10334891659675273</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.12767863930184392</c:v>
+                  <c:v>0.11364070136792795</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.13889624428032196</c:v>
+                  <c:v>0.12471093538687392</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.13383654693701807</c:v>
+                  <c:v>0.11970656424155776</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.13433404024763773</c:v>
+                  <c:v>0.12019016050382954</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.15643981214379724</c:v>
+                  <c:v>0.14199675669268855</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.14860733421830297</c:v>
+                  <c:v>0.1342543065935593</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.15108114259558714</c:v>
+                  <c:v>0.13668939158594057</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.16108020114902935</c:v>
+                  <c:v>0.14655555538706316</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.14057930505345606</c:v>
+                  <c:v>0.1263033780022727</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.14720494584601909</c:v>
+                  <c:v>0.13282273745636583</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16035654664301055</c:v>
+                  <c:v>0.14580158685032932</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.16084463353326603</c:v>
+                  <c:v>0.14627567493026164</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.16291404446716534</c:v>
+                  <c:v>0.1483112236500668</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.15984324926478269</c:v>
+                  <c:v>0.14527111913309174</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.16486006833598396</c:v>
+                  <c:v>0.15020119697036047</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.15231408759969081</c:v>
+                  <c:v>0.13780527951038529</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.15240803419840843</c:v>
+                  <c:v>0.13789022436437257</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.1347406944986872</c:v>
+                  <c:v>0.12043775539748225</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.12694723571417785</c:v>
+                  <c:v>0.11273488394136316</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.13947032117673472</c:v>
+                  <c:v>0.12507684349679182</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.14863308432582148</c:v>
+                  <c:v>0.13411607219818847</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.14951542008651014</c:v>
+                  <c:v>0.13497945768804676</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.14645750033116248</c:v>
+                  <c:v>0.13195242817165023</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.14655204928248361</c:v>
+                  <c:v>0.13203800223346879</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.13502812003862247</c:v>
+                  <c:v>0.12063685176851575</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.14692897051645162</c:v>
+                  <c:v>0.1323790277841827</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.15567669023799999</c:v>
+                  <c:v>0.141007933635238</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.17425106902807466</c:v>
+                  <c:v>0.15933858557433342</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.17276504419193248</c:v>
+                  <c:v>0.15786347650946647</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.17813218598107641</c:v>
+                  <c:v>0.16313844427746313</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.19039224801912999</c:v>
+                  <c:v>0.17523440064618215</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.18654772842059286</c:v>
+                  <c:v>0.1714307858673067</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.19565875926823229</c:v>
+                  <c:v>0.18041762860752705</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.1863206674989849</c:v>
+                  <c:v>0.1711905223487761</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.17990198778685948</c:v>
+                  <c:v>0.16482969337502035</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.1842981991375022</c:v>
+                  <c:v>0.16916171293901403</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.18398899975901975</c:v>
+                  <c:v>0.16884843384361461</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.19700166725654117</c:v>
+                  <c:v>0.18168657868383867</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.20804888457694773</c:v>
+                  <c:v>0.1925842572298149</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.22119362649101684</c:v>
+                  <c:v>0.20553587781097918</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.21891826424780314</c:v>
+                  <c:v>0.20328142133633734</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.23698660763514709</c:v>
+                  <c:v>0.22110958503018324</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.21710856602710665</c:v>
+                  <c:v>0.20147842709976235</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.18746582935003181</c:v>
+                  <c:v>0.17220830852182831</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.16465716005396483</c:v>
+                  <c:v>0.14966900388970733</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.1631813142784759</c:v>
+                  <c:v>0.14820426127272518</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.20505049041620993</c:v>
+                  <c:v>0.18952615873286138</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.24494578708179174</c:v>
+                  <c:v>0.22889905112561282</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.26296417652320514</c:v>
+                  <c:v>0.24667662605897486</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.25261570216448531</c:v>
+                  <c:v>0.23643612041748494</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.26749391472929135</c:v>
+                  <c:v>0.25111355965780197</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.30575085551977865</c:v>
+                  <c:v>0.28886723368902151</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.29605775632910725</c:v>
+                  <c:v>0.27929067774946054</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.33674569973450652</c:v>
+                  <c:v>0.31941597673867572</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.29825841230900935</c:v>
+                  <c:v>0.28141883777721727</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.29013816820200372</c:v>
+                  <c:v>0.27339517054446483</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.3022481521427301</c:v>
+                  <c:v>0.28533916297650053</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.29063117585753462</c:v>
+                  <c:v>0.27386427366735472</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.29661458194137275</c:v>
+                  <c:v>0.27974356692911312</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.28811849288807823</c:v>
+                  <c:v>0.27134928958042831</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.27069460756411717</c:v>
+                  <c:v>0.25414361716357281</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.25677400692266183</c:v>
+                  <c:v>0.24039581124644049</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.25722218806728731</c:v>
+                  <c:v>0.24082962552828657</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.29308323252451146</c:v>
+                  <c:v>0.27619678019603716</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.31833687654241266</c:v>
+                  <c:v>0.30111169492968148</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.30868920427310492</c:v>
+                  <c:v>0.29158120269549137</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.28509490664269144</c:v>
+                  <c:v>0.26828662957780552</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.28785893116832106</c:v>
+                  <c:v>0.27100576875943183</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.25278223889668566</c:v>
+                  <c:v>0.23636260995255673</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.25903480654916622</c:v>
+                  <c:v>0.24252469029162019</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.23239437805451343</c:v>
+                  <c:v>0.21622524891799849</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.25218809298498884</c:v>
+                  <c:v>0.23575077716607751</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.23871217902793648</c:v>
+                  <c:v>0.22244335998194817</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.24508442566119595</c:v>
+                  <c:v>0.22870658686724843</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.27102988251791765</c:v>
+                  <c:v>0.25430213845041083</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.28228495123610092</c:v>
+                  <c:v>0.26540038666004939</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.27384144829428697</c:v>
+                  <c:v>0.25705942633672629</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.29628456744046211</c:v>
+                  <c:v>0.27919808233269944</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.29064080359760452</c:v>
+                  <c:v>0.27360245527980498</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.27256505443286111</c:v>
+                  <c:v>0.25575670370470749</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.26683545881904164</c:v>
+                  <c:v>0.25009419613617018</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.27883829250295472</c:v>
+                  <c:v>0.26192974088646187</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.26733001980615212</c:v>
+                  <c:v>0.25056503524558288</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.30175967844028034</c:v>
+                  <c:v>0.28451275891079197</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.2735336348759968</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.28040701942568441</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.27247161917612545</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.25657058729823756</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.26086968150086698</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.26166915103264526</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.27156423922531697</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.28296955073390495</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.30005069856324923</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.2808380103803364</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.28162999784161646</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.27409896970365399</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.27413576652513499</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.27379435943324948</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.27239289807839739</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.2550560143721694</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.25811799764080512</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.25627094150497193</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.23329127466825328</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.24549798113633761</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.25835854025625227</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.26518205748253693</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.25316293798523853</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.25621724211043212</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.25596044354381475</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.24207806879480248</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.24625932100256617</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.25006217163032257</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.26175828335990281</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.25548492121906841</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.24876385435604287</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.2566895294471363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,13 +1866,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$179</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$211</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="178"/>
+                      <c:ptCount val="210"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -2214,6 +2406,102 @@
                       </c:pt>
                       <c:pt idx="177">
                         <c:v>45810</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>45811</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>45812</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>45813</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>45814</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>45817</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>45818</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>45819</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>45820</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>45821</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>45824</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>45825</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>45826</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>45827</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>45828</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>45831</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>45832</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>45833</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>45834</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>45835</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>45838</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>45839</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>45840</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>45841</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>45842</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>45845</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>45846</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>45847</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>45848</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>45849</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>45852</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>45853</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>45854</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2223,13 +2511,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$B$2:$B$179</c15:sqref>
+                          <c15:sqref>指数合理性判断!$B$2:$B$211</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="178"/>
+                      <c:ptCount val="210"/>
                       <c:pt idx="0">
                         <c:v>2626</c:v>
                       </c:pt>
@@ -2763,6 +3051,102 @@
                       </c:pt>
                       <c:pt idx="177">
                         <c:v>3381</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>3353</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>3372</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>3352</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>3311</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>3325</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>3328</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>3355</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>3386</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>3432</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>3384</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>3387</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>3368</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>3369</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>3369</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>3368</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>3323</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>3332</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>3328</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>3268</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>3303</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>3338</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>3357</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>3326</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>3335</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>3337</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>3301</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>3313</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>3324</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>3356</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>3342</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>3325</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>3347</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2813,13 +3197,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$179</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$211</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="178"/>
+                      <c:ptCount val="210"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -3353,6 +3737,102 @@
                       </c:pt>
                       <c:pt idx="177">
                         <c:v>45810</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>45811</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>45812</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>45813</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>45814</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>45817</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>45818</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>45819</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>45820</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>45821</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>45824</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>45825</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>45826</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>45827</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>45828</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>45831</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>45832</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>45833</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>45834</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>45835</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>45838</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>45839</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>45840</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>45841</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>45842</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>45845</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>45846</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>45847</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>45848</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>45849</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>45852</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>45853</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>45854</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3362,546 +3842,642 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$C$2:$C$179</c15:sqref>
+                          <c15:sqref>指数合理性判断!$C$2:$C$211</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                      <c:ptCount val="178"/>
+                      <c:ptCount val="210"/>
                       <c:pt idx="0">
-                        <c:v>2431.8522962296711</c:v>
+                        <c:v>2460.2405451453997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2432.4873757943574</c:v>
+                        <c:v>2460.8999479474501</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2433.1226212104211</c:v>
+                        <c:v>2461.5595274850907</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2433.7580325211711</c:v>
+                        <c:v>2462.2192838056826</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2434.393609769942</c:v>
+                        <c:v>2462.8792169566213</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2436.3013375777273</c:v>
+                        <c:v>2464.8600778654609</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2436.9375790120089</c:v>
+                        <c:v>2465.5207188118156</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2437.5739866010867</c:v>
+                        <c:v>2466.1815368256139</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2438.2105603883601</c:v>
+                        <c:v>2466.8425319543035</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2438.8473004172324</c:v>
+                        <c:v>2467.50370424537</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2440.758518387599</c:v>
+                        <c:v>2469.4882845676543</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>2441.3959238171051</c:v>
+                        <c:v>2470.1501659831561</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>2442.0334957053806</c:v>
+                        <c:v>2470.8122247985625</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>2442.6712340959093</c:v>
+                        <c:v>2471.4744610614339</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>2443.3091390321656</c:v>
+                        <c:v>2472.1368748193222</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>2445.2238535503279</c:v>
+                        <c:v>2474.1251815389192</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>2445.862425104563</c:v>
+                        <c:v>2474.7883057527524</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>2446.5011634221146</c:v>
+                        <c:v>2475.4516076995983</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>2447.140068546521</c:v>
+                        <c:v>2476.1150874270943</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>2447.7791405213561</c:v>
+                        <c:v>2476.7787449828843</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>2449.6973579841974</c:v>
+                        <c:v>2478.7707850967495</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>2450.3370977965756</c:v>
+                        <c:v>2479.4351544424903</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>2450.9770046773624</c:v>
+                        <c:v>2480.0997018549688</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2451.6170786701741</c:v>
+                        <c:v>2480.7644273819114</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>2452.2573198186651</c:v>
+                        <c:v>2481.4293310710527</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>2454.1790466347757</c:v>
+                        <c:v>2483.4251115892871</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>2454.8199568426057</c:v>
+                        <c:v>2484.0907284048844</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>2455.4610344244934</c:v>
+                        <c:v>2484.7565236215755</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>2456.1022794241485</c:v>
+                        <c:v>2485.4224972871762</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>2456.7436918852791</c:v>
+                        <c:v>2486.0886494495021</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>2458.6689344749784</c:v>
+                        <c:v>2488.0881773953706</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>2459.3110172194879</c:v>
+                        <c:v>2488.7550440231726</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>2459.9532676442627</c:v>
+                        <c:v>2489.422089387047</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>2460.5956857930851</c:v>
+                        <c:v>2490.0893135348915</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>2461.2382717097694</c:v>
+                        <c:v>2490.756716514637</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>2463.1670365051104</c:v>
+                        <c:v>2492.7599989245923</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>2463.8102939314422</c:v>
+                        <c:v>2493.4281177113398</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>2464.4537193448014</c:v>
+                        <c:v>2494.0964155697684</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>2465.0973127890647</c:v>
+                        <c:v>2494.7648925478647</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>2465.741074308115</c:v>
+                        <c:v>2495.4335486936511</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>2467.6733677529246</c:v>
+                        <c:v>2497.4405926173481</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>2468.3178020101454</c:v>
+                        <c:v>2498.1099659141978</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>2468.9624045617184</c:v>
+                        <c:v>2498.7795186189587</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>2469.6071754516061</c:v>
+                        <c:v>2499.4492507797158</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>2470.2521147237621</c:v>
+                        <c:v>2500.1191624445769</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>2472.1879432736673</c:v>
+                        <c:v>2502.1299749449299</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>2472.8335565147636</c:v>
+                        <c:v>2502.8006051074308</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>2473.4793383581177</c:v>
+                        <c:v>2503.4714150147215</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>2474.1252888477507</c:v>
+                        <c:v>2504.1424047149649</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>2474.7714080277051</c:v>
+                        <c:v>2504.8135742563622</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>2476.7107781501286</c:v>
+                        <c:v>2506.8281624095298</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>2477.3575725320411</c:v>
+                        <c:v>2507.5000517976728</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>2478.0045358246662</c:v>
+                        <c:v>2508.1721212681077</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>2478.651668072102</c:v>
+                        <c:v>2508.844370869087</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>2479.2989693184845</c:v>
+                        <c:v>2509.5168006488998</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>2481.2418874926861</c:v>
+                        <c:v>2511.5351715443367</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>2481.8898651762952</c:v>
+                        <c:v>2512.2083225225379</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>2482.5380120796285</c:v>
+                        <c:v>2512.881653921158</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>2483.1863282468908</c:v>
+                        <c:v>2513.5551657885676</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>2483.8348137222724</c:v>
+                        <c:v>2514.2288581731186</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>2485.7812864393654</c:v>
+                        <c:v>2516.2510189135814</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>2486.4304495895017</c:v>
+                        <c:v>2516.9254338506971</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>2487.079782268956</c:v>
+                        <c:v>2517.600029547003</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>2487.7292845219922</c:v>
+                        <c:v>2518.2748060509512</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2488.3789563929081</c:v>
+                        <c:v>2518.9497634110107</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>2490.3289901558819</c:v>
+                        <c:v>2520.975721112598</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>2490.9793409413492</c:v>
+                        <c:v>2521.6514023819282</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>2492.2805520750294</c:v>
+                        <c:v>2523.0033082649365</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>2492.9314125119699</c:v>
+                        <c:v>2523.6795329757101</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>2494.8850138357056</c:v>
+                        <c:v>2525.7092947678761</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>2495.5365544292672</c:v>
+                        <c:v>2526.3862447471911</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>2496.8401461113654</c:v>
+                        <c:v>2527.7406890703828</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>2497.4921972887873</c:v>
+                        <c:v>2528.4181835115378</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>2499.4493727001027</c:v>
+                        <c:v>2530.4517565371393</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>2500.1021052784836</c:v>
+                        <c:v>2531.1299776086539</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>2500.7550083183451</c:v>
+                        <c:v>2531.8083804595067</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>2501.4080818641901</c:v>
+                        <c:v>2532.4869651384001</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>2502.0613259605461</c:v>
+                        <c:v>2533.1657316940828</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>2504.0220819981741</c:v>
+                        <c:v>2535.2031231093688</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>2504.6760087421076</c:v>
+                        <c:v>2535.8826176597918</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>2505.3301062593741</c:v>
+                        <c:v>2536.5622943308699</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>2505.9843745945586</c:v>
+                        <c:v>2537.242153171404</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>2506.6388137922822</c:v>
+                        <c:v>2537.9221942302311</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>2508.6031570069349</c:v>
+                        <c:v>2539.9634112049021</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>2509.2582801011267</c:v>
+                        <c:v>2540.6441816254082</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>2509.9135742810699</c:v>
+                        <c:v>2541.3251345085241</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>2510.569039591458</c:v>
+                        <c:v>2542.0062699031682</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>2511.2246760769672</c:v>
+                        <c:v>2542.6875878582446</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>2513.1926130313377</c:v>
+                        <c:v>2544.7326375754583</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>2513.8489346644892</c:v>
+                        <c:v>2545.4146862617172</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>2514.5054276964015</c:v>
+                        <c:v>2546.0969177531915</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>2515.1620921718345</c:v>
+                        <c:v>2546.7793320988912</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>2515.8189281355471</c:v>
+                        <c:v>2547.4619293478077</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>2517.7904654043336</c:v>
+                        <c:v>2549.5108190042147</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>2518.447987769166</c:v>
+                        <c:v>2550.1941483563937</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>2519.1056818463258</c:v>
+                        <c:v>2550.8776608570379</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>2519.7635476806513</c:v>
+                        <c:v>2551.5613565552435</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>2520.4215853170099</c:v>
+                        <c:v>2552.2452355001078</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>2522.3967294869353</c:v>
+                        <c:v>2554.2979723058575</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>2523.0554547801707</c:v>
+                        <c:v>2554.982584728637</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>2523.7143520998698</c:v>
+                        <c:v>2555.6673806437689</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>2524.3734214909709</c:v>
+                        <c:v>2556.352360100449</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>2525.0326629984065</c:v>
+                        <c:v>2557.0375231478606</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>2527.0114206682574</c:v>
+                        <c:v>2559.0941143266591</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>2527.6713510906334</c:v>
+                        <c:v>2559.7800122292238</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>2528.3314538541927</c:v>
+                        <c:v>2560.4660939686805</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>2528.9917290039562</c:v>
+                        <c:v>2561.1523595943117</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>2529.6521765849343</c:v>
+                        <c:v>2561.838809155407</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>2531.6345543655561</c:v>
+                        <c:v>2563.8992619445107</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>2532.2956921218351</c:v>
+                        <c:v>2564.5864477405653</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>2532.9570025346075</c:v>
+                        <c:v>2565.2738177187157</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>2533.6184856489485</c:v>
+                        <c:v>2565.9613719283102</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>2534.2801415099734</c:v>
+                        <c:v>2566.6491104187403</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>2536.2661460243103</c:v>
+                        <c:v>2568.7134320689988</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>2536.9284933232989</c:v>
+                        <c:v>2569.4019081767974</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>2537.5910135946438</c:v>
+                        <c:v>2570.0905688125222</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>2538.2537068835309</c:v>
+                        <c:v>2570.7794140256265</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>2538.9165732351307</c:v>
+                        <c:v>2571.4684438655818</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>2540.9062111182443</c:v>
+                        <c:v>2573.5366416414558</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>2541.569770172779</c:v>
+                        <c:v>2574.2264104837896</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>2542.2335025161306</c:v>
+                        <c:v>2574.9163642005242</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>2542.897408193553</c:v>
+                        <c:v>2575.606502841224</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>2543.5614872503038</c:v>
+                        <c:v>2576.2968264554388</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>2545.554765149393</c:v>
+                        <c:v>2578.3689076350379</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>2546.21953817637</c:v>
+                        <c:v>2579.0599716392385</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2546.8844848091931</c:v>
+                        <c:v>2579.7512208649737</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>2547.5496050931911</c:v>
+                        <c:v>2580.4426553618964</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>2548.2148990737251</c:v>
+                        <c:v>2581.1342751796637</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>2550.2118236481465</c:v>
+                        <c:v>2583.2102470547543</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>2550.8778128685212</c:v>
+                        <c:v>2583.9026086527192</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>2551.5439760123377</c:v>
+                        <c:v>2584.5951558199999</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>2552.2103131250301</c:v>
+                        <c:v>2585.2878886063477</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>2552.8768242520255</c:v>
+                        <c:v>2585.9808070615031</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>2554.8774021733325</c:v>
+                        <c:v>2588.0606769375613</c:v>
                       </c:pt>
                       <c:pt idx="134">
-                        <c:v>2555.5446098121047</c:v>
+                        <c:v>2588.7543385657455</c:v>
                       </c:pt>
                       <c:pt idx="135">
-                        <c:v>2556.2119916925094</c:v>
+                        <c:v>2589.4481861116847</c:v>
                       </c:pt>
                       <c:pt idx="136">
-                        <c:v>2556.8795478600646</c:v>
+                        <c:v>2590.1422196252229</c:v>
                       </c:pt>
                       <c:pt idx="137">
-                        <c:v>2557.5472783602745</c:v>
+                        <c:v>2590.836439156195</c:v>
                       </c:pt>
                       <c:pt idx="138">
-                        <c:v>2559.5515163122118</c:v>
+                        <c:v>2592.9202143523912</c:v>
                       </c:pt>
                       <c:pt idx="139">
-                        <c:v>2560.219944598457</c:v>
+                        <c:v>2593.6151784518206</c:v>
                       </c:pt>
                       <c:pt idx="140">
-                        <c:v>2560.8885474451222</c:v>
+                        <c:v>2594.310328818116</c:v>
                       </c:pt>
                       <c:pt idx="141">
-                        <c:v>2561.5573248977835</c:v>
+                        <c:v>2595.0056655011886</c:v>
                       </c:pt>
                       <c:pt idx="142">
-                        <c:v>2562.2262770020407</c:v>
+                        <c:v>2595.7011885509746</c:v>
                       </c:pt>
                       <c:pt idx="143">
-                        <c:v>2564.2341816805847</c:v>
+                        <c:v>2597.7888764002319</c:v>
                       </c:pt>
                       <c:pt idx="144">
-                        <c:v>2564.9038328474671</c:v>
+                        <c:v>2598.4851454165332</c:v>
                       </c:pt>
                       <c:pt idx="145">
-                        <c:v>2565.5736588941154</c:v>
+                        <c:v>2599.1816010494449</c:v>
                       </c:pt>
                       <c:pt idx="146">
-                        <c:v>2566.2436598662125</c:v>
+                        <c:v>2599.8782433489851</c:v>
                       </c:pt>
                       <c:pt idx="147">
-                        <c:v>2568.9254139228074</c:v>
+                        <c:v>2602.6666802141808</c:v>
                       </c:pt>
                       <c:pt idx="148">
-                        <c:v>2569.5962902075698</c:v>
+                        <c:v>2603.3642565975642</c:v>
                       </c:pt>
                       <c:pt idx="149">
-                        <c:v>2570.2673416920384</c:v>
+                        <c:v>2604.0620199479631</c:v>
                       </c:pt>
                       <c:pt idx="150">
-                        <c:v>2570.9385684219806</c:v>
+                        <c:v>2604.7599703154851</c:v>
                       </c:pt>
                       <c:pt idx="151">
-                        <c:v>2571.6099704431481</c:v>
+                        <c:v>2605.4581077502557</c:v>
                       </c:pt>
                       <c:pt idx="152">
-                        <c:v>2573.6252287118614</c:v>
+                        <c:v>2607.5536429595049</c:v>
                       </c:pt>
                       <c:pt idx="153">
-                        <c:v>2574.2973323558363</c:v>
+                        <c:v>2608.2525291647812</c:v>
                       </c:pt>
                       <c:pt idx="154">
-                        <c:v>2574.9696115200522</c:v>
+                        <c:v>2608.9516026881365</c:v>
                       </c:pt>
                       <c:pt idx="155">
-                        <c:v>2575.6420662503369</c:v>
+                        <c:v>2609.6508635797677</c:v>
                       </c:pt>
                       <c:pt idx="156">
-                        <c:v>2576.3146965925539</c:v>
+                        <c:v>2610.3503118899075</c:v>
                       </c:pt>
                       <c:pt idx="157">
-                        <c:v>2578.3336417493924</c:v>
+                        <c:v>2612.449781833694</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>2579.0069749980307</c:v>
+                        <c:v>2613.1499803202928</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>2579.6804840880131</c:v>
+                        <c:v>2613.850366476679</c:v>
                       </c:pt>
                       <c:pt idx="160">
-                        <c:v>2580.3541690652601</c:v>
+                        <c:v>2614.5509403531669</c:v>
                       </c:pt>
                       <c:pt idx="161">
-                        <c:v>2581.0280299757137</c:v>
+                        <c:v>2615.251702000061</c:v>
                       </c:pt>
                       <c:pt idx="162">
-                        <c:v>2583.0506687657999</c:v>
+                        <c:v>2617.3551140665568</c:v>
                       </c:pt>
                       <c:pt idx="163">
-                        <c:v>2583.725233868638</c:v>
+                        <c:v>2618.0566272985061</c:v>
                       </c:pt>
                       <c:pt idx="164">
-                        <c:v>2584.3999751345145</c:v>
+                        <c:v>2618.7583285526266</c:v>
                       </c:pt>
                       <c:pt idx="165">
-                        <c:v>2585.0748926094484</c:v>
+                        <c:v>2619.4602178793261</c:v>
                       </c:pt>
                       <c:pt idx="166">
-                        <c:v>2585.7499863394523</c:v>
+                        <c:v>2620.162295329003</c:v>
                       </c:pt>
                       <c:pt idx="167">
-                        <c:v>2587.7763255202335</c:v>
+                        <c:v>2622.2696569202249</c:v>
                       </c:pt>
                       <c:pt idx="168">
-                        <c:v>2588.4521247309235</c:v>
+                        <c:v>2622.9724873661858</c:v>
                       </c:pt>
                       <c:pt idx="169">
-                        <c:v>2589.1281004269576</c:v>
+                        <c:v>2623.675506187371</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>2589.8042526544123</c:v>
+                        <c:v>2624.3787134342706</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>2590.4805814593883</c:v>
+                        <c:v>2625.0821091573812</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>2592.5106278006801</c:v>
+                        <c:v>2627.1934276892534</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>2593.1876633770189</c:v>
+                        <c:v>2627.8975778225258</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>2593.8648757615661</c:v>
+                        <c:v>2628.601916684735</c:v>
                       </c:pt>
                       <c:pt idx="175">
-                        <c:v>2594.5422650005094</c:v>
+                        <c:v>2629.3064443264648</c:v>
                       </c:pt>
                       <c:pt idx="176">
-                        <c:v>2595.2198311400198</c:v>
+                        <c:v>2630.0111607982981</c:v>
                       </c:pt>
                       <c:pt idx="177">
-                        <c:v>2597.2535914240234</c:v>
+                        <c:v>2632.1264437006707</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>2632.8319159992029</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>2633.5375773810438</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>2634.2434278968722</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>2634.9494675973656</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>2637.0687223140385</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>2637.7755192604286</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>2638.4825056451632</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>2639.1896815190084</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>2639.8970469327651</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>2642.0202809215066</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>2642.7284050030207</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>2643.436718878575</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>2644.1452225990388</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>2644.8539162153083</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>2646.981136947908</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>2647.6905906564666</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>2648.4002345154368</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>2649.1100685757833</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>2649.8200928884939</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>2651.9513078507666</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>2652.6620936829731</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>2653.3730700226406</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>2654.0842369208162</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>2654.7955944285832</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>2656.9308111203959</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>2657.6429315775495</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>2658.3552428998669</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>2659.0677451385172</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>2659.7804383446537</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>2661.9196642799484</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>2662.6331218680425</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>2663.3467706796823</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4186,10 +4762,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>指数合理性判断!$A$2:$A$179</c:f>
+              <c:f>指数合理性判断!$A$2:$A$211</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
                   <c:v>45558</c:v>
                 </c:pt>
@@ -4723,549 +5299,741 @@
                 </c:pt>
                 <c:pt idx="177">
                   <c:v>45810</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>45811</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45812</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>45813</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>45814</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>45817</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>45818</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>45819</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>45820</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>45821</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>45824</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>45826</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>45827</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>45828</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>45831</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>45832</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>45833</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>45834</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>45835</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>45840</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>45841</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>45842</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>45845</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>45846</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>45847</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>45848</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>45849</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>45852</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>45853</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>45854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>指数合理性判断!$D$2:$D$179</c:f>
+              <c:f>指数合理性判断!$D$2:$D$211</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="178"/>
+                <c:ptCount val="210"/>
                 <c:pt idx="0">
-                  <c:v>7.9835318975307143E-2</c:v>
+                  <c:v>6.7375304086293719E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2708651419824456E-2</c:v>
+                  <c:v>8.0092671876783997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1601375469807858E-2</c:v>
+                  <c:v>7.8990765952982614E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7890572643341209E-2</c:v>
+                  <c:v>8.5199851034418753E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.185301396317315E-2</c:v>
+                  <c:v>7.922466587074023E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1557506601308699E-2</c:v>
+                  <c:v>6.9026198956444712E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1533908340165948E-2</c:v>
+                  <c:v>7.8879597200021856E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1248928082408878E-2</c:v>
+                  <c:v>7.859050936852878E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.891333797566256E-2</c:v>
+                  <c:v>7.6274616481755236E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7398952589734458E-2</c:v>
+                  <c:v>7.4770423013834519E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2450385851912986E-2</c:v>
+                  <c:v>6.9857272257741521E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.356614076019477E-2</c:v>
+                  <c:v>6.1069094540980466E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.796241926512972E-2</c:v>
+                  <c:v>5.5523351319269908E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.7918290127380108E-2</c:v>
+                  <c:v>6.5355940950810029E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7459608591518967E-2</c:v>
+                  <c:v>7.4778677128946855E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3336397260234688E-2</c:v>
+                  <c:v>7.0681475523525356E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.7550948367949341E-2</c:v>
+                  <c:v>7.4839409018021857E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.2989465927604473E-2</c:v>
+                  <c:v>8.0206937466618416E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.10046827094760764</c:v>
+                  <c:v>8.7590804512349463E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11161989860753947</c:v>
+                  <c:v>9.8604389072631277E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11074945283814634</c:v>
+                  <c:v>9.7721506304503269E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.12066213357716958</c:v>
+                  <c:v>0.10751031140294036</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11016953435602814</c:v>
+                  <c:v>9.7133312005502029E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1147744171705868</c:v>
+                  <c:v>0.1016765517249402</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12019239490051964</c:v>
+                  <c:v>0.10702326502053544</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11809283180158889</c:v>
+                  <c:v>0.10492560745830422</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13042913483936738</c:v>
+                  <c:v>0.11710895591237841</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.134206554677722</c:v>
+                  <c:v>0.12083416363902505</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.11803161578589479</c:v>
+                  <c:v>0.10484233686515779</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.11366928875694908</c:v>
+                  <c:v>0.10052390955802647</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11279723822770087</c:v>
+                  <c:v>9.963948418586728E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11616626802392559</c:v>
+                  <c:v>0.10296109960367862</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.2947401903752244E-2</c:v>
+                  <c:v>7.012788685262214E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.9733700917961909E-2</c:v>
+                  <c:v>8.6708008942299769E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.0507989758944724E-2</c:v>
+                  <c:v>7.7584166371644669E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.5295191560816368E-2</c:v>
+                  <c:v>5.2648470423155964E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.4464301248792403E-2</c:v>
+                  <c:v>4.1939000184470637E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.2827454955518145E-2</c:v>
+                  <c:v>3.0433299994495872E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.093253710003511E-2</c:v>
+                  <c:v>2.8553835940581935E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.9038537620538757E-2</c:v>
+                  <c:v>2.6675305115295953E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.84869270516543E-2</c:v>
+                  <c:v>4.5870723700615533E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.7528661768801457E-2</c:v>
+                  <c:v>5.4797441247029531E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.4135432398685655E-2</c:v>
+                  <c:v>6.131812760564171E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.073868043889687E-2</c:v>
+                  <c:v>6.783524377115957E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9.9078099687653534E-2</c:v>
+                  <c:v>8.5948238301296026E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.5744975660645839E-2</c:v>
+                  <c:v>4.3111279643833933E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.4366015685086056E-2</c:v>
+                  <c:v>5.1621928901932415E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.6109572498158159E-2</c:v>
+                  <c:v>5.3337371533156999E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.623541333614881E-2</c:v>
+                  <c:v>5.3454466101048884E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.3634514840917722E-2</c:v>
+                  <c:v>6.0757585837029567E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.6737393525346148E-2</c:v>
+                  <c:v>5.3921461238310341E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.6458887200398067E-2</c:v>
+                  <c:v>5.3639060986619622E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6.9408857687217551E-2</c:v>
+                  <c:v>5.6546310171163794E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.2271086299088695E-2</c:v>
+                  <c:v>4.948717846850912E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>6.1993746048208606E-2</c:v>
+                  <c:v>4.9205966391287145E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>7.2043807340343699E-2</c:v>
+                  <c:v>5.9113179117604268E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8.6268991153842359E-2</c:v>
+                  <c:v>7.3159409524173047E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.5652911159837165E-2</c:v>
+                  <c:v>8.2422642449416522E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>7.9258519392726393E-2</c:v>
+                  <c:v>6.6218890469115416E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.5690836353649612E-2</c:v>
+                  <c:v>5.2807898292661845E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.6465507026683732E-2</c:v>
+                  <c:v>5.3551485950156866E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.4578339779022428E-2</c:v>
+                  <c:v>5.167994426847166E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.0577796679676571E-2</c:v>
+                  <c:v>2.796312743357577E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.2315985156815471E-2</c:v>
+                  <c:v>2.9673169016144682E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.3698028294205488E-2</c:v>
+                  <c:v>4.091000070181821E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.0062064224018175E-2</c:v>
+                  <c:v>3.729678080592768E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.9787911533534852E-2</c:v>
+                  <c:v>3.7018835168848331E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.6462121733369883E-2</c:v>
+                  <c:v>4.3597521800598796E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.097155375004523E-2</c:v>
+                  <c:v>3.8166679154669418E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.4537117160948062E-2</c:v>
+                  <c:v>3.1789369187677212E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.1477284651561664E-2</c:v>
+                  <c:v>3.8637700571622954E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.4545523324602339E-2</c:v>
+                  <c:v>5.1531912071851857E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.6259556231544702E-2</c:v>
+                  <c:v>4.3340068190884436E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.3832107491157181E-2</c:v>
+                  <c:v>4.0920852648289131E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.9556725466190848E-2</c:v>
+                  <c:v>4.6568142858750633E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.4478523943889074E-2</c:v>
+                  <c:v>5.1422382730585796E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>6.6999031206020174E-2</c:v>
+                  <c:v>5.390473346587963E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7.311518392508759E-2</c:v>
+                  <c:v>5.9938545041179125E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.5086453978781128E-2</c:v>
+                  <c:v>5.1986712894620195E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6.8002404567859512E-2</c:v>
+                  <c:v>5.4859551215580712E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.5307398920904142E-2</c:v>
+                  <c:v>6.2067352345731061E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.3007550850789355E-2</c:v>
+                  <c:v>6.9665343770069041E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.7538568835000848E-2</c:v>
+                  <c:v>6.4256424464277762E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.0282464139667165E-2</c:v>
+                  <c:v>6.6944503233783342E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>9.3550242221144664E-2</c:v>
+                  <c:v>8.0041046221786316E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.7647356558534765E-2</c:v>
+                  <c:v>8.4080097658499414E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.6962464114571892E-2</c:v>
+                  <c:v>8.3396226282678357E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.10304745982637101</c:v>
+                  <c:v>8.9398482624137521E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.0644619034546597E-2</c:v>
+                  <c:v>7.7126908943777731E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.8713594883787351E-2</c:v>
+                  <c:v>8.5088419936936638E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.7631355096537586E-2</c:v>
+                  <c:v>8.401215238717924E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.11165797572341067</c:v>
+                  <c:v>9.7857189572728764E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.11176522631254462</c:v>
+                  <c:v>9.7955564233330156E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.11724944496056723</c:v>
+                  <c:v>0.10334891659675273</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.12767863930184392</c:v>
+                  <c:v>0.11364070136792795</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.13889624428032196</c:v>
+                  <c:v>0.12471093538687392</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.13383654693701807</c:v>
+                  <c:v>0.11970656424155776</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.13433404024763773</c:v>
+                  <c:v>0.12019016050382954</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.15643981214379724</c:v>
+                  <c:v>0.14199675669268855</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.14860733421830297</c:v>
+                  <c:v>0.1342543065935593</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.15108114259558714</c:v>
+                  <c:v>0.13668939158594057</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.16108020114902935</c:v>
+                  <c:v>0.14655555538706316</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.14057930505345606</c:v>
+                  <c:v>0.1263033780022727</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.14720494584601909</c:v>
+                  <c:v>0.13282273745636583</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.16035654664301055</c:v>
+                  <c:v>0.14580158685032932</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.16084463353326603</c:v>
+                  <c:v>0.14627567493026164</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.16291404446716534</c:v>
+                  <c:v>0.1483112236500668</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.15984324926478269</c:v>
+                  <c:v>0.14527111913309174</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.16486006833598396</c:v>
+                  <c:v>0.15020119697036047</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.15231408759969081</c:v>
+                  <c:v>0.13780527951038529</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.15240803419840843</c:v>
+                  <c:v>0.13789022436437257</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.1347406944986872</c:v>
+                  <c:v>0.12043775539748225</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.12694723571417785</c:v>
+                  <c:v>0.11273488394136316</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.13947032117673472</c:v>
+                  <c:v>0.12507684349679182</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.14863308432582148</c:v>
+                  <c:v>0.13411607219818847</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.14951542008651014</c:v>
+                  <c:v>0.13497945768804676</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.14645750033116248</c:v>
+                  <c:v>0.13195242817165023</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.14655204928248361</c:v>
+                  <c:v>0.13203800223346879</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.13502812003862247</c:v>
+                  <c:v>0.12063685176851575</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.14692897051645162</c:v>
+                  <c:v>0.1323790277841827</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.15567669023799999</c:v>
+                  <c:v>0.141007933635238</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.17425106902807466</c:v>
+                  <c:v>0.15933858557433342</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.17276504419193248</c:v>
+                  <c:v>0.15786347650946647</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.17813218598107641</c:v>
+                  <c:v>0.16313844427746313</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.19039224801912999</c:v>
+                  <c:v>0.17523440064618215</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.18654772842059286</c:v>
+                  <c:v>0.1714307858673067</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.19565875926823229</c:v>
+                  <c:v>0.18041762860752705</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.1863206674989849</c:v>
+                  <c:v>0.1711905223487761</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.17990198778685948</c:v>
+                  <c:v>0.16482969337502035</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.1842981991375022</c:v>
+                  <c:v>0.16916171293901403</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.18398899975901975</c:v>
+                  <c:v>0.16884843384361461</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.19700166725654117</c:v>
+                  <c:v>0.18168657868383867</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.20804888457694773</c:v>
+                  <c:v>0.1925842572298149</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.22119362649101684</c:v>
+                  <c:v>0.20553587781097918</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.21891826424780314</c:v>
+                  <c:v>0.20328142133633734</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.23698660763514709</c:v>
+                  <c:v>0.22110958503018324</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.21710856602710665</c:v>
+                  <c:v>0.20147842709976235</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.18746582935003181</c:v>
+                  <c:v>0.17220830852182831</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.16465716005396483</c:v>
+                  <c:v>0.14966900388970733</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.1631813142784759</c:v>
+                  <c:v>0.14820426127272518</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.20505049041620993</c:v>
+                  <c:v>0.18952615873286138</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.24494578708179174</c:v>
+                  <c:v>0.22889905112561282</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.26296417652320514</c:v>
+                  <c:v>0.24667662605897486</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.25261570216448531</c:v>
+                  <c:v>0.23643612041748494</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.26749391472929135</c:v>
+                  <c:v>0.25111355965780197</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.30575085551977865</c:v>
+                  <c:v>0.28886723368902151</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.29605775632910725</c:v>
+                  <c:v>0.27929067774946054</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.33674569973450652</c:v>
+                  <c:v>0.31941597673867572</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.29825841230900935</c:v>
+                  <c:v>0.28141883777721727</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.29013816820200372</c:v>
+                  <c:v>0.27339517054446483</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.3022481521427301</c:v>
+                  <c:v>0.28533916297650053</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.29063117585753462</c:v>
+                  <c:v>0.27386427366735472</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.29661458194137275</c:v>
+                  <c:v>0.27974356692911312</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.28811849288807823</c:v>
+                  <c:v>0.27134928958042831</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.27069460756411717</c:v>
+                  <c:v>0.25414361716357281</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.25677400692266183</c:v>
+                  <c:v>0.24039581124644049</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.25722218806728731</c:v>
+                  <c:v>0.24082962552828657</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.29308323252451146</c:v>
+                  <c:v>0.27619678019603716</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.31833687654241266</c:v>
+                  <c:v>0.30111169492968148</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.30868920427310492</c:v>
+                  <c:v>0.29158120269549137</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.28509490664269144</c:v>
+                  <c:v>0.26828662957780552</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.28785893116832106</c:v>
+                  <c:v>0.27100576875943183</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.25278223889668566</c:v>
+                  <c:v>0.23636260995255673</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.25903480654916622</c:v>
+                  <c:v>0.24252469029162019</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.23239437805451343</c:v>
+                  <c:v>0.21622524891799849</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.25218809298498884</c:v>
+                  <c:v>0.23575077716607751</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.23871217902793648</c:v>
+                  <c:v>0.22244335998194817</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.24508442566119595</c:v>
+                  <c:v>0.22870658686724843</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.27102988251791765</c:v>
+                  <c:v>0.25430213845041083</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.28228495123610092</c:v>
+                  <c:v>0.26540038666004939</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.27384144829428697</c:v>
+                  <c:v>0.25705942633672629</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.29628456744046211</c:v>
+                  <c:v>0.27919808233269944</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.29064080359760452</c:v>
+                  <c:v>0.27360245527980498</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.27256505443286111</c:v>
+                  <c:v>0.25575670370470749</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.26683545881904164</c:v>
+                  <c:v>0.25009419613617018</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.27883829250295472</c:v>
+                  <c:v>0.26192974088646187</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.26733001980615212</c:v>
+                  <c:v>0.25056503524558288</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.30175967844028034</c:v>
+                  <c:v>0.28451275891079197</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.2735336348759968</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.28040701942568441</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.27247161917612545</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.25657058729823756</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.26086968150086698</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.26166915103264526</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.27156423922531697</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.28296955073390495</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.30005069856324923</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.2808380103803364</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.28162999784161646</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.27409896970365399</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.27413576652513499</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.27379435943324948</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.27239289807839739</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.2550560143721694</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.25811799764080512</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.25627094150497193</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.23329127466825328</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.24549798113633761</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.25835854025625227</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.26518205748253693</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.25316293798523853</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.25621724211043212</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.25596044354381475</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.24207806879480248</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.24625932100256617</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.25006217163032257</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.26175828335990281</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.25548492121906841</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.24876385435604287</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.2566895294471363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5330,13 +6098,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$179</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$211</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="178"/>
+                      <c:ptCount val="210"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -5870,6 +6638,102 @@
                       </c:pt>
                       <c:pt idx="177">
                         <c:v>45810</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>45811</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>45812</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>45813</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>45814</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>45817</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>45818</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>45819</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>45820</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>45821</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>45824</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>45825</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>45826</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>45827</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>45828</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>45831</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>45832</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>45833</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>45834</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>45835</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>45838</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>45839</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>45840</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>45841</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>45842</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>45845</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>45846</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>45847</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>45848</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>45849</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>45852</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>45853</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>45854</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5879,13 +6743,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$B$2:$B$179</c15:sqref>
+                          <c15:sqref>指数合理性判断!$B$2:$B$211</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_ </c:formatCode>
-                      <c:ptCount val="178"/>
+                      <c:ptCount val="210"/>
                       <c:pt idx="0">
                         <c:v>2626</c:v>
                       </c:pt>
@@ -6419,6 +7283,102 @@
                       </c:pt>
                       <c:pt idx="177">
                         <c:v>3381</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>3353</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>3372</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>3352</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>3311</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>3325</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>3328</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>3355</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>3386</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>3432</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>3384</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>3387</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>3368</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>3369</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>3369</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>3368</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>3323</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>3332</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>3328</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>3268</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>3303</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>3338</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>3357</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>3326</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>3335</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>3337</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>3301</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>3313</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>3324</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>3356</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>3342</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>3325</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>3347</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6469,13 +7429,13 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$A$2:$A$179</c15:sqref>
+                          <c15:sqref>指数合理性判断!$A$2:$A$211</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
-                      <c:ptCount val="178"/>
+                      <c:ptCount val="210"/>
                       <c:pt idx="0">
                         <c:v>45558</c:v>
                       </c:pt>
@@ -7009,6 +7969,102 @@
                       </c:pt>
                       <c:pt idx="177">
                         <c:v>45810</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>45811</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>45812</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>45813</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>45814</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>45817</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>45818</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>45819</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>45820</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>45821</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>45824</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>45825</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>45826</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>45827</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>45828</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>45831</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>45832</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>45833</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>45834</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>45835</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>45838</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>45839</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>45840</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>45841</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>45842</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>45845</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>45846</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>45847</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>45848</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>45849</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>45852</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>45853</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>45854</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7018,546 +8074,642 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>指数合理性判断!$C$2:$C$179</c15:sqref>
+                          <c15:sqref>指数合理性判断!$C$2:$C$211</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                      <c:ptCount val="178"/>
+                      <c:ptCount val="210"/>
                       <c:pt idx="0">
-                        <c:v>2431.8522962296711</c:v>
+                        <c:v>2460.2405451453997</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2432.4873757943574</c:v>
+                        <c:v>2460.8999479474501</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2433.1226212104211</c:v>
+                        <c:v>2461.5595274850907</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2433.7580325211711</c:v>
+                        <c:v>2462.2192838056826</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2434.393609769942</c:v>
+                        <c:v>2462.8792169566213</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2436.3013375777273</c:v>
+                        <c:v>2464.8600778654609</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2436.9375790120089</c:v>
+                        <c:v>2465.5207188118156</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2437.5739866010867</c:v>
+                        <c:v>2466.1815368256139</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2438.2105603883601</c:v>
+                        <c:v>2466.8425319543035</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2438.8473004172324</c:v>
+                        <c:v>2467.50370424537</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2440.758518387599</c:v>
+                        <c:v>2469.4882845676543</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>2441.3959238171051</c:v>
+                        <c:v>2470.1501659831561</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>2442.0334957053806</c:v>
+                        <c:v>2470.8122247985625</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>2442.6712340959093</c:v>
+                        <c:v>2471.4744610614339</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>2443.3091390321656</c:v>
+                        <c:v>2472.1368748193222</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>2445.2238535503279</c:v>
+                        <c:v>2474.1251815389192</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>2445.862425104563</c:v>
+                        <c:v>2474.7883057527524</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>2446.5011634221146</c:v>
+                        <c:v>2475.4516076995983</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>2447.140068546521</c:v>
+                        <c:v>2476.1150874270943</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>2447.7791405213561</c:v>
+                        <c:v>2476.7787449828843</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>2449.6973579841974</c:v>
+                        <c:v>2478.7707850967495</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>2450.3370977965756</c:v>
+                        <c:v>2479.4351544424903</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>2450.9770046773624</c:v>
+                        <c:v>2480.0997018549688</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2451.6170786701741</c:v>
+                        <c:v>2480.7644273819114</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>2452.2573198186651</c:v>
+                        <c:v>2481.4293310710527</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>2454.1790466347757</c:v>
+                        <c:v>2483.4251115892871</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>2454.8199568426057</c:v>
+                        <c:v>2484.0907284048844</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>2455.4610344244934</c:v>
+                        <c:v>2484.7565236215755</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>2456.1022794241485</c:v>
+                        <c:v>2485.4224972871762</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>2456.7436918852791</c:v>
+                        <c:v>2486.0886494495021</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>2458.6689344749784</c:v>
+                        <c:v>2488.0881773953706</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>2459.3110172194879</c:v>
+                        <c:v>2488.7550440231726</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>2459.9532676442627</c:v>
+                        <c:v>2489.422089387047</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>2460.5956857930851</c:v>
+                        <c:v>2490.0893135348915</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>2461.2382717097694</c:v>
+                        <c:v>2490.756716514637</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>2463.1670365051104</c:v>
+                        <c:v>2492.7599989245923</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>2463.8102939314422</c:v>
+                        <c:v>2493.4281177113398</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>2464.4537193448014</c:v>
+                        <c:v>2494.0964155697684</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>2465.0973127890647</c:v>
+                        <c:v>2494.7648925478647</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>2465.741074308115</c:v>
+                        <c:v>2495.4335486936511</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>2467.6733677529246</c:v>
+                        <c:v>2497.4405926173481</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>2468.3178020101454</c:v>
+                        <c:v>2498.1099659141978</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>2468.9624045617184</c:v>
+                        <c:v>2498.7795186189587</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>2469.6071754516061</c:v>
+                        <c:v>2499.4492507797158</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>2470.2521147237621</c:v>
+                        <c:v>2500.1191624445769</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>2472.1879432736673</c:v>
+                        <c:v>2502.1299749449299</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>2472.8335565147636</c:v>
+                        <c:v>2502.8006051074308</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>2473.4793383581177</c:v>
+                        <c:v>2503.4714150147215</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>2474.1252888477507</c:v>
+                        <c:v>2504.1424047149649</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>2474.7714080277051</c:v>
+                        <c:v>2504.8135742563622</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>2476.7107781501286</c:v>
+                        <c:v>2506.8281624095298</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>2477.3575725320411</c:v>
+                        <c:v>2507.5000517976728</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>2478.0045358246662</c:v>
+                        <c:v>2508.1721212681077</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>2478.651668072102</c:v>
+                        <c:v>2508.844370869087</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>2479.2989693184845</c:v>
+                        <c:v>2509.5168006488998</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>2481.2418874926861</c:v>
+                        <c:v>2511.5351715443367</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>2481.8898651762952</c:v>
+                        <c:v>2512.2083225225379</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>2482.5380120796285</c:v>
+                        <c:v>2512.881653921158</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>2483.1863282468908</c:v>
+                        <c:v>2513.5551657885676</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>2483.8348137222724</c:v>
+                        <c:v>2514.2288581731186</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>2485.7812864393654</c:v>
+                        <c:v>2516.2510189135814</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>2486.4304495895017</c:v>
+                        <c:v>2516.9254338506971</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>2487.079782268956</c:v>
+                        <c:v>2517.600029547003</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>2487.7292845219922</c:v>
+                        <c:v>2518.2748060509512</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2488.3789563929081</c:v>
+                        <c:v>2518.9497634110107</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>2490.3289901558819</c:v>
+                        <c:v>2520.975721112598</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>2490.9793409413492</c:v>
+                        <c:v>2521.6514023819282</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>2492.2805520750294</c:v>
+                        <c:v>2523.0033082649365</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>2492.9314125119699</c:v>
+                        <c:v>2523.6795329757101</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>2494.8850138357056</c:v>
+                        <c:v>2525.7092947678761</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>2495.5365544292672</c:v>
+                        <c:v>2526.3862447471911</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>2496.8401461113654</c:v>
+                        <c:v>2527.7406890703828</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>2497.4921972887873</c:v>
+                        <c:v>2528.4181835115378</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>2499.4493727001027</c:v>
+                        <c:v>2530.4517565371393</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>2500.1021052784836</c:v>
+                        <c:v>2531.1299776086539</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>2500.7550083183451</c:v>
+                        <c:v>2531.8083804595067</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>2501.4080818641901</c:v>
+                        <c:v>2532.4869651384001</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>2502.0613259605461</c:v>
+                        <c:v>2533.1657316940828</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>2504.0220819981741</c:v>
+                        <c:v>2535.2031231093688</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>2504.6760087421076</c:v>
+                        <c:v>2535.8826176597918</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>2505.3301062593741</c:v>
+                        <c:v>2536.5622943308699</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>2505.9843745945586</c:v>
+                        <c:v>2537.242153171404</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>2506.6388137922822</c:v>
+                        <c:v>2537.9221942302311</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>2508.6031570069349</c:v>
+                        <c:v>2539.9634112049021</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>2509.2582801011267</c:v>
+                        <c:v>2540.6441816254082</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>2509.9135742810699</c:v>
+                        <c:v>2541.3251345085241</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>2510.569039591458</c:v>
+                        <c:v>2542.0062699031682</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>2511.2246760769672</c:v>
+                        <c:v>2542.6875878582446</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>2513.1926130313377</c:v>
+                        <c:v>2544.7326375754583</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>2513.8489346644892</c:v>
+                        <c:v>2545.4146862617172</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>2514.5054276964015</c:v>
+                        <c:v>2546.0969177531915</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>2515.1620921718345</c:v>
+                        <c:v>2546.7793320988912</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>2515.8189281355471</c:v>
+                        <c:v>2547.4619293478077</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>2517.7904654043336</c:v>
+                        <c:v>2549.5108190042147</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>2518.447987769166</c:v>
+                        <c:v>2550.1941483563937</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>2519.1056818463258</c:v>
+                        <c:v>2550.8776608570379</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>2519.7635476806513</c:v>
+                        <c:v>2551.5613565552435</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>2520.4215853170099</c:v>
+                        <c:v>2552.2452355001078</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>2522.3967294869353</c:v>
+                        <c:v>2554.2979723058575</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>2523.0554547801707</c:v>
+                        <c:v>2554.982584728637</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>2523.7143520998698</c:v>
+                        <c:v>2555.6673806437689</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>2524.3734214909709</c:v>
+                        <c:v>2556.352360100449</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>2525.0326629984065</c:v>
+                        <c:v>2557.0375231478606</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>2527.0114206682574</c:v>
+                        <c:v>2559.0941143266591</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>2527.6713510906334</c:v>
+                        <c:v>2559.7800122292238</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>2528.3314538541927</c:v>
+                        <c:v>2560.4660939686805</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>2528.9917290039562</c:v>
+                        <c:v>2561.1523595943117</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>2529.6521765849343</c:v>
+                        <c:v>2561.838809155407</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>2531.6345543655561</c:v>
+                        <c:v>2563.8992619445107</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>2532.2956921218351</c:v>
+                        <c:v>2564.5864477405653</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>2532.9570025346075</c:v>
+                        <c:v>2565.2738177187157</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>2533.6184856489485</c:v>
+                        <c:v>2565.9613719283102</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>2534.2801415099734</c:v>
+                        <c:v>2566.6491104187403</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>2536.2661460243103</c:v>
+                        <c:v>2568.7134320689988</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>2536.9284933232989</c:v>
+                        <c:v>2569.4019081767974</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>2537.5910135946438</c:v>
+                        <c:v>2570.0905688125222</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>2538.2537068835309</c:v>
+                        <c:v>2570.7794140256265</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>2538.9165732351307</c:v>
+                        <c:v>2571.4684438655818</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>2540.9062111182443</c:v>
+                        <c:v>2573.5366416414558</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>2541.569770172779</c:v>
+                        <c:v>2574.2264104837896</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>2542.2335025161306</c:v>
+                        <c:v>2574.9163642005242</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>2542.897408193553</c:v>
+                        <c:v>2575.606502841224</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>2543.5614872503038</c:v>
+                        <c:v>2576.2968264554388</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>2545.554765149393</c:v>
+                        <c:v>2578.3689076350379</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>2546.21953817637</c:v>
+                        <c:v>2579.0599716392385</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>2546.8844848091931</c:v>
+                        <c:v>2579.7512208649737</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>2547.5496050931911</c:v>
+                        <c:v>2580.4426553618964</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>2548.2148990737251</c:v>
+                        <c:v>2581.1342751796637</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>2550.2118236481465</c:v>
+                        <c:v>2583.2102470547543</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>2550.8778128685212</c:v>
+                        <c:v>2583.9026086527192</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>2551.5439760123377</c:v>
+                        <c:v>2584.5951558199999</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>2552.2103131250301</c:v>
+                        <c:v>2585.2878886063477</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>2552.8768242520255</c:v>
+                        <c:v>2585.9808070615031</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>2554.8774021733325</c:v>
+                        <c:v>2588.0606769375613</c:v>
                       </c:pt>
                       <c:pt idx="134">
-                        <c:v>2555.5446098121047</c:v>
+                        <c:v>2588.7543385657455</c:v>
                       </c:pt>
                       <c:pt idx="135">
-                        <c:v>2556.2119916925094</c:v>
+                        <c:v>2589.4481861116847</c:v>
                       </c:pt>
                       <c:pt idx="136">
-                        <c:v>2556.8795478600646</c:v>
+                        <c:v>2590.1422196252229</c:v>
                       </c:pt>
                       <c:pt idx="137">
-                        <c:v>2557.5472783602745</c:v>
+                        <c:v>2590.836439156195</c:v>
                       </c:pt>
                       <c:pt idx="138">
-                        <c:v>2559.5515163122118</c:v>
+                        <c:v>2592.9202143523912</c:v>
                       </c:pt>
                       <c:pt idx="139">
-                        <c:v>2560.219944598457</c:v>
+                        <c:v>2593.6151784518206</c:v>
                       </c:pt>
                       <c:pt idx="140">
-                        <c:v>2560.8885474451222</c:v>
+                        <c:v>2594.310328818116</c:v>
                       </c:pt>
                       <c:pt idx="141">
-                        <c:v>2561.5573248977835</c:v>
+                        <c:v>2595.0056655011886</c:v>
                       </c:pt>
                       <c:pt idx="142">
-                        <c:v>2562.2262770020407</c:v>
+                        <c:v>2595.7011885509746</c:v>
                       </c:pt>
                       <c:pt idx="143">
-                        <c:v>2564.2341816805847</c:v>
+                        <c:v>2597.7888764002319</c:v>
                       </c:pt>
                       <c:pt idx="144">
-                        <c:v>2564.9038328474671</c:v>
+                        <c:v>2598.4851454165332</c:v>
                       </c:pt>
                       <c:pt idx="145">
-                        <c:v>2565.5736588941154</c:v>
+                        <c:v>2599.1816010494449</c:v>
                       </c:pt>
                       <c:pt idx="146">
-                        <c:v>2566.2436598662125</c:v>
+                        <c:v>2599.8782433489851</c:v>
                       </c:pt>
                       <c:pt idx="147">
-                        <c:v>2568.9254139228074</c:v>
+                        <c:v>2602.6666802141808</c:v>
                       </c:pt>
                       <c:pt idx="148">
-                        <c:v>2569.5962902075698</c:v>
+                        <c:v>2603.3642565975642</c:v>
                       </c:pt>
                       <c:pt idx="149">
-                        <c:v>2570.2673416920384</c:v>
+                        <c:v>2604.0620199479631</c:v>
                       </c:pt>
                       <c:pt idx="150">
-                        <c:v>2570.9385684219806</c:v>
+                        <c:v>2604.7599703154851</c:v>
                       </c:pt>
                       <c:pt idx="151">
-                        <c:v>2571.6099704431481</c:v>
+                        <c:v>2605.4581077502557</c:v>
                       </c:pt>
                       <c:pt idx="152">
-                        <c:v>2573.6252287118614</c:v>
+                        <c:v>2607.5536429595049</c:v>
                       </c:pt>
                       <c:pt idx="153">
-                        <c:v>2574.2973323558363</c:v>
+                        <c:v>2608.2525291647812</c:v>
                       </c:pt>
                       <c:pt idx="154">
-                        <c:v>2574.9696115200522</c:v>
+                        <c:v>2608.9516026881365</c:v>
                       </c:pt>
                       <c:pt idx="155">
-                        <c:v>2575.6420662503369</c:v>
+                        <c:v>2609.6508635797677</c:v>
                       </c:pt>
                       <c:pt idx="156">
-                        <c:v>2576.3146965925539</c:v>
+                        <c:v>2610.3503118899075</c:v>
                       </c:pt>
                       <c:pt idx="157">
-                        <c:v>2578.3336417493924</c:v>
+                        <c:v>2612.449781833694</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>2579.0069749980307</c:v>
+                        <c:v>2613.1499803202928</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>2579.6804840880131</c:v>
+                        <c:v>2613.850366476679</c:v>
                       </c:pt>
                       <c:pt idx="160">
-                        <c:v>2580.3541690652601</c:v>
+                        <c:v>2614.5509403531669</c:v>
                       </c:pt>
                       <c:pt idx="161">
-                        <c:v>2581.0280299757137</c:v>
+                        <c:v>2615.251702000061</c:v>
                       </c:pt>
                       <c:pt idx="162">
-                        <c:v>2583.0506687657999</c:v>
+                        <c:v>2617.3551140665568</c:v>
                       </c:pt>
                       <c:pt idx="163">
-                        <c:v>2583.725233868638</c:v>
+                        <c:v>2618.0566272985061</c:v>
                       </c:pt>
                       <c:pt idx="164">
-                        <c:v>2584.3999751345145</c:v>
+                        <c:v>2618.7583285526266</c:v>
                       </c:pt>
                       <c:pt idx="165">
-                        <c:v>2585.0748926094484</c:v>
+                        <c:v>2619.4602178793261</c:v>
                       </c:pt>
                       <c:pt idx="166">
-                        <c:v>2585.7499863394523</c:v>
+                        <c:v>2620.162295329003</c:v>
                       </c:pt>
                       <c:pt idx="167">
-                        <c:v>2587.7763255202335</c:v>
+                        <c:v>2622.2696569202249</c:v>
                       </c:pt>
                       <c:pt idx="168">
-                        <c:v>2588.4521247309235</c:v>
+                        <c:v>2622.9724873661858</c:v>
                       </c:pt>
                       <c:pt idx="169">
-                        <c:v>2589.1281004269576</c:v>
+                        <c:v>2623.675506187371</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>2589.8042526544123</c:v>
+                        <c:v>2624.3787134342706</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>2590.4805814593883</c:v>
+                        <c:v>2625.0821091573812</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>2592.5106278006801</c:v>
+                        <c:v>2627.1934276892534</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>2593.1876633770189</c:v>
+                        <c:v>2627.8975778225258</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>2593.8648757615661</c:v>
+                        <c:v>2628.601916684735</c:v>
                       </c:pt>
                       <c:pt idx="175">
-                        <c:v>2594.5422650005094</c:v>
+                        <c:v>2629.3064443264648</c:v>
                       </c:pt>
                       <c:pt idx="176">
-                        <c:v>2595.2198311400198</c:v>
+                        <c:v>2630.0111607982981</c:v>
                       </c:pt>
                       <c:pt idx="177">
-                        <c:v>2597.2535914240234</c:v>
+                        <c:v>2632.1264437006707</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>2632.8319159992029</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>2633.5375773810438</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
+                        <c:v>2634.2434278968722</c:v>
+                      </c:pt>
+                      <c:pt idx="181">
+                        <c:v>2634.9494675973656</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>2637.0687223140385</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>2637.7755192604286</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>2638.4825056451632</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
+                        <c:v>2639.1896815190084</c:v>
+                      </c:pt>
+                      <c:pt idx="186">
+                        <c:v>2639.8970469327651</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>2642.0202809215066</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>2642.7284050030207</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>2643.436718878575</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
+                        <c:v>2644.1452225990388</c:v>
+                      </c:pt>
+                      <c:pt idx="191">
+                        <c:v>2644.8539162153083</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>2646.981136947908</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>2647.6905906564666</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>2648.4002345154368</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
+                        <c:v>2649.1100685757833</c:v>
+                      </c:pt>
+                      <c:pt idx="196">
+                        <c:v>2649.8200928884939</c:v>
+                      </c:pt>
+                      <c:pt idx="197">
+                        <c:v>2651.9513078507666</c:v>
+                      </c:pt>
+                      <c:pt idx="198">
+                        <c:v>2652.6620936829731</c:v>
+                      </c:pt>
+                      <c:pt idx="199">
+                        <c:v>2653.3730700226406</c:v>
+                      </c:pt>
+                      <c:pt idx="200">
+                        <c:v>2654.0842369208162</c:v>
+                      </c:pt>
+                      <c:pt idx="201">
+                        <c:v>2654.7955944285832</c:v>
+                      </c:pt>
+                      <c:pt idx="202">
+                        <c:v>2656.9308111203959</c:v>
+                      </c:pt>
+                      <c:pt idx="203">
+                        <c:v>2657.6429315775495</c:v>
+                      </c:pt>
+                      <c:pt idx="204">
+                        <c:v>2658.3552428998669</c:v>
+                      </c:pt>
+                      <c:pt idx="205">
+                        <c:v>2659.0677451385172</c:v>
+                      </c:pt>
+                      <c:pt idx="206">
+                        <c:v>2659.7804383446537</c:v>
+                      </c:pt>
+                      <c:pt idx="207">
+                        <c:v>2661.9196642799484</c:v>
+                      </c:pt>
+                      <c:pt idx="208">
+                        <c:v>2662.6331218680425</c:v>
+                      </c:pt>
+                      <c:pt idx="209">
+                        <c:v>2663.3467706796823</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7767,6 +8919,81 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>溢价指标分布</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>溢价指标分布</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{6DA541DC-BC7B-49BD-BE95-A7E928BFCDE7}" formatIdx="2">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>溢价指标</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
         <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
@@ -7806,85 +9033,10 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{6DA541DC-BC7B-49BD-BE95-A7E928BFCDE7}" formatIdx="2">
+        <cx:series layoutId="clusteredColumn" uniqueId="{32260C36-9DC4-4BE1-8BD3-0BEBFD29B4A0}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>溢价指标</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataLabels pos="outEnd">
-            <cx:visibility seriesName="0" categoryName="0" value="1"/>
-            <cx:separator>, </cx:separator>
-          </cx:dataLabels>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
-      </cx:strDim>
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>溢价指标分布</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-              <a:ea typeface="等线" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-            </a:rPr>
-            <a:t>溢价指标分布</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{32260C36-9DC4-4BE1-8BD3-0BEBFD29B4A0}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>溢价指标</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10100,14 +11252,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>338139</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10138,14 +11290,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1119190</xdr:colOff>
-      <xdr:row>178</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -10181,7 +11333,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6229350" y="47872650"/>
+              <a:off x="6229350" y="57521475"/>
               <a:ext cx="9653590" cy="4895851"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -10216,8 +11368,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2657952A-74FC-4840-B511-AF94BC5FCD21}" name="表1" displayName="表1" ref="A1:B121" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:B121" xr:uid="{2657952A-74FC-4840-B511-AF94BC5FCD21}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2657952A-74FC-4840-B511-AF94BC5FCD21}" name="表1" displayName="表1" ref="A1:B122" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:B122" xr:uid="{2657952A-74FC-4840-B511-AF94BC5FCD21}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{61A06AD0-046F-400B-8A75-14414F0DFA35}" name="日期" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{E9880DE1-ED24-407F-8143-BB720CCB1AB3}" name="收盘价" dataDxfId="9"/>
@@ -10227,18 +11379,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D180" totalsRowCount="1" dataDxfId="8">
-  <autoFilter ref="A1:D179" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}" name="表2" displayName="表2" ref="A1:D212" totalsRowCount="1" dataDxfId="8">
+  <autoFilter ref="A1:D211" xr:uid="{E971374F-7BA7-406A-BC68-3027384D0DA6}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{68630099-6638-42CC-B9D5-6F6E9DAC0B35}" name="日期" totalsRowLabel="溢价指标平均值" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{80696C35-1F52-4B82-852D-181FBCAFB518}" name="收盘值" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
       <totalsRowFormula>表2[[#Totals],[溢价指标]] -7%</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D0A16EFB-8A6B-4FCA-BEEB-6BED8414B294}" name="预测值" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="3" xr3:uid="{D0A16EFB-8A6B-4FCA-BEEB-6BED8414B294}" name="预测值" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
       <calculatedColumnFormula>Var_1 * EXP((A2 * 0.0001) * Var_2)</calculatedColumnFormula>
       <totalsRowFormula>表2[[#Totals],[溢价指标]] +7%</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{45F9AFE1-71D5-4546-9F88-08F5D5B7D0AE}" name="溢价指标" totalsRowFunction="average" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{45F9AFE1-71D5-4546-9F88-08F5D5B7D0AE}" name="溢价指标" totalsRowFunction="average" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>(B2-C2)/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10510,11 +11662,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A457494-146D-41E0-B859-6D5E2DC1B589}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.875" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11494,7 +12646,12 @@
       </c>
     </row>
     <row r="122" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122"/>
+      <c r="A122" s="9">
+        <v>45838</v>
+      </c>
+      <c r="B122" s="4">
+        <v>3303</v>
+      </c>
     </row>
     <row r="123" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123"/>
@@ -11510,6 +12667,9 @@
     </row>
     <row r="127" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127"/>
+    </row>
+    <row r="128" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11523,11 +12683,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M516"/>
+  <dimension ref="A1:M548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E180" sqref="E180"/>
+      <pane ySplit="3" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F190" sqref="F190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11563,11 +12723,11 @@
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C10" si="0">Var_1 * EXP((A2 * 0.0001) * Var_2)</f>
-        <v>2431.8522962296711</v>
+        <v>2460.2405451453997</v>
       </c>
       <c r="D2" s="7">
         <f t="shared" ref="D2:D10" si="1">(B2-C2)/C2</f>
-        <v>7.9835318975307143E-2</v>
+        <v>6.7375304086293719E-2</v>
       </c>
       <c r="E2"/>
       <c r="G2" s="7"/>
@@ -11581,11 +12741,11 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>2432.4873757943574</v>
+        <v>2460.8999479474501</v>
       </c>
       <c r="D3" s="7">
         <f t="shared" si="1"/>
-        <v>9.2708651419824456E-2</v>
+        <v>8.0092671876783997E-2</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -11599,11 +12759,11 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>2433.1226212104211</v>
+        <v>2461.5595274850907</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="1"/>
-        <v>9.1601375469807858E-2</v>
+        <v>7.8990765952982614E-2</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -11617,11 +12777,11 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>2433.7580325211711</v>
+        <v>2462.2192838056826</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>9.7890572643341209E-2</v>
+        <v>8.5199851034418753E-2</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -11634,11 +12794,11 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>2434.393609769942</v>
+        <v>2462.8792169566213</v>
       </c>
       <c r="D6" s="7">
         <f t="shared" si="1"/>
-        <v>9.185301396317315E-2</v>
+        <v>7.922466587074023E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11650,11 +12810,11 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>2436.3013375777273</v>
+        <v>2464.8600778654609</v>
       </c>
       <c r="D7" s="7">
         <f t="shared" si="1"/>
-        <v>8.1557506601308699E-2</v>
+        <v>6.9026198956444712E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11666,11 +12826,11 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>2436.9375790120089</v>
+        <v>2465.5207188118156</v>
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>9.1533908340165948E-2</v>
+        <v>7.8879597200021856E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11682,11 +12842,11 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>2437.5739866010867</v>
+        <v>2466.1815368256139</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" si="1"/>
-        <v>9.1248928082408878E-2</v>
+        <v>7.859050936852878E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11698,11 +12858,11 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>2438.2105603883601</v>
+        <v>2466.8425319543035</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="1"/>
-        <v>8.891333797566256E-2</v>
+        <v>7.6274616481755236E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11714,11 +12874,11 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" ref="C11:C16" si="2">Var_1 * EXP((A11 * 0.0001) * Var_2)</f>
-        <v>2438.8473004172324</v>
+        <v>2467.50370424537</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" ref="D11:D16" si="3">(B11-C11)/C11</f>
-        <v>8.7398952589734458E-2</v>
+        <v>7.4770423013834519E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11730,11 +12890,11 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="2"/>
-        <v>2440.758518387599</v>
+        <v>2469.4882845676543</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="3"/>
-        <v>8.2450385851912986E-2</v>
+        <v>6.9857272257741521E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11746,11 +12906,11 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="2"/>
-        <v>2441.3959238171051</v>
+        <v>2470.1501659831561</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="3"/>
-        <v>7.356614076019477E-2</v>
+        <v>6.1069094540980466E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11762,11 +12922,11 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="2"/>
-        <v>2442.0334957053806</v>
+        <v>2470.8122247985625</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="3"/>
-        <v>6.796241926512972E-2</v>
+        <v>5.5523351319269908E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11778,11 +12938,11 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="2"/>
-        <v>2442.6712340959093</v>
+        <v>2471.4744610614339</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="3"/>
-        <v>7.7918290127380108E-2</v>
+        <v>6.5355940950810029E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11794,11 +12954,11 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="2"/>
-        <v>2443.3091390321656</v>
+        <v>2472.1368748193222</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="3"/>
-        <v>8.7459608591518967E-2</v>
+        <v>7.4778677128946855E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11810,11 +12970,11 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" ref="C17:C23" si="4">Var_1 * EXP((A17 * 0.0001) * Var_2)</f>
-        <v>2445.2238535503279</v>
+        <v>2474.1251815389192</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ref="D17:D23" si="5">(B17-C17)/C17</f>
-        <v>8.3336397260234688E-2</v>
+        <v>7.0681475523525356E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11826,11 +12986,11 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="4"/>
-        <v>2445.862425104563</v>
+        <v>2474.7883057527524</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="5"/>
-        <v>8.7550948367949341E-2</v>
+        <v>7.4839409018021857E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11842,11 +13002,11 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="4"/>
-        <v>2446.5011634221146</v>
+        <v>2475.4516076995983</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" si="5"/>
-        <v>9.2989465927604473E-2</v>
+        <v>8.0206937466618416E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11858,11 +13018,11 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="4"/>
-        <v>2447.140068546521</v>
+        <v>2476.1150874270943</v>
       </c>
       <c r="D20" s="7">
         <f t="shared" si="5"/>
-        <v>0.10046827094760764</v>
+        <v>8.7590804512349463E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11874,11 +13034,11 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="4"/>
-        <v>2447.7791405213561</v>
+        <v>2476.7787449828843</v>
       </c>
       <c r="D21" s="7">
         <f t="shared" si="5"/>
-        <v>0.11161989860753947</v>
+        <v>9.8604389072631277E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11890,11 +13050,11 @@
       </c>
       <c r="C22" s="5">
         <f t="shared" si="4"/>
-        <v>2449.6973579841974</v>
+        <v>2478.7707850967495</v>
       </c>
       <c r="D22" s="7">
         <f t="shared" si="5"/>
-        <v>0.11074945283814634</v>
+        <v>9.7721506304503269E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11906,11 +13066,11 @@
       </c>
       <c r="C23" s="5">
         <f t="shared" si="4"/>
-        <v>2450.3370977965756</v>
+        <v>2479.4351544424903</v>
       </c>
       <c r="D23" s="7">
         <f t="shared" si="5"/>
-        <v>0.12066213357716958</v>
+        <v>0.10751031140294036</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11922,11 +13082,11 @@
       </c>
       <c r="C24" s="5">
         <f t="shared" ref="C24:C29" si="6">Var_1 * EXP((A24 * 0.0001) * Var_2)</f>
-        <v>2450.9770046773624</v>
+        <v>2480.0997018549688</v>
       </c>
       <c r="D24" s="7">
         <f t="shared" ref="D24:D29" si="7">(B24-C24)/C24</f>
-        <v>0.11016953435602814</v>
+        <v>9.7133312005502029E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11938,11 +13098,11 @@
       </c>
       <c r="C25" s="5">
         <f t="shared" si="6"/>
-        <v>2451.6170786701741</v>
+        <v>2480.7644273819114</v>
       </c>
       <c r="D25" s="7">
         <f t="shared" si="7"/>
-        <v>0.1147744171705868</v>
+        <v>0.1016765517249402</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11954,11 +13114,11 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="6"/>
-        <v>2452.2573198186651</v>
+        <v>2481.4293310710527</v>
       </c>
       <c r="D26" s="7">
         <f t="shared" si="7"/>
-        <v>0.12019239490051964</v>
+        <v>0.10702326502053544</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11970,11 +13130,11 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="6"/>
-        <v>2454.1790466347757</v>
+        <v>2483.4251115892871</v>
       </c>
       <c r="D27" s="7">
         <f t="shared" si="7"/>
-        <v>0.11809283180158889</v>
+        <v>0.10492560745830422</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11986,11 +13146,11 @@
       </c>
       <c r="C28" s="5">
         <f t="shared" si="6"/>
-        <v>2454.8199568426057</v>
+        <v>2484.0907284048844</v>
       </c>
       <c r="D28" s="7">
         <f t="shared" si="7"/>
-        <v>0.13042913483936738</v>
+        <v>0.11710895591237841</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12002,11 +13162,11 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="6"/>
-        <v>2455.4610344244934</v>
+        <v>2484.7565236215755</v>
       </c>
       <c r="D29" s="7">
         <f t="shared" si="7"/>
-        <v>0.134206554677722</v>
+        <v>0.12083416363902505</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12018,11 +13178,11 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" ref="C30:C35" si="8">Var_1 * EXP((A30 * 0.0001) * Var_2)</f>
-        <v>2456.1022794241485</v>
+        <v>2485.4224972871762</v>
       </c>
       <c r="D30" s="7">
         <f t="shared" ref="D30:D35" si="9">(B30-C30)/C30</f>
-        <v>0.11803161578589479</v>
+        <v>0.10484233686515779</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12034,11 +13194,11 @@
       </c>
       <c r="C31" s="5">
         <f t="shared" si="8"/>
-        <v>2456.7436918852791</v>
+        <v>2486.0886494495021</v>
       </c>
       <c r="D31" s="7">
         <f t="shared" si="9"/>
-        <v>0.11366928875694908</v>
+        <v>0.10052390955802647</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12050,11 +13210,11 @@
       </c>
       <c r="C32" s="5">
         <f t="shared" si="8"/>
-        <v>2458.6689344749784</v>
+        <v>2488.0881773953706</v>
       </c>
       <c r="D32" s="7">
         <f t="shared" si="9"/>
-        <v>0.11279723822770087</v>
+        <v>9.963948418586728E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12066,11 +13226,11 @@
       </c>
       <c r="C33" s="5">
         <f t="shared" si="8"/>
-        <v>2459.3110172194879</v>
+        <v>2488.7550440231726</v>
       </c>
       <c r="D33" s="7">
         <f t="shared" si="9"/>
-        <v>0.11616626802392559</v>
+        <v>0.10296109960367862</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12082,11 +13242,11 @@
       </c>
       <c r="C34" s="5">
         <f t="shared" si="8"/>
-        <v>2459.9532676442627</v>
+        <v>2489.422089387047</v>
       </c>
       <c r="D34" s="7">
         <f t="shared" si="9"/>
-        <v>8.2947401903752244E-2</v>
+        <v>7.012788685262214E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12098,11 +13258,11 @@
       </c>
       <c r="C35" s="5">
         <f t="shared" si="8"/>
-        <v>2460.5956857930851</v>
+        <v>2490.0893135348915</v>
       </c>
       <c r="D35" s="7">
         <f t="shared" si="9"/>
-        <v>9.9733700917961909E-2</v>
+        <v>8.6708008942299769E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12114,11 +13274,11 @@
       </c>
       <c r="C36" s="5">
         <f t="shared" ref="C36:C41" si="10">Var_1 * EXP((A36 * 0.0001) * Var_2)</f>
-        <v>2461.2382717097694</v>
+        <v>2490.756716514637</v>
       </c>
       <c r="D36" s="7">
         <f t="shared" ref="D36:D42" si="11">(B36-C36)/C36</f>
-        <v>9.0507989758944724E-2</v>
+        <v>7.7584166371644669E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12130,11 +13290,11 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="10"/>
-        <v>2463.1670365051104</v>
+        <v>2492.7599989245923</v>
       </c>
       <c r="D37" s="7">
         <f t="shared" si="11"/>
-        <v>6.5295191560816368E-2</v>
+        <v>5.2648470423155964E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12146,11 +13306,11 @@
       </c>
       <c r="C38" s="5">
         <f t="shared" si="10"/>
-        <v>2463.8102939314422</v>
+        <v>2493.4281177113398</v>
       </c>
       <c r="D38" s="7">
         <f t="shared" si="11"/>
-        <v>5.4464301248792403E-2</v>
+        <v>4.1939000184470637E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12162,11 +13322,11 @@
       </c>
       <c r="C39" s="5">
         <f t="shared" si="10"/>
-        <v>2464.4537193448014</v>
+        <v>2494.0964155697684</v>
       </c>
       <c r="D39" s="7">
         <f t="shared" si="11"/>
-        <v>4.2827454955518145E-2</v>
+        <v>3.0433299994495872E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12178,11 +13338,11 @@
       </c>
       <c r="C40" s="5">
         <f t="shared" si="10"/>
-        <v>2465.0973127890647</v>
+        <v>2494.7648925478647</v>
       </c>
       <c r="D40" s="7">
         <f t="shared" si="11"/>
-        <v>4.093253710003511E-2</v>
+        <v>2.8553835940581935E-2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12194,11 +13354,11 @@
       </c>
       <c r="C41" s="5">
         <f t="shared" si="10"/>
-        <v>2465.741074308115</v>
+        <v>2495.4335486936511</v>
       </c>
       <c r="D41" s="7">
         <f t="shared" si="11"/>
-        <v>3.9038537620538757E-2</v>
+        <v>2.6675305115295953E-2</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12210,11 +13370,11 @@
       </c>
       <c r="C42" s="5">
         <f t="shared" ref="C42:C52" si="12">Var_1 * EXP((A42 * 0.0001) * Var_2)</f>
-        <v>2467.6733677529246</v>
+        <v>2497.4405926173481</v>
       </c>
       <c r="D42" s="7">
         <f t="shared" si="11"/>
-        <v>5.84869270516543E-2</v>
+        <v>4.5870723700615533E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12226,11 +13386,11 @@
       </c>
       <c r="C43" s="5">
         <f t="shared" si="12"/>
-        <v>2468.3178020101454</v>
+        <v>2498.1099659141978</v>
       </c>
       <c r="D43" s="7">
         <f t="shared" ref="D43:D52" si="13">(B43-C43)/C43</f>
-        <v>6.7528661768801457E-2</v>
+        <v>5.4797441247029531E-2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12242,11 +13402,11 @@
       </c>
       <c r="C44" s="5">
         <f t="shared" si="12"/>
-        <v>2468.9624045617184</v>
+        <v>2498.7795186189587</v>
       </c>
       <c r="D44" s="7">
         <f t="shared" si="13"/>
-        <v>7.4135432398685655E-2</v>
+        <v>6.131812760564171E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12258,11 +13418,11 @@
       </c>
       <c r="C45" s="5">
         <f t="shared" si="12"/>
-        <v>2469.6071754516061</v>
+        <v>2499.4492507797158</v>
       </c>
       <c r="D45" s="7">
         <f t="shared" si="13"/>
-        <v>8.073868043889687E-2</v>
+        <v>6.783524377115957E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12274,11 +13434,11 @@
       </c>
       <c r="C46" s="5">
         <f t="shared" si="12"/>
-        <v>2470.2521147237621</v>
+        <v>2500.1191624445769</v>
       </c>
       <c r="D46" s="7">
         <f t="shared" si="13"/>
-        <v>9.9078099687653534E-2</v>
+        <v>8.5948238301296026E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12290,11 +13450,11 @@
       </c>
       <c r="C47" s="5">
         <f t="shared" si="12"/>
-        <v>2472.1879432736673</v>
+        <v>2502.1299749449299</v>
       </c>
       <c r="D47" s="7">
         <f t="shared" si="13"/>
-        <v>5.5744975660645839E-2</v>
+        <v>4.3111279643833933E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12306,11 +13466,11 @@
       </c>
       <c r="C48" s="5">
         <f t="shared" si="12"/>
-        <v>2472.8335565147636</v>
+        <v>2502.8006051074308</v>
       </c>
       <c r="D48" s="7">
         <f t="shared" si="13"/>
-        <v>6.4366015685086056E-2</v>
+        <v>5.1621928901932415E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12322,11 +13482,11 @@
       </c>
       <c r="C49" s="5">
         <f t="shared" si="12"/>
-        <v>2473.4793383581177</v>
+        <v>2503.4714150147215</v>
       </c>
       <c r="D49" s="7">
         <f t="shared" si="13"/>
-        <v>6.6109572498158159E-2</v>
+        <v>5.3337371533156999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12338,11 +13498,11 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="12"/>
-        <v>2474.1252888477507</v>
+        <v>2504.1424047149649</v>
       </c>
       <c r="D50" s="7">
         <f t="shared" si="13"/>
-        <v>6.623541333614881E-2</v>
+        <v>5.3454466101048884E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12354,11 +13514,11 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="12"/>
-        <v>2474.7714080277051</v>
+        <v>2504.8135742563622</v>
       </c>
       <c r="D51" s="7">
         <f t="shared" si="13"/>
-        <v>7.3634514840917722E-2</v>
+        <v>6.0757585837029567E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12370,11 +13530,11 @@
       </c>
       <c r="C52" s="5">
         <f t="shared" si="12"/>
-        <v>2476.7107781501286</v>
+        <v>2506.8281624095298</v>
       </c>
       <c r="D52" s="7">
         <f t="shared" si="13"/>
-        <v>6.6737393525346148E-2</v>
+        <v>5.3921461238310341E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12386,11 +13546,11 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" ref="C53:C61" si="14">Var_1 * EXP((A53 * 0.0001) * Var_2)</f>
-        <v>2477.3575725320411</v>
+        <v>2507.5000517976728</v>
       </c>
       <c r="D53" s="7">
         <f t="shared" ref="D53:D61" si="15">(B53-C53)/C53</f>
-        <v>6.6458887200398067E-2</v>
+        <v>5.3639060986619622E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12402,11 +13562,11 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="14"/>
-        <v>2478.0045358246662</v>
+        <v>2508.1721212681077</v>
       </c>
       <c r="D54" s="7">
         <f t="shared" si="15"/>
-        <v>6.9408857687217551E-2</v>
+        <v>5.6546310171163794E-2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12418,11 +13578,11 @@
       </c>
       <c r="C55" s="5">
         <f t="shared" si="14"/>
-        <v>2478.651668072102</v>
+        <v>2508.844370869087</v>
       </c>
       <c r="D55" s="7">
         <f t="shared" si="15"/>
-        <v>6.2271086299088695E-2</v>
+        <v>4.948717846850912E-2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12434,11 +13594,11 @@
       </c>
       <c r="C56" s="5">
         <f t="shared" si="14"/>
-        <v>2479.2989693184845</v>
+        <v>2509.5168006488998</v>
       </c>
       <c r="D56" s="7">
         <f t="shared" si="15"/>
-        <v>6.1993746048208606E-2</v>
+        <v>4.9205966391287145E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12450,11 +13610,11 @@
       </c>
       <c r="C57" s="5">
         <f t="shared" si="14"/>
-        <v>2481.2418874926861</v>
+        <v>2511.5351715443367</v>
       </c>
       <c r="D57" s="7">
         <f t="shared" si="15"/>
-        <v>7.2043807340343699E-2</v>
+        <v>5.9113179117604268E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12466,11 +13626,11 @@
       </c>
       <c r="C58" s="5">
         <f t="shared" si="14"/>
-        <v>2481.8898651762952</v>
+        <v>2512.2083225225379</v>
       </c>
       <c r="D58" s="7">
         <f t="shared" si="15"/>
-        <v>8.6268991153842359E-2</v>
+        <v>7.3159409524173047E-2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12482,11 +13642,11 @@
       </c>
       <c r="C59" s="5">
         <f t="shared" si="14"/>
-        <v>2482.5380120796285</v>
+        <v>2512.881653921158</v>
       </c>
       <c r="D59" s="7">
         <f t="shared" si="15"/>
-        <v>9.5652911159837165E-2</v>
+        <v>8.2422642449416522E-2</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12498,11 +13658,11 @@
       </c>
       <c r="C60" s="5">
         <f t="shared" si="14"/>
-        <v>2483.1863282468908</v>
+        <v>2513.5551657885676</v>
       </c>
       <c r="D60" s="7">
         <f t="shared" si="15"/>
-        <v>7.9258519392726393E-2</v>
+        <v>6.6218890469115416E-2</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12514,11 +13674,11 @@
       </c>
       <c r="C61" s="5">
         <f t="shared" si="14"/>
-        <v>2483.8348137222724</v>
+        <v>2514.2288581731186</v>
       </c>
       <c r="D61" s="7">
         <f t="shared" si="15"/>
-        <v>6.5690836353649612E-2</v>
+        <v>5.2807898292661845E-2</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12530,11 +13690,11 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" ref="C62:C69" si="16">Var_1 * EXP((A62 * 0.0001) * Var_2)</f>
-        <v>2485.7812864393654</v>
+        <v>2516.2510189135814</v>
       </c>
       <c r="D62" s="7">
         <f t="shared" ref="D62:D69" si="17">(B62-C62)/C62</f>
-        <v>6.6465507026683732E-2</v>
+        <v>5.3551485950156866E-2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12546,11 +13706,11 @@
       </c>
       <c r="C63" s="5">
         <f t="shared" si="16"/>
-        <v>2486.4304495895017</v>
+        <v>2516.9254338506971</v>
       </c>
       <c r="D63" s="7">
         <f t="shared" si="17"/>
-        <v>6.4578339779022428E-2</v>
+        <v>5.167994426847166E-2</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12562,11 +13722,11 @@
       </c>
       <c r="C64" s="5">
         <f t="shared" si="16"/>
-        <v>2487.079782268956</v>
+        <v>2517.600029547003</v>
       </c>
       <c r="D64" s="7">
         <f t="shared" si="17"/>
-        <v>4.0577796679676571E-2</v>
+        <v>2.796312743357577E-2</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12578,11 +13738,11 @@
       </c>
       <c r="C65" s="5">
         <f t="shared" si="16"/>
-        <v>2487.7292845219922</v>
+        <v>2518.2748060509512</v>
       </c>
       <c r="D65" s="7">
         <f t="shared" si="17"/>
-        <v>4.2315985156815471E-2</v>
+        <v>2.9673169016144682E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12594,11 +13754,11 @@
       </c>
       <c r="C66" s="5">
         <f t="shared" si="16"/>
-        <v>2488.3789563929081</v>
+        <v>2518.9497634110107</v>
       </c>
       <c r="D66" s="7">
         <f t="shared" si="17"/>
-        <v>5.3698028294205488E-2</v>
+        <v>4.091000070181821E-2</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12610,11 +13770,11 @@
       </c>
       <c r="C67" s="5">
         <f t="shared" si="16"/>
-        <v>2490.3289901558819</v>
+        <v>2520.975721112598</v>
       </c>
       <c r="D67" s="7">
         <f t="shared" si="17"/>
-        <v>5.0062064224018175E-2</v>
+        <v>3.729678080592768E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12626,11 +13786,11 @@
       </c>
       <c r="C68" s="5">
         <f t="shared" si="16"/>
-        <v>2490.9793409413492</v>
+        <v>2521.6514023819282</v>
       </c>
       <c r="D68" s="7">
         <f t="shared" si="17"/>
-        <v>4.9787911533534852E-2</v>
+        <v>3.7018835168848331E-2</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12642,11 +13802,11 @@
       </c>
       <c r="C69" s="5">
         <f t="shared" si="16"/>
-        <v>2492.2805520750294</v>
+        <v>2523.0033082649365</v>
       </c>
       <c r="D69" s="7">
         <f t="shared" si="17"/>
-        <v>5.6462121733369883E-2</v>
+        <v>4.3597521800598796E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12658,11 +13818,11 @@
       </c>
       <c r="C70" s="5">
         <f t="shared" ref="C70:C89" si="18">Var_1 * EXP((A70 * 0.0001) * Var_2)</f>
-        <v>2492.9314125119699</v>
+        <v>2523.6795329757101</v>
       </c>
       <c r="D70" s="7">
         <f t="shared" ref="D70:D89" si="19">(B70-C70)/C70</f>
-        <v>5.097155375004523E-2</v>
+        <v>3.8166679154669418E-2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12674,11 +13834,11 @@
       </c>
       <c r="C71" s="5">
         <f t="shared" si="18"/>
-        <v>2494.8850138357056</v>
+        <v>2525.7092947678761</v>
       </c>
       <c r="D71" s="7">
         <f t="shared" si="19"/>
-        <v>4.4537117160948062E-2</v>
+        <v>3.1789369187677212E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12690,11 +13850,11 @@
       </c>
       <c r="C72" s="5">
         <f t="shared" si="18"/>
-        <v>2495.5365544292672</v>
+        <v>2526.3862447471911</v>
       </c>
       <c r="D72" s="7">
         <f t="shared" si="19"/>
-        <v>5.1477284651561664E-2</v>
+        <v>3.8637700571622954E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12706,11 +13866,11 @@
       </c>
       <c r="C73" s="5">
         <f t="shared" si="18"/>
-        <v>2496.8401461113654</v>
+        <v>2527.7406890703828</v>
       </c>
       <c r="D73" s="7">
         <f t="shared" si="19"/>
-        <v>6.4545523324602339E-2</v>
+        <v>5.1531912071851857E-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12722,11 +13882,11 @@
       </c>
       <c r="C74" s="5">
         <f t="shared" si="18"/>
-        <v>2497.4921972887873</v>
+        <v>2528.4181835115378</v>
       </c>
       <c r="D74" s="7">
         <f t="shared" si="19"/>
-        <v>5.6259556231544702E-2</v>
+        <v>4.3340068190884436E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12738,11 +13898,11 @@
       </c>
       <c r="C75" s="5">
         <f t="shared" si="18"/>
-        <v>2499.4493727001027</v>
+        <v>2530.4517565371393</v>
       </c>
       <c r="D75" s="7">
         <f t="shared" si="19"/>
-        <v>5.3832107491157181E-2</v>
+        <v>4.0920852648289131E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12754,11 +13914,11 @@
       </c>
       <c r="C76" s="5">
         <f t="shared" si="18"/>
-        <v>2500.1021052784836</v>
+        <v>2531.1299776086539</v>
       </c>
       <c r="D76" s="7">
         <f t="shared" si="19"/>
-        <v>5.9556725466190848E-2</v>
+        <v>4.6568142858750633E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12770,11 +13930,11 @@
       </c>
       <c r="C77" s="5">
         <f t="shared" si="18"/>
-        <v>2500.7550083183451</v>
+        <v>2531.8083804595067</v>
       </c>
       <c r="D77" s="7">
         <f t="shared" si="19"/>
-        <v>6.4478523943889074E-2</v>
+        <v>5.1422382730585796E-2</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12786,11 +13946,11 @@
       </c>
       <c r="C78" s="5">
         <f t="shared" si="18"/>
-        <v>2501.4080818641901</v>
+        <v>2532.4869651384001</v>
       </c>
       <c r="D78" s="7">
         <f t="shared" si="19"/>
-        <v>6.6999031206020174E-2</v>
+        <v>5.390473346587963E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12802,11 +13962,11 @@
       </c>
       <c r="C79" s="5">
         <f t="shared" si="18"/>
-        <v>2502.0613259605461</v>
+        <v>2533.1657316940828</v>
       </c>
       <c r="D79" s="7">
         <f t="shared" si="19"/>
-        <v>7.311518392508759E-2</v>
+        <v>5.9938545041179125E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12818,11 +13978,11 @@
       </c>
       <c r="C80" s="5">
         <f t="shared" si="18"/>
-        <v>2504.0220819981741</v>
+        <v>2535.2031231093688</v>
       </c>
       <c r="D80" s="7">
         <f t="shared" si="19"/>
-        <v>6.5086453978781128E-2</v>
+        <v>5.1986712894620195E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12834,11 +13994,11 @@
       </c>
       <c r="C81" s="5">
         <f t="shared" si="18"/>
-        <v>2504.6760087421076</v>
+        <v>2535.8826176597918</v>
       </c>
       <c r="D81" s="7">
         <f t="shared" si="19"/>
-        <v>6.8002404567859512E-2</v>
+        <v>5.4859551215580712E-2</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12850,11 +14010,11 @@
       </c>
       <c r="C82" s="5">
         <f t="shared" si="18"/>
-        <v>2505.3301062593741</v>
+        <v>2536.5622943308699</v>
       </c>
       <c r="D82" s="7">
         <f t="shared" si="19"/>
-        <v>7.5307398920904142E-2</v>
+        <v>6.2067352345731061E-2</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12866,11 +14026,11 @@
       </c>
       <c r="C83" s="5">
         <f t="shared" si="18"/>
-        <v>2505.9843745945586</v>
+        <v>2537.242153171404</v>
       </c>
       <c r="D83" s="7">
         <f t="shared" si="19"/>
-        <v>8.3007550850789355E-2</v>
+        <v>6.9665343770069041E-2</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12882,11 +14042,11 @@
       </c>
       <c r="C84" s="5">
         <f t="shared" si="18"/>
-        <v>2506.6388137922822</v>
+        <v>2537.9221942302311</v>
       </c>
       <c r="D84" s="7">
         <f t="shared" si="19"/>
-        <v>7.7538568835000848E-2</v>
+        <v>6.4256424464277762E-2</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12898,11 +14058,11 @@
       </c>
       <c r="C85" s="5">
         <f t="shared" si="18"/>
-        <v>2508.6031570069349</v>
+        <v>2539.9634112049021</v>
       </c>
       <c r="D85" s="7">
         <f t="shared" si="19"/>
-        <v>8.0282464139667165E-2</v>
+        <v>6.6944503233783342E-2</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12914,11 +14074,11 @@
       </c>
       <c r="C86" s="5">
         <f t="shared" si="18"/>
-        <v>2509.2582801011267</v>
+        <v>2540.6441816254082</v>
       </c>
       <c r="D86" s="7">
         <f t="shared" si="19"/>
-        <v>9.3550242221144664E-2</v>
+        <v>8.0041046221786316E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12930,11 +14090,11 @@
       </c>
       <c r="C87" s="5">
         <f t="shared" si="18"/>
-        <v>2509.9135742810699</v>
+        <v>2541.3251345085241</v>
       </c>
       <c r="D87" s="7">
         <f t="shared" si="19"/>
-        <v>9.7647356558534765E-2</v>
+        <v>8.4080097658499414E-2</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12946,11 +14106,11 @@
       </c>
       <c r="C88" s="5">
         <f t="shared" si="18"/>
-        <v>2510.569039591458</v>
+        <v>2542.0062699031682</v>
       </c>
       <c r="D88" s="7">
         <f t="shared" si="19"/>
-        <v>9.6962464114571892E-2</v>
+        <v>8.3396226282678357E-2</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12962,11 +14122,11 @@
       </c>
       <c r="C89" s="5">
         <f t="shared" si="18"/>
-        <v>2511.2246760769672</v>
+        <v>2542.6875878582446</v>
       </c>
       <c r="D89" s="7">
         <f t="shared" si="19"/>
-        <v>0.10304745982637101</v>
+        <v>8.9398482624137521E-2</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12978,11 +14138,11 @@
       </c>
       <c r="C90" s="5">
         <f t="shared" ref="C90:C96" si="20">Var_1 * EXP((A90 * 0.0001) * Var_2)</f>
-        <v>2513.1926130313377</v>
+        <v>2544.7326375754583</v>
       </c>
       <c r="D90" s="7">
         <f t="shared" ref="D90:D96" si="21">(B90-C90)/C90</f>
-        <v>9.0644619034546597E-2</v>
+        <v>7.7126908943777731E-2</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -12994,11 +14154,11 @@
       </c>
       <c r="C91" s="5">
         <f t="shared" si="20"/>
-        <v>2513.8489346644892</v>
+        <v>2545.4146862617172</v>
       </c>
       <c r="D91" s="7">
         <f t="shared" si="21"/>
-        <v>9.8713594883787351E-2</v>
+        <v>8.5088419936936638E-2</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13010,11 +14170,11 @@
       </c>
       <c r="C92" s="5">
         <f t="shared" si="20"/>
-        <v>2514.5054276964015</v>
+        <v>2546.0969177531915</v>
       </c>
       <c r="D92" s="7">
         <f t="shared" si="21"/>
-        <v>9.7631355096537586E-2</v>
+        <v>8.401215238717924E-2</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13026,11 +14186,11 @@
       </c>
       <c r="C93" s="5">
         <f t="shared" si="20"/>
-        <v>2515.1620921718345</v>
+        <v>2546.7793320988912</v>
       </c>
       <c r="D93" s="7">
         <f t="shared" si="21"/>
-        <v>0.11165797572341067</v>
+        <v>9.7857189572728764E-2</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13042,11 +14202,11 @@
       </c>
       <c r="C94" s="5">
         <f t="shared" si="20"/>
-        <v>2515.8189281355471</v>
+        <v>2547.4619293478077</v>
       </c>
       <c r="D94" s="7">
         <f t="shared" si="21"/>
-        <v>0.11176522631254462</v>
+        <v>9.7955564233330156E-2</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13058,11 +14218,11 @@
       </c>
       <c r="C95" s="5">
         <f t="shared" si="20"/>
-        <v>2517.7904654043336</v>
+        <v>2549.5108190042147</v>
       </c>
       <c r="D95" s="7">
         <f t="shared" si="21"/>
-        <v>0.11724944496056723</v>
+        <v>0.10334891659675273</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13074,11 +14234,11 @@
       </c>
       <c r="C96" s="5">
         <f t="shared" si="20"/>
-        <v>2518.447987769166</v>
+        <v>2550.1941483563937</v>
       </c>
       <c r="D96" s="7">
         <f t="shared" si="21"/>
-        <v>0.12767863930184392</v>
+        <v>0.11364070136792795</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13090,11 +14250,11 @@
       </c>
       <c r="C97" s="5">
         <f t="shared" ref="C97:C112" si="22">Var_1 * EXP((A97 * 0.0001) * Var_2)</f>
-        <v>2519.1056818463258</v>
+        <v>2550.8776608570379</v>
       </c>
       <c r="D97" s="7">
         <f t="shared" ref="D97:D112" si="23">(B97-C97)/C97</f>
-        <v>0.13889624428032196</v>
+        <v>0.12471093538687392</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13106,11 +14266,11 @@
       </c>
       <c r="C98" s="5">
         <f t="shared" si="22"/>
-        <v>2519.7635476806513</v>
+        <v>2551.5613565552435</v>
       </c>
       <c r="D98" s="7">
         <f t="shared" si="23"/>
-        <v>0.13383654693701807</v>
+        <v>0.11970656424155776</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13122,11 +14282,11 @@
       </c>
       <c r="C99" s="5">
         <f t="shared" si="22"/>
-        <v>2520.4215853170099</v>
+        <v>2552.2452355001078</v>
       </c>
       <c r="D99" s="7">
         <f t="shared" si="23"/>
-        <v>0.13433404024763773</v>
+        <v>0.12019016050382954</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13138,11 +14298,11 @@
       </c>
       <c r="C100" s="5">
         <f t="shared" si="22"/>
-        <v>2522.3967294869353</v>
+        <v>2554.2979723058575</v>
       </c>
       <c r="D100" s="7">
         <f t="shared" si="23"/>
-        <v>0.15643981214379724</v>
+        <v>0.14199675669268855</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13154,11 +14314,11 @@
       </c>
       <c r="C101" s="5">
         <f t="shared" si="22"/>
-        <v>2523.0554547801707</v>
+        <v>2554.982584728637</v>
       </c>
       <c r="D101" s="7">
         <f t="shared" si="23"/>
-        <v>0.14860733421830297</v>
+        <v>0.1342543065935593</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13170,11 +14330,11 @@
       </c>
       <c r="C102" s="5">
         <f t="shared" si="22"/>
-        <v>2523.7143520998698</v>
+        <v>2555.6673806437689</v>
       </c>
       <c r="D102" s="7">
         <f t="shared" si="23"/>
-        <v>0.15108114259558714</v>
+        <v>0.13668939158594057</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13186,11 +14346,11 @@
       </c>
       <c r="C103" s="5">
         <f t="shared" si="22"/>
-        <v>2524.3734214909709</v>
+        <v>2556.352360100449</v>
       </c>
       <c r="D103" s="7">
         <f t="shared" si="23"/>
-        <v>0.16108020114902935</v>
+        <v>0.14655555538706316</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13202,11 +14362,11 @@
       </c>
       <c r="C104" s="5">
         <f t="shared" si="22"/>
-        <v>2525.0326629984065</v>
+        <v>2557.0375231478606</v>
       </c>
       <c r="D104" s="7">
         <f t="shared" si="23"/>
-        <v>0.14057930505345606</v>
+        <v>0.1263033780022727</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13218,11 +14378,11 @@
       </c>
       <c r="C105" s="5">
         <f t="shared" si="22"/>
-        <v>2527.0114206682574</v>
+        <v>2559.0941143266591</v>
       </c>
       <c r="D105" s="7">
         <f t="shared" si="23"/>
-        <v>0.14720494584601909</v>
+        <v>0.13282273745636583</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13234,11 +14394,11 @@
       </c>
       <c r="C106" s="5">
         <f t="shared" si="22"/>
-        <v>2527.6713510906334</v>
+        <v>2559.7800122292238</v>
       </c>
       <c r="D106" s="7">
         <f t="shared" si="23"/>
-        <v>0.16035654664301055</v>
+        <v>0.14580158685032932</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13250,11 +14410,11 @@
       </c>
       <c r="C107" s="5">
         <f t="shared" si="22"/>
-        <v>2528.3314538541927</v>
+        <v>2560.4660939686805</v>
       </c>
       <c r="D107" s="7">
         <f t="shared" si="23"/>
-        <v>0.16084463353326603</v>
+        <v>0.14627567493026164</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13266,11 +14426,11 @@
       </c>
       <c r="C108" s="5">
         <f t="shared" si="22"/>
-        <v>2528.9917290039562</v>
+        <v>2561.1523595943117</v>
       </c>
       <c r="D108" s="7">
         <f t="shared" si="23"/>
-        <v>0.16291404446716534</v>
+        <v>0.1483112236500668</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13282,11 +14442,11 @@
       </c>
       <c r="C109" s="5">
         <f t="shared" si="22"/>
-        <v>2529.6521765849343</v>
+        <v>2561.838809155407</v>
       </c>
       <c r="D109" s="7">
         <f t="shared" si="23"/>
-        <v>0.15984324926478269</v>
+        <v>0.14527111913309174</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13298,11 +14458,11 @@
       </c>
       <c r="C110" s="5">
         <f t="shared" si="22"/>
-        <v>2531.6345543655561</v>
+        <v>2563.8992619445107</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="23"/>
-        <v>0.16486006833598396</v>
+        <v>0.15020119697036047</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13314,11 +14474,11 @@
       </c>
       <c r="C111" s="5">
         <f t="shared" si="22"/>
-        <v>2532.2956921218351</v>
+        <v>2564.5864477405653</v>
       </c>
       <c r="D111" s="7">
         <f t="shared" si="23"/>
-        <v>0.15231408759969081</v>
+        <v>0.13780527951038529</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13330,11 +14490,11 @@
       </c>
       <c r="C112" s="5">
         <f t="shared" si="22"/>
-        <v>2532.9570025346075</v>
+        <v>2565.2738177187157</v>
       </c>
       <c r="D112" s="7">
         <f t="shared" si="23"/>
-        <v>0.15240803419840843</v>
+        <v>0.13789022436437257</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13346,11 +14506,11 @@
       </c>
       <c r="C113" s="5">
         <f t="shared" ref="C113:C118" si="24">Var_1 * EXP((A113 * 0.0001) * Var_2)</f>
-        <v>2533.6184856489485</v>
+        <v>2565.9613719283102</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" ref="D113:D118" si="25">(B113-C113)/C113</f>
-        <v>0.1347406944986872</v>
+        <v>0.12043775539748225</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13362,11 +14522,11 @@
       </c>
       <c r="C114" s="5">
         <f t="shared" si="24"/>
-        <v>2534.2801415099734</v>
+        <v>2566.6491104187403</v>
       </c>
       <c r="D114" s="7">
         <f t="shared" si="25"/>
-        <v>0.12694723571417785</v>
+        <v>0.11273488394136316</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13378,11 +14538,11 @@
       </c>
       <c r="C115" s="5">
         <f t="shared" si="24"/>
-        <v>2536.2661460243103</v>
+        <v>2568.7134320689988</v>
       </c>
       <c r="D115" s="7">
         <f t="shared" si="25"/>
-        <v>0.13947032117673472</v>
+        <v>0.12507684349679182</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13394,11 +14554,11 @@
       </c>
       <c r="C116" s="5">
         <f t="shared" si="24"/>
-        <v>2536.9284933232989</v>
+        <v>2569.4019081767974</v>
       </c>
       <c r="D116" s="7">
         <f t="shared" si="25"/>
-        <v>0.14863308432582148</v>
+        <v>0.13411607219818847</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13410,11 +14570,11 @@
       </c>
       <c r="C117" s="5">
         <f t="shared" si="24"/>
-        <v>2537.5910135946438</v>
+        <v>2570.0905688125222</v>
       </c>
       <c r="D117" s="7">
         <f t="shared" si="25"/>
-        <v>0.14951542008651014</v>
+        <v>0.13497945768804676</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13426,11 +14586,11 @@
       </c>
       <c r="C118" s="5">
         <f t="shared" si="24"/>
-        <v>2538.2537068835309</v>
+        <v>2570.7794140256265</v>
       </c>
       <c r="D118" s="7">
         <f t="shared" si="25"/>
-        <v>0.14645750033116248</v>
+        <v>0.13195242817165023</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13442,11 +14602,11 @@
       </c>
       <c r="C119" s="5">
         <f t="shared" ref="C119:C134" si="26">Var_1 * EXP((A119 * 0.0001) * Var_2)</f>
-        <v>2538.9165732351307</v>
+        <v>2571.4684438655818</v>
       </c>
       <c r="D119" s="7">
         <f t="shared" ref="D119:D134" si="27">(B119-C119)/C119</f>
-        <v>0.14655204928248361</v>
+        <v>0.13203800223346879</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13458,11 +14618,11 @@
       </c>
       <c r="C120" s="5">
         <f t="shared" si="26"/>
-        <v>2540.9062111182443</v>
+        <v>2573.5366416414558</v>
       </c>
       <c r="D120" s="7">
         <f t="shared" si="27"/>
-        <v>0.13502812003862247</v>
+        <v>0.12063685176851575</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13474,11 +14634,11 @@
       </c>
       <c r="C121" s="5">
         <f t="shared" si="26"/>
-        <v>2541.569770172779</v>
+        <v>2574.2264104837896</v>
       </c>
       <c r="D121" s="7">
         <f t="shared" si="27"/>
-        <v>0.14692897051645162</v>
+        <v>0.1323790277841827</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13490,11 +14650,11 @@
       </c>
       <c r="C122" s="5">
         <f t="shared" si="26"/>
-        <v>2542.2335025161306</v>
+        <v>2574.9163642005242</v>
       </c>
       <c r="D122" s="7">
         <f t="shared" si="27"/>
-        <v>0.15567669023799999</v>
+        <v>0.141007933635238</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13506,11 +14666,11 @@
       </c>
       <c r="C123" s="5">
         <f t="shared" si="26"/>
-        <v>2542.897408193553</v>
+        <v>2575.606502841224</v>
       </c>
       <c r="D123" s="7">
         <f t="shared" si="27"/>
-        <v>0.17425106902807466</v>
+        <v>0.15933858557433342</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13522,11 +14682,11 @@
       </c>
       <c r="C124" s="5">
         <f t="shared" si="26"/>
-        <v>2543.5614872503038</v>
+        <v>2576.2968264554388</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" si="27"/>
-        <v>0.17276504419193248</v>
+        <v>0.15786347650946647</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13538,11 +14698,11 @@
       </c>
       <c r="C125" s="5">
         <f t="shared" si="26"/>
-        <v>2545.554765149393</v>
+        <v>2578.3689076350379</v>
       </c>
       <c r="D125" s="7">
         <f t="shared" si="27"/>
-        <v>0.17813218598107641</v>
+        <v>0.16313844427746313</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13554,11 +14714,11 @@
       </c>
       <c r="C126" s="5">
         <f t="shared" si="26"/>
-        <v>2546.21953817637</v>
+        <v>2579.0599716392385</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="27"/>
-        <v>0.19039224801912999</v>
+        <v>0.17523440064618215</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13570,11 +14730,11 @@
       </c>
       <c r="C127" s="5">
         <f t="shared" si="26"/>
-        <v>2546.8844848091931</v>
+        <v>2579.7512208649737</v>
       </c>
       <c r="D127" s="7">
         <f t="shared" si="27"/>
-        <v>0.18654772842059286</v>
+        <v>0.1714307858673067</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13586,11 +14746,11 @@
       </c>
       <c r="C128" s="5">
         <f t="shared" si="26"/>
-        <v>2547.5496050931911</v>
+        <v>2580.4426553618964</v>
       </c>
       <c r="D128" s="7">
         <f t="shared" si="27"/>
-        <v>0.19565875926823229</v>
+        <v>0.18041762860752705</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13602,11 +14762,11 @@
       </c>
       <c r="C129" s="5">
         <f t="shared" si="26"/>
-        <v>2548.2148990737251</v>
+        <v>2581.1342751796637</v>
       </c>
       <c r="D129" s="7">
         <f t="shared" si="27"/>
-        <v>0.1863206674989849</v>
+        <v>0.1711905223487761</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13618,11 +14778,11 @@
       </c>
       <c r="C130" s="5">
         <f t="shared" si="26"/>
-        <v>2550.2118236481465</v>
+        <v>2583.2102470547543</v>
       </c>
       <c r="D130" s="7">
         <f t="shared" si="27"/>
-        <v>0.17990198778685948</v>
+        <v>0.16482969337502035</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13634,11 +14794,11 @@
       </c>
       <c r="C131" s="5">
         <f t="shared" si="26"/>
-        <v>2550.8778128685212</v>
+        <v>2583.9026086527192</v>
       </c>
       <c r="D131" s="7">
         <f t="shared" si="27"/>
-        <v>0.1842981991375022</v>
+        <v>0.16916171293901403</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13650,11 +14810,11 @@
       </c>
       <c r="C132" s="5">
         <f t="shared" si="26"/>
-        <v>2551.5439760123377</v>
+        <v>2584.5951558199999</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" si="27"/>
-        <v>0.18398899975901975</v>
+        <v>0.16884843384361461</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13666,11 +14826,11 @@
       </c>
       <c r="C133" s="5">
         <f t="shared" si="26"/>
-        <v>2552.2103131250301</v>
+        <v>2585.2878886063477</v>
       </c>
       <c r="D133" s="7">
         <f t="shared" si="27"/>
-        <v>0.19700166725654117</v>
+        <v>0.18168657868383867</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13682,11 +14842,11 @@
       </c>
       <c r="C134" s="5">
         <f t="shared" si="26"/>
-        <v>2552.8768242520255</v>
+        <v>2585.9808070615031</v>
       </c>
       <c r="D134" s="7">
         <f t="shared" si="27"/>
-        <v>0.20804888457694773</v>
+        <v>0.1925842572298149</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13698,11 +14858,11 @@
       </c>
       <c r="C135" s="5">
         <f t="shared" ref="C135:C149" si="28">Var_1 * EXP((A135 * 0.0001) * Var_2)</f>
-        <v>2554.8774021733325</v>
+        <v>2588.0606769375613</v>
       </c>
       <c r="D135" s="7">
         <f t="shared" ref="D135:D149" si="29">(B135-C135)/C135</f>
-        <v>0.22119362649101684</v>
+        <v>0.20553587781097918</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13714,11 +14874,11 @@
       </c>
       <c r="C136" s="5">
         <f t="shared" si="28"/>
-        <v>2555.5446098121047</v>
+        <v>2588.7543385657455</v>
       </c>
       <c r="D136" s="7">
         <f t="shared" si="29"/>
-        <v>0.21891826424780314</v>
+        <v>0.20328142133633734</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13730,11 +14890,11 @@
       </c>
       <c r="C137" s="5">
         <f t="shared" si="28"/>
-        <v>2556.2119916925094</v>
+        <v>2589.4481861116847</v>
       </c>
       <c r="D137" s="7">
         <f t="shared" si="29"/>
-        <v>0.23698660763514709</v>
+        <v>0.22110958503018324</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13746,11 +14906,11 @@
       </c>
       <c r="C138" s="5">
         <f t="shared" si="28"/>
-        <v>2556.8795478600646</v>
+        <v>2590.1422196252229</v>
       </c>
       <c r="D138" s="7">
         <f t="shared" si="29"/>
-        <v>0.21710856602710665</v>
+        <v>0.20147842709976235</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13762,11 +14922,11 @@
       </c>
       <c r="C139" s="5">
         <f t="shared" si="28"/>
-        <v>2557.5472783602745</v>
+        <v>2590.836439156195</v>
       </c>
       <c r="D139" s="7">
         <f t="shared" si="29"/>
-        <v>0.18746582935003181</v>
+        <v>0.17220830852182831</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13778,11 +14938,11 @@
       </c>
       <c r="C140" s="5">
         <f t="shared" si="28"/>
-        <v>2559.5515163122118</v>
+        <v>2592.9202143523912</v>
       </c>
       <c r="D140" s="7">
         <f t="shared" si="29"/>
-        <v>0.16465716005396483</v>
+        <v>0.14966900388970733</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13794,11 +14954,11 @@
       </c>
       <c r="C141" s="5">
         <f t="shared" si="28"/>
-        <v>2560.219944598457</v>
+        <v>2593.6151784518206</v>
       </c>
       <c r="D141" s="7">
         <f t="shared" si="29"/>
-        <v>0.1631813142784759</v>
+        <v>0.14820426127272518</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13810,11 +14970,11 @@
       </c>
       <c r="C142" s="5">
         <f t="shared" si="28"/>
-        <v>2560.8885474451222</v>
+        <v>2594.310328818116</v>
       </c>
       <c r="D142" s="7">
         <f t="shared" si="29"/>
-        <v>0.20505049041620993</v>
+        <v>0.18952615873286138</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13826,11 +14986,11 @@
       </c>
       <c r="C143" s="5">
         <f t="shared" si="28"/>
-        <v>2561.5573248977835</v>
+        <v>2595.0056655011886</v>
       </c>
       <c r="D143" s="7">
         <f t="shared" si="29"/>
-        <v>0.24494578708179174</v>
+        <v>0.22889905112561282</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13842,11 +15002,11 @@
       </c>
       <c r="C144" s="5">
         <f t="shared" si="28"/>
-        <v>2562.2262770020407</v>
+        <v>2595.7011885509746</v>
       </c>
       <c r="D144" s="7">
         <f t="shared" si="29"/>
-        <v>0.26296417652320514</v>
+        <v>0.24667662605897486</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13858,11 +15018,11 @@
       </c>
       <c r="C145" s="5">
         <f t="shared" si="28"/>
-        <v>2564.2341816805847</v>
+        <v>2597.7888764002319</v>
       </c>
       <c r="D145" s="7">
         <f t="shared" si="29"/>
-        <v>0.25261570216448531</v>
+        <v>0.23643612041748494</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13874,11 +15034,11 @@
       </c>
       <c r="C146" s="5">
         <f t="shared" si="28"/>
-        <v>2564.9038328474671</v>
+        <v>2598.4851454165332</v>
       </c>
       <c r="D146" s="7">
         <f t="shared" si="29"/>
-        <v>0.26749391472929135</v>
+        <v>0.25111355965780197</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13890,11 +15050,11 @@
       </c>
       <c r="C147" s="5">
         <f t="shared" si="28"/>
-        <v>2565.5736588941154</v>
+        <v>2599.1816010494449</v>
       </c>
       <c r="D147" s="7">
         <f t="shared" si="29"/>
-        <v>0.30575085551977865</v>
+        <v>0.28886723368902151</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13906,11 +15066,11 @@
       </c>
       <c r="C148" s="5">
         <f t="shared" si="28"/>
-        <v>2566.2436598662125</v>
+        <v>2599.8782433489851</v>
       </c>
       <c r="D148" s="7">
         <f t="shared" si="29"/>
-        <v>0.29605775632910725</v>
+        <v>0.27929067774946054</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13922,11 +15082,11 @@
       </c>
       <c r="C149" s="5">
         <f t="shared" si="28"/>
-        <v>2568.9254139228074</v>
+        <v>2602.6666802141808</v>
       </c>
       <c r="D149" s="7">
         <f t="shared" si="29"/>
-        <v>0.33674569973450652</v>
+        <v>0.31941597673867572</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13938,11 +15098,11 @@
       </c>
       <c r="C150" s="5">
         <f t="shared" ref="C150:C157" si="30">Var_1 * EXP((A150 * 0.0001) * Var_2)</f>
-        <v>2569.5962902075698</v>
+        <v>2603.3642565975642</v>
       </c>
       <c r="D150" s="7">
         <f t="shared" ref="D150:D157" si="31">(B150-C150)/C150</f>
-        <v>0.29825841230900935</v>
+        <v>0.28141883777721727</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13954,11 +15114,11 @@
       </c>
       <c r="C151" s="5">
         <f t="shared" si="30"/>
-        <v>2570.2673416920384</v>
+        <v>2604.0620199479631</v>
       </c>
       <c r="D151" s="7">
         <f t="shared" si="31"/>
-        <v>0.29013816820200372</v>
+        <v>0.27339517054446483</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13970,11 +15130,11 @@
       </c>
       <c r="C152" s="5">
         <f t="shared" si="30"/>
-        <v>2570.9385684219806</v>
+        <v>2604.7599703154851</v>
       </c>
       <c r="D152" s="7">
         <f t="shared" si="31"/>
-        <v>0.3022481521427301</v>
+        <v>0.28533916297650053</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -13986,11 +15146,11 @@
       </c>
       <c r="C153" s="5">
         <f t="shared" si="30"/>
-        <v>2571.6099704431481</v>
+        <v>2605.4581077502557</v>
       </c>
       <c r="D153" s="7">
         <f t="shared" si="31"/>
-        <v>0.29063117585753462</v>
+        <v>0.27386427366735472</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14002,11 +15162,11 @@
       </c>
       <c r="C154" s="5">
         <f t="shared" si="30"/>
-        <v>2573.6252287118614</v>
+        <v>2607.5536429595049</v>
       </c>
       <c r="D154" s="7">
         <f t="shared" si="31"/>
-        <v>0.29661458194137275</v>
+        <v>0.27974356692911312</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14018,11 +15178,11 @@
       </c>
       <c r="C155" s="5">
         <f t="shared" si="30"/>
-        <v>2574.2973323558363</v>
+        <v>2608.2525291647812</v>
       </c>
       <c r="D155" s="7">
         <f t="shared" si="31"/>
-        <v>0.28811849288807823</v>
+        <v>0.27134928958042831</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14034,11 +15194,11 @@
       </c>
       <c r="C156" s="5">
         <f t="shared" si="30"/>
-        <v>2574.9696115200522</v>
+        <v>2608.9516026881365</v>
       </c>
       <c r="D156" s="7">
         <f t="shared" si="31"/>
-        <v>0.27069460756411717</v>
+        <v>0.25414361716357281</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14050,11 +15210,11 @@
       </c>
       <c r="C157" s="5">
         <f t="shared" si="30"/>
-        <v>2575.6420662503369</v>
+        <v>2609.6508635797677</v>
       </c>
       <c r="D157" s="7">
         <f t="shared" si="31"/>
-        <v>0.25677400692266183</v>
+        <v>0.24039581124644049</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14066,11 +15226,11 @@
       </c>
       <c r="C158" s="5">
         <f t="shared" ref="C158:C165" si="32">Var_1 * EXP((A158 * 0.0001) * Var_2)</f>
-        <v>2576.3146965925539</v>
+        <v>2610.3503118899075</v>
       </c>
       <c r="D158" s="7">
         <f t="shared" ref="D158:D165" si="33">(B158-C158)/C158</f>
-        <v>0.25722218806728731</v>
+        <v>0.24082962552828657</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14082,11 +15242,11 @@
       </c>
       <c r="C159" s="5">
         <f t="shared" si="32"/>
-        <v>2578.3336417493924</v>
+        <v>2612.449781833694</v>
       </c>
       <c r="D159" s="7">
         <f t="shared" si="33"/>
-        <v>0.29308323252451146</v>
+        <v>0.27619678019603716</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14098,11 +15258,11 @@
       </c>
       <c r="C160" s="5">
         <f t="shared" si="32"/>
-        <v>2579.0069749980307</v>
+        <v>2613.1499803202928</v>
       </c>
       <c r="D160" s="7">
         <f t="shared" si="33"/>
-        <v>0.31833687654241266</v>
+        <v>0.30111169492968148</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14114,11 +15274,11 @@
       </c>
       <c r="C161" s="5">
         <f t="shared" si="32"/>
-        <v>2579.6804840880131</v>
+        <v>2613.850366476679</v>
       </c>
       <c r="D161" s="7">
         <f t="shared" si="33"/>
-        <v>0.30868920427310492</v>
+        <v>0.29158120269549137</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14130,11 +15290,11 @@
       </c>
       <c r="C162" s="5">
         <f t="shared" si="32"/>
-        <v>2580.3541690652601</v>
+        <v>2614.5509403531669</v>
       </c>
       <c r="D162" s="7">
         <f t="shared" si="33"/>
-        <v>0.28509490664269144</v>
+        <v>0.26828662957780552</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14146,11 +15306,11 @@
       </c>
       <c r="C163" s="5">
         <f t="shared" si="32"/>
-        <v>2581.0280299757137</v>
+        <v>2615.251702000061</v>
       </c>
       <c r="D163" s="7">
         <f t="shared" si="33"/>
-        <v>0.28785893116832106</v>
+        <v>0.27100576875943183</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14162,11 +15322,11 @@
       </c>
       <c r="C164" s="5">
         <f t="shared" si="32"/>
-        <v>2583.0506687657999</v>
+        <v>2617.3551140665568</v>
       </c>
       <c r="D164" s="7">
         <f t="shared" si="33"/>
-        <v>0.25278223889668566</v>
+        <v>0.23636260995255673</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14178,11 +15338,11 @@
       </c>
       <c r="C165" s="5">
         <f t="shared" si="32"/>
-        <v>2583.725233868638</v>
+        <v>2618.0566272985061</v>
       </c>
       <c r="D165" s="7">
         <f t="shared" si="33"/>
-        <v>0.25903480654916622</v>
+        <v>0.24252469029162019</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14194,11 +15354,11 @@
       </c>
       <c r="C166" s="5">
         <f t="shared" ref="C166:C174" si="34">Var_1 * EXP((A166 * 0.0001) * Var_2)</f>
-        <v>2584.3999751345145</v>
+        <v>2618.7583285526266</v>
       </c>
       <c r="D166" s="7">
         <f t="shared" ref="D166:D174" si="35">(B166-C166)/C166</f>
-        <v>0.23239437805451343</v>
+        <v>0.21622524891799849</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14210,11 +15370,11 @@
       </c>
       <c r="C167" s="5">
         <f t="shared" si="34"/>
-        <v>2585.0748926094484</v>
+        <v>2619.4602178793261</v>
       </c>
       <c r="D167" s="7">
         <f t="shared" si="35"/>
-        <v>0.25218809298498884</v>
+        <v>0.23575077716607751</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14226,11 +15386,11 @@
       </c>
       <c r="C168" s="5">
         <f t="shared" si="34"/>
-        <v>2585.7499863394523</v>
+        <v>2620.162295329003</v>
       </c>
       <c r="D168" s="7">
         <f t="shared" si="35"/>
-        <v>0.23871217902793648</v>
+        <v>0.22244335998194817</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14242,11 +15402,11 @@
       </c>
       <c r="C169" s="5">
         <f t="shared" si="34"/>
-        <v>2587.7763255202335</v>
+        <v>2622.2696569202249</v>
       </c>
       <c r="D169" s="7">
         <f t="shared" si="35"/>
-        <v>0.24508442566119595</v>
+        <v>0.22870658686724843</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14258,11 +15418,11 @@
       </c>
       <c r="C170" s="5">
         <f t="shared" si="34"/>
-        <v>2588.4521247309235</v>
+        <v>2622.9724873661858</v>
       </c>
       <c r="D170" s="7">
         <f t="shared" si="35"/>
-        <v>0.27102988251791765</v>
+        <v>0.25430213845041083</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14274,11 +15434,11 @@
       </c>
       <c r="C171" s="5">
         <f t="shared" si="34"/>
-        <v>2589.1281004269576</v>
+        <v>2623.675506187371</v>
       </c>
       <c r="D171" s="7">
         <f t="shared" si="35"/>
-        <v>0.28228495123610092</v>
+        <v>0.26540038666004939</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14290,11 +15450,11 @@
       </c>
       <c r="C172" s="5">
         <f t="shared" si="34"/>
-        <v>2589.8042526544123</v>
+        <v>2624.3787134342706</v>
       </c>
       <c r="D172" s="7">
         <f t="shared" si="35"/>
-        <v>0.27384144829428697</v>
+        <v>0.25705942633672629</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14306,11 +15466,11 @@
       </c>
       <c r="C173" s="5">
         <f t="shared" si="34"/>
-        <v>2590.4805814593883</v>
+        <v>2625.0821091573812</v>
       </c>
       <c r="D173" s="7">
         <f t="shared" si="35"/>
-        <v>0.29628456744046211</v>
+        <v>0.27919808233269944</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14322,11 +15482,11 @@
       </c>
       <c r="C174" s="5">
         <f t="shared" si="34"/>
-        <v>2592.5106278006801</v>
+        <v>2627.1934276892534</v>
       </c>
       <c r="D174" s="7">
         <f t="shared" si="35"/>
-        <v>0.29064080359760452</v>
+        <v>0.27360245527980498</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14337,12 +15497,12 @@
         <v>3300</v>
       </c>
       <c r="C175" s="5">
-        <f>Var_1 * EXP((A175 * 0.0001) * Var_2)</f>
-        <v>2593.1876633770189</v>
+        <f t="shared" ref="C175:C195" si="36">Var_1 * EXP((A175 * 0.0001) * Var_2)</f>
+        <v>2627.8975778225258</v>
       </c>
       <c r="D175" s="7">
-        <f>(B175-C175)/C175</f>
-        <v>0.27256505443286111</v>
+        <f t="shared" ref="D175:D195" si="37">(B175-C175)/C175</f>
+        <v>0.25575670370470749</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14353,12 +15513,12 @@
         <v>3286</v>
       </c>
       <c r="C176" s="5">
-        <f>Var_1 * EXP((A176 * 0.0001) * Var_2)</f>
-        <v>2593.8648757615661</v>
+        <f t="shared" si="36"/>
+        <v>2628.601916684735</v>
       </c>
       <c r="D176" s="7">
-        <f>(B176-C176)/C176</f>
-        <v>0.26683545881904164</v>
+        <f t="shared" si="37"/>
+        <v>0.25009419613617018</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14369,12 +15529,12 @@
         <v>3318</v>
       </c>
       <c r="C177" s="5">
-        <f>Var_1 * EXP((A177 * 0.0001) * Var_2)</f>
-        <v>2594.5422650005094</v>
+        <f t="shared" si="36"/>
+        <v>2629.3064443264648</v>
       </c>
       <c r="D177" s="7">
-        <f>(B177-C177)/C177</f>
-        <v>0.27883829250295472</v>
+        <f t="shared" si="37"/>
+        <v>0.26192974088646187</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14385,12 +15545,12 @@
         <v>3289</v>
       </c>
       <c r="C178" s="5">
-        <f>Var_1 * EXP((A178 * 0.0001) * Var_2)</f>
-        <v>2595.2198311400198</v>
+        <f t="shared" si="36"/>
+        <v>2630.0111607982981</v>
       </c>
       <c r="D178" s="7">
-        <f>(B178-C178)/C178</f>
-        <v>0.26733001980615212</v>
+        <f t="shared" si="37"/>
+        <v>0.25056503524558288</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14401,222 +15561,542 @@
         <v>3381</v>
       </c>
       <c r="C179" s="5">
-        <f>Var_1 * EXP((A179 * 0.0001) * Var_2)</f>
-        <v>2597.2535914240234</v>
+        <f t="shared" si="36"/>
+        <v>2632.1264437006707</v>
       </c>
       <c r="D179" s="7">
-        <f>(B179-C179)/C179</f>
-        <v>0.30175967844028034</v>
+        <f t="shared" si="37"/>
+        <v>0.28451275891079197</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="3">
+        <v>45811</v>
+      </c>
+      <c r="B180" s="6">
+        <v>3353</v>
+      </c>
+      <c r="C180" s="5">
+        <f t="shared" si="36"/>
+        <v>2632.8319159992029</v>
+      </c>
+      <c r="D180" s="7">
+        <f t="shared" si="37"/>
+        <v>0.2735336348759968</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>45812</v>
+      </c>
+      <c r="B181" s="6">
+        <v>3372</v>
+      </c>
+      <c r="C181" s="5">
+        <f t="shared" si="36"/>
+        <v>2633.5375773810438</v>
+      </c>
+      <c r="D181" s="7">
+        <f t="shared" si="37"/>
+        <v>0.28040701942568441</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>45813</v>
+      </c>
+      <c r="B182" s="6">
+        <v>3352</v>
+      </c>
+      <c r="C182" s="5">
+        <f t="shared" si="36"/>
+        <v>2634.2434278968722</v>
+      </c>
+      <c r="D182" s="7">
+        <f t="shared" si="37"/>
+        <v>0.27247161917612545</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>45814</v>
+      </c>
+      <c r="B183" s="6">
+        <v>3311</v>
+      </c>
+      <c r="C183" s="5">
+        <f t="shared" si="36"/>
+        <v>2634.9494675973656</v>
+      </c>
+      <c r="D183" s="7">
+        <f t="shared" si="37"/>
+        <v>0.25657058729823756</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>45817</v>
+      </c>
+      <c r="B184" s="6">
+        <v>3325</v>
+      </c>
+      <c r="C184" s="5">
+        <f t="shared" si="36"/>
+        <v>2637.0687223140385</v>
+      </c>
+      <c r="D184" s="7">
+        <f t="shared" si="37"/>
+        <v>0.26086968150086698</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>45818</v>
+      </c>
+      <c r="B185" s="6">
+        <v>3328</v>
+      </c>
+      <c r="C185" s="5">
+        <f t="shared" si="36"/>
+        <v>2637.7755192604286</v>
+      </c>
+      <c r="D185" s="7">
+        <f t="shared" si="37"/>
+        <v>0.26166915103264526</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>45819</v>
+      </c>
+      <c r="B186" s="6">
+        <v>3355</v>
+      </c>
+      <c r="C186" s="5">
+        <f t="shared" si="36"/>
+        <v>2638.4825056451632</v>
+      </c>
+      <c r="D186" s="7">
+        <f t="shared" si="37"/>
+        <v>0.27156423922531697</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>45820</v>
+      </c>
+      <c r="B187" s="6">
+        <v>3386</v>
+      </c>
+      <c r="C187" s="5">
+        <f t="shared" si="36"/>
+        <v>2639.1896815190084</v>
+      </c>
+      <c r="D187" s="7">
+        <f t="shared" si="37"/>
+        <v>0.28296955073390495</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>45821</v>
+      </c>
+      <c r="B188" s="6">
+        <v>3432</v>
+      </c>
+      <c r="C188" s="5">
+        <f t="shared" si="36"/>
+        <v>2639.8970469327651</v>
+      </c>
+      <c r="D188" s="7">
+        <f t="shared" si="37"/>
+        <v>0.30005069856324923</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>45824</v>
+      </c>
+      <c r="B189" s="6">
+        <v>3384</v>
+      </c>
+      <c r="C189" s="5">
+        <f t="shared" si="36"/>
+        <v>2642.0202809215066</v>
+      </c>
+      <c r="D189" s="7">
+        <f t="shared" si="37"/>
+        <v>0.2808380103803364</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>45825</v>
+      </c>
+      <c r="B190" s="6">
+        <v>3387</v>
+      </c>
+      <c r="C190" s="5">
+        <f t="shared" si="36"/>
+        <v>2642.7284050030207</v>
+      </c>
+      <c r="D190" s="7">
+        <f t="shared" si="37"/>
+        <v>0.28162999784161646</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>45826</v>
+      </c>
+      <c r="B191" s="6">
+        <v>3368</v>
+      </c>
+      <c r="C191" s="5">
+        <f t="shared" si="36"/>
+        <v>2643.436718878575</v>
+      </c>
+      <c r="D191" s="7">
+        <f t="shared" si="37"/>
+        <v>0.27409896970365399</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>45827</v>
+      </c>
+      <c r="B192" s="6">
+        <v>3369</v>
+      </c>
+      <c r="C192" s="5">
+        <f t="shared" si="36"/>
+        <v>2644.1452225990388</v>
+      </c>
+      <c r="D192" s="7">
+        <f t="shared" si="37"/>
+        <v>0.27413576652513499</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>45828</v>
+      </c>
+      <c r="B193" s="6">
+        <v>3369</v>
+      </c>
+      <c r="C193" s="5">
+        <f t="shared" si="36"/>
+        <v>2644.8539162153083</v>
+      </c>
+      <c r="D193" s="7">
+        <f t="shared" si="37"/>
+        <v>0.27379435943324948</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>45831</v>
+      </c>
+      <c r="B194" s="6">
+        <v>3368</v>
+      </c>
+      <c r="C194" s="5">
+        <f t="shared" si="36"/>
+        <v>2646.981136947908</v>
+      </c>
+      <c r="D194" s="7">
+        <f t="shared" si="37"/>
+        <v>0.27239289807839739</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>45832</v>
+      </c>
+      <c r="B195" s="6">
+        <v>3323</v>
+      </c>
+      <c r="C195" s="5">
+        <f t="shared" si="36"/>
+        <v>2647.6905906564666</v>
+      </c>
+      <c r="D195" s="7">
+        <f t="shared" si="37"/>
+        <v>0.2550560143721694</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>45833</v>
+      </c>
+      <c r="B196" s="6">
+        <v>3332</v>
+      </c>
+      <c r="C196" s="5">
+        <f t="shared" ref="C196:C204" si="38">Var_1 * EXP((A196 * 0.0001) * Var_2)</f>
+        <v>2648.4002345154368</v>
+      </c>
+      <c r="D196" s="7">
+        <f t="shared" ref="D196:D204" si="39">(B196-C196)/C196</f>
+        <v>0.25811799764080512</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>45834</v>
+      </c>
+      <c r="B197" s="6">
+        <v>3328</v>
+      </c>
+      <c r="C197" s="5">
+        <f t="shared" si="38"/>
+        <v>2649.1100685757833</v>
+      </c>
+      <c r="D197" s="7">
+        <f t="shared" si="39"/>
+        <v>0.25627094150497193</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>45835</v>
+      </c>
+      <c r="B198" s="6">
+        <v>3268</v>
+      </c>
+      <c r="C198" s="5">
+        <f t="shared" si="38"/>
+        <v>2649.8200928884939</v>
+      </c>
+      <c r="D198" s="7">
+        <f t="shared" si="39"/>
+        <v>0.23329127466825328</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>45838</v>
+      </c>
+      <c r="B199" s="6">
+        <v>3303</v>
+      </c>
+      <c r="C199" s="5">
+        <f t="shared" si="38"/>
+        <v>2651.9513078507666</v>
+      </c>
+      <c r="D199" s="7">
+        <f t="shared" si="39"/>
+        <v>0.24549798113633761</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>45839</v>
+      </c>
+      <c r="B200" s="6">
+        <v>3338</v>
+      </c>
+      <c r="C200" s="5">
+        <f t="shared" si="38"/>
+        <v>2652.6620936829731</v>
+      </c>
+      <c r="D200" s="7">
+        <f t="shared" si="39"/>
+        <v>0.25835854025625227</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>45840</v>
+      </c>
+      <c r="B201" s="6">
+        <v>3357</v>
+      </c>
+      <c r="C201" s="5">
+        <f t="shared" si="38"/>
+        <v>2653.3730700226406</v>
+      </c>
+      <c r="D201" s="7">
+        <f t="shared" si="39"/>
+        <v>0.26518205748253693</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>45841</v>
+      </c>
+      <c r="B202" s="6">
+        <v>3326</v>
+      </c>
+      <c r="C202" s="5">
+        <f t="shared" si="38"/>
+        <v>2654.0842369208162</v>
+      </c>
+      <c r="D202" s="7">
+        <f t="shared" si="39"/>
+        <v>0.25316293798523853</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>45842</v>
+      </c>
+      <c r="B203" s="6">
+        <v>3335</v>
+      </c>
+      <c r="C203" s="5">
+        <f t="shared" si="38"/>
+        <v>2654.7955944285832</v>
+      </c>
+      <c r="D203" s="7">
+        <f t="shared" si="39"/>
+        <v>0.25621724211043212</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>45845</v>
+      </c>
+      <c r="B204" s="6">
+        <v>3337</v>
+      </c>
+      <c r="C204" s="5">
+        <f t="shared" si="38"/>
+        <v>2656.9308111203959</v>
+      </c>
+      <c r="D204" s="7">
+        <f t="shared" si="39"/>
+        <v>0.25596044354381475</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>45846</v>
+      </c>
+      <c r="B205" s="6">
+        <v>3301</v>
+      </c>
+      <c r="C205" s="5">
+        <f>Var_1 * EXP((A205 * 0.0001) * Var_2)</f>
+        <v>2657.6429315775495</v>
+      </c>
+      <c r="D205" s="7">
+        <f>(B205-C205)/C205</f>
+        <v>0.24207806879480248</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>45847</v>
+      </c>
+      <c r="B206" s="6">
+        <v>3313</v>
+      </c>
+      <c r="C206" s="5">
+        <f>Var_1 * EXP((A206 * 0.0001) * Var_2)</f>
+        <v>2658.3552428998669</v>
+      </c>
+      <c r="D206" s="7">
+        <f>(B206-C206)/C206</f>
+        <v>0.24625932100256617</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B207" s="6">
+        <v>3324</v>
+      </c>
+      <c r="C207" s="5">
+        <f>Var_1 * EXP((A207 * 0.0001) * Var_2)</f>
+        <v>2659.0677451385172</v>
+      </c>
+      <c r="D207" s="7">
+        <f>(B207-C207)/C207</f>
+        <v>0.25006217163032257</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>45849</v>
+      </c>
+      <c r="B208" s="6">
+        <v>3356</v>
+      </c>
+      <c r="C208" s="5">
+        <f>Var_1 * EXP((A208 * 0.0001) * Var_2)</f>
+        <v>2659.7804383446537</v>
+      </c>
+      <c r="D208" s="7">
+        <f>(B208-C208)/C208</f>
+        <v>0.26175828335990281</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>45852</v>
+      </c>
+      <c r="B209" s="6">
+        <v>3342</v>
+      </c>
+      <c r="C209" s="5">
+        <f>Var_1 * EXP((A209 * 0.0001) * Var_2)</f>
+        <v>2661.9196642799484</v>
+      </c>
+      <c r="D209" s="7">
+        <f>(B209-C209)/C209</f>
+        <v>0.25548492121906841</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>45853</v>
+      </c>
+      <c r="B210" s="6">
+        <v>3325</v>
+      </c>
+      <c r="C210" s="5">
+        <f>Var_1 * EXP((A210 * 0.0001) * Var_2)</f>
+        <v>2662.6331218680425</v>
+      </c>
+      <c r="D210" s="7">
+        <f>(B210-C210)/C210</f>
+        <v>0.24876385435604287</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>45854</v>
+      </c>
+      <c r="B211" s="6">
+        <v>3347</v>
+      </c>
+      <c r="C211" s="5">
+        <f>Var_1 * EXP((A211 * 0.0001) * Var_2)</f>
+        <v>2663.3467706796823</v>
+      </c>
+      <c r="D211" s="7">
+        <f>(B211-C211)/C211</f>
+        <v>0.2566895294471363</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B180" s="12">
+      <c r="B212" s="12">
         <f>表2[[#Totals],[溢价指标]] -7%</f>
-        <v>7.4563207931231695E-2</v>
-      </c>
-      <c r="C180" s="13">
+        <v>8.0559996339580636E-2</v>
+      </c>
+      <c r="C212" s="13">
         <f>表2[[#Totals],[溢价指标]] +7%</f>
-        <v>0.21456320793123171</v>
-      </c>
-      <c r="D180" s="14">
+        <v>0.22055999633958065</v>
+      </c>
+      <c r="D212" s="14">
         <f>SUBTOTAL(101,表2[溢价指标])</f>
-        <v>0.1445632079312317</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181"/>
-      <c r="B181"/>
-      <c r="C181"/>
-      <c r="D181"/>
-    </row>
-    <row r="182" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182"/>
-      <c r="B182"/>
-      <c r="C182"/>
-      <c r="D182"/>
-    </row>
-    <row r="183" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183"/>
-      <c r="B183"/>
-      <c r="C183"/>
-      <c r="D183"/>
-    </row>
-    <row r="184" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184"/>
-      <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
-    </row>
-    <row r="185" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185"/>
-      <c r="B185"/>
-      <c r="C185"/>
-      <c r="D185"/>
-    </row>
-    <row r="186" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186"/>
-      <c r="B186"/>
-      <c r="C186"/>
-      <c r="D186"/>
-    </row>
-    <row r="187" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187"/>
-      <c r="B187"/>
-      <c r="C187"/>
-      <c r="D187"/>
-    </row>
-    <row r="188" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188"/>
-      <c r="B188"/>
-      <c r="C188"/>
-      <c r="D188"/>
-    </row>
-    <row r="189" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189"/>
-      <c r="B189"/>
-      <c r="C189"/>
-      <c r="D189"/>
-    </row>
-    <row r="190" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190"/>
-      <c r="B190"/>
-      <c r="C190"/>
-      <c r="D190"/>
-    </row>
-    <row r="191" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191"/>
-      <c r="B191"/>
-      <c r="C191"/>
-      <c r="D191"/>
-    </row>
-    <row r="192" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192"/>
-      <c r="B192"/>
-      <c r="C192"/>
-      <c r="D192"/>
-    </row>
-    <row r="193" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193"/>
-      <c r="B193"/>
-      <c r="C193"/>
-      <c r="D193"/>
-    </row>
-    <row r="194" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194"/>
-      <c r="B194"/>
-      <c r="C194"/>
-      <c r="D194"/>
-    </row>
-    <row r="195" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195"/>
-      <c r="B195"/>
-      <c r="C195"/>
-      <c r="D195"/>
-    </row>
-    <row r="196" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196"/>
-      <c r="B196"/>
-      <c r="C196"/>
-      <c r="D196"/>
-    </row>
-    <row r="197" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197"/>
-      <c r="B197"/>
-      <c r="C197"/>
-      <c r="D197"/>
-    </row>
-    <row r="198" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198"/>
-      <c r="B198"/>
-      <c r="C198"/>
-      <c r="D198"/>
-    </row>
-    <row r="199" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199"/>
-      <c r="B199"/>
-      <c r="C199"/>
-      <c r="D199"/>
-    </row>
-    <row r="200" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200"/>
-      <c r="B200"/>
-      <c r="C200"/>
-      <c r="D200"/>
-    </row>
-    <row r="201" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201"/>
-      <c r="B201"/>
-      <c r="C201"/>
-      <c r="D201"/>
-    </row>
-    <row r="202" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202"/>
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-    </row>
-    <row r="203" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203"/>
-      <c r="B203"/>
-      <c r="C203"/>
-      <c r="D203"/>
-    </row>
-    <row r="204" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204"/>
-      <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
-    </row>
-    <row r="205" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205"/>
-      <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-    </row>
-    <row r="206" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206"/>
-      <c r="B206"/>
-      <c r="C206"/>
-      <c r="D206"/>
-    </row>
-    <row r="207" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207"/>
-      <c r="B207"/>
-      <c r="C207"/>
-      <c r="D207"/>
-    </row>
-    <row r="208" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208"/>
-      <c r="B208"/>
-      <c r="C208"/>
-      <c r="D208"/>
-    </row>
-    <row r="209" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209"/>
-      <c r="B209"/>
-      <c r="C209"/>
-      <c r="D209"/>
-    </row>
-    <row r="210" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210"/>
-      <c r="B210"/>
-      <c r="C210"/>
-      <c r="D210"/>
-    </row>
-    <row r="211" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211"/>
-      <c r="B211"/>
-      <c r="C211"/>
-      <c r="D211"/>
-    </row>
-    <row r="212" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212"/>
-      <c r="B212"/>
-      <c r="C212"/>
-      <c r="D212"/>
+        <v>0.15055999633958064</v>
+      </c>
     </row>
     <row r="213" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213"/>
@@ -16451,6 +17931,198 @@
       <c r="B516"/>
       <c r="C516"/>
       <c r="D516"/>
+    </row>
+    <row r="517" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517"/>
+      <c r="B517"/>
+      <c r="C517"/>
+      <c r="D517"/>
+    </row>
+    <row r="518" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A518"/>
+      <c r="B518"/>
+      <c r="C518"/>
+      <c r="D518"/>
+    </row>
+    <row r="519" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A519"/>
+      <c r="B519"/>
+      <c r="C519"/>
+      <c r="D519"/>
+    </row>
+    <row r="520" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A520"/>
+      <c r="B520"/>
+      <c r="C520"/>
+      <c r="D520"/>
+    </row>
+    <row r="521" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A521"/>
+      <c r="B521"/>
+      <c r="C521"/>
+      <c r="D521"/>
+    </row>
+    <row r="522" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A522"/>
+      <c r="B522"/>
+      <c r="C522"/>
+      <c r="D522"/>
+    </row>
+    <row r="523" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A523"/>
+      <c r="B523"/>
+      <c r="C523"/>
+      <c r="D523"/>
+    </row>
+    <row r="524" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A524"/>
+      <c r="B524"/>
+      <c r="C524"/>
+      <c r="D524"/>
+    </row>
+    <row r="525" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525"/>
+      <c r="B525"/>
+      <c r="C525"/>
+      <c r="D525"/>
+    </row>
+    <row r="526" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A526"/>
+      <c r="B526"/>
+      <c r="C526"/>
+      <c r="D526"/>
+    </row>
+    <row r="527" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A527"/>
+      <c r="B527"/>
+      <c r="C527"/>
+      <c r="D527"/>
+    </row>
+    <row r="528" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A528"/>
+      <c r="B528"/>
+      <c r="C528"/>
+      <c r="D528"/>
+    </row>
+    <row r="529" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A529"/>
+      <c r="B529"/>
+      <c r="C529"/>
+      <c r="D529"/>
+    </row>
+    <row r="530" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A530"/>
+      <c r="B530"/>
+      <c r="C530"/>
+      <c r="D530"/>
+    </row>
+    <row r="531" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A531"/>
+      <c r="B531"/>
+      <c r="C531"/>
+      <c r="D531"/>
+    </row>
+    <row r="532" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A532"/>
+      <c r="B532"/>
+      <c r="C532"/>
+      <c r="D532"/>
+    </row>
+    <row r="533" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A533"/>
+      <c r="B533"/>
+      <c r="C533"/>
+      <c r="D533"/>
+    </row>
+    <row r="534" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A534"/>
+      <c r="B534"/>
+      <c r="C534"/>
+      <c r="D534"/>
+    </row>
+    <row r="535" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A535"/>
+      <c r="B535"/>
+      <c r="C535"/>
+      <c r="D535"/>
+    </row>
+    <row r="536" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A536"/>
+      <c r="B536"/>
+      <c r="C536"/>
+      <c r="D536"/>
+    </row>
+    <row r="537" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A537"/>
+      <c r="B537"/>
+      <c r="C537"/>
+      <c r="D537"/>
+    </row>
+    <row r="538" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A538"/>
+      <c r="B538"/>
+      <c r="C538"/>
+      <c r="D538"/>
+    </row>
+    <row r="539" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A539"/>
+      <c r="B539"/>
+      <c r="C539"/>
+      <c r="D539"/>
+    </row>
+    <row r="540" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A540"/>
+      <c r="B540"/>
+      <c r="C540"/>
+      <c r="D540"/>
+    </row>
+    <row r="541" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A541"/>
+      <c r="B541"/>
+      <c r="C541"/>
+      <c r="D541"/>
+    </row>
+    <row r="542" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A542"/>
+      <c r="B542"/>
+      <c r="C542"/>
+      <c r="D542"/>
+    </row>
+    <row r="543" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543"/>
+      <c r="B543"/>
+      <c r="C543"/>
+      <c r="D543"/>
+    </row>
+    <row r="544" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A544"/>
+      <c r="B544"/>
+      <c r="C544"/>
+      <c r="D544"/>
+    </row>
+    <row r="545" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A545"/>
+      <c r="B545"/>
+      <c r="C545"/>
+      <c r="D545"/>
+    </row>
+    <row r="546" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A546"/>
+      <c r="B546"/>
+      <c r="C546"/>
+      <c r="D546"/>
+    </row>
+    <row r="547" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A547"/>
+      <c r="B547"/>
+      <c r="C547"/>
+      <c r="D547"/>
+    </row>
+    <row r="548" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A548"/>
+      <c r="B548"/>
+      <c r="C548"/>
+      <c r="D548"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
